--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B46B3C9-9EED-4C51-86C2-2B59B18A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40569007-6079-40F9-9360-42CAB459CE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -530,6 +530,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -587,29 +596,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,137 +969,137 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
       <c r="S1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="13" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AD1" s="30" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AD1" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AL1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="35"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="34"/>
+      <c r="AQ1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="34"/>
     </row>
     <row r="2" spans="1:46" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="19" t="s">
         <v>60</v>
       </c>
       <c r="AD2" s="8" t="s">
@@ -1108,7 +1108,7 @@
       <c r="AE2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AH2" s="3" t="s">
@@ -1120,7 +1120,7 @@
       <c r="AJ2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AM2" s="3" t="s">
@@ -1132,42 +1132,42 @@
       <c r="AO2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="12"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="15"/>
     </row>
     <row r="3" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
       <c r="AD3" s="8" t="s">
         <v>41</v>
       </c>
@@ -1179,10 +1179,10 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1224,8 +1224,8 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -1243,8 +1243,8 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1281,10 +1281,10 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12"/>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1353,10 +1353,10 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1425,10 +1425,10 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1497,10 +1497,10 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1569,10 +1569,10 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -1635,10 +1635,10 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1701,10 +1701,10 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -1764,389 +1764,389 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="B13" s="21">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
         <v>101</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>1</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="19"/>
+      <c r="U13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="V13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
         <v>100</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="16">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16" t="s">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16" t="s">
+      <c r="T15" s="19"/>
+      <c r="U15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="V15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
         <v>111</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="16">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16">
-        <v>0</v>
-      </c>
-      <c r="M17" s="16">
-        <v>0</v>
-      </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>1</v>
-      </c>
-      <c r="P17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16" t="s">
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <v>0</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <v>1</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16" t="s">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="B19" s="21">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
         <v>110</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
-        <v>0</v>
-      </c>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>1</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16" t="s">
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16" t="s">
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Y19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12"/>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2205,10 +2205,10 @@
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12"/>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2267,10 +2267,10 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12"/>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2328,201 +2328,201 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
         <v>110</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="16">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16">
-        <v>0</v>
-      </c>
-      <c r="M24" s="16">
-        <v>0</v>
-      </c>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16" t="s">
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
+        <v>1</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16" t="s">
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="Y24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="s">
+      <c r="B26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="19">
         <v>110</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <v>1</v>
-      </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="16" t="s">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="19">
+        <v>0</v>
+      </c>
+      <c r="O26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16" t="s">
+      <c r="P26" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16" t="s">
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="Y26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="Z26" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
       <c r="T27" s="31"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
     </row>
     <row r="28" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12"/>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2585,10 +2585,10 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="11">
-        <v>0</v>
-      </c>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2651,10 +2651,10 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-      <c r="C30" s="12"/>
+      <c r="B30" s="14">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2717,10 +2717,10 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11">
-        <v>0</v>
-      </c>
-      <c r="C31" s="12"/>
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -2783,10 +2783,10 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="11">
-        <v>0</v>
-      </c>
-      <c r="C32" s="12"/>
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -2849,8 +2849,8 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2881,8 +2881,8 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2913,8 +2913,8 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2945,8 +2945,8 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2977,8 +2977,8 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3021,6 +3021,13 @@
     <mergeCell ref="X17:X18"/>
     <mergeCell ref="Y17:Y18"/>
     <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="T13:T14"/>
     <mergeCell ref="T2:T3"/>
@@ -3030,6 +3037,11 @@
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
     <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="X24:X25"/>
     <mergeCell ref="Y24:Y25"/>
     <mergeCell ref="Z24:Z25"/>
@@ -3039,8 +3051,6 @@
     <mergeCell ref="X26:X27"/>
     <mergeCell ref="Y26:Y27"/>
     <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="Y19:Y20"/>
     <mergeCell ref="Z19:Z20"/>
@@ -3050,16 +3060,9 @@
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y13:Y14"/>
     <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="A2:A3"/>
@@ -3075,17 +3078,28 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="S15:S16"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="S13:S14"/>
-    <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
@@ -3101,22 +3115,6 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="T17:T18"/>
@@ -3211,6 +3209,8 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca51a41c02ca2ab/Documents/GitHub/Architecture-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B46B3C9-9EED-4C51-86C2-2B59B18A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{5B46B3C9-9EED-4C51-86C2-2B59B18A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59303F2D-DB62-4D70-BBE1-8B055206C0BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="112">
   <si>
     <t>Instruction</t>
   </si>
@@ -314,6 +314,66 @@
   </si>
   <si>
     <t>"111"</t>
+  </si>
+  <si>
+    <t>"000000"</t>
+  </si>
+  <si>
+    <t>"000001"</t>
+  </si>
+  <si>
+    <t>"000010"</t>
+  </si>
+  <si>
+    <t>"000011"</t>
+  </si>
+  <si>
+    <t>"000100"</t>
+  </si>
+  <si>
+    <t>"000101"</t>
+  </si>
+  <si>
+    <t>"000110"</t>
+  </si>
+  <si>
+    <t>"000111"</t>
+  </si>
+  <si>
+    <t>"001000"</t>
+  </si>
+  <si>
+    <t>"001001"</t>
+  </si>
+  <si>
+    <t>"010000"</t>
+  </si>
+  <si>
+    <t>"010001"</t>
+  </si>
+  <si>
+    <t>"010010"</t>
+  </si>
+  <si>
+    <t>"010011"</t>
+  </si>
+  <si>
+    <t>"010100"</t>
+  </si>
+  <si>
+    <t>"010101"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"100001"</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>"100011"</t>
   </si>
 </sst>
 </file>
@@ -347,7 +407,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +420,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -491,20 +557,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -527,8 +584,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -536,80 +665,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:AT37"/>
+  <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,237 +1015,257 @@
     <col min="20" max="20" width="9.21875" customWidth="1"/>
     <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.44140625" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="18.21875" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" customWidth="1"/>
-    <col min="37" max="37" width="9" customWidth="1"/>
-    <col min="38" max="38" width="11.88671875" customWidth="1"/>
-    <col min="39" max="39" width="12.88671875" customWidth="1"/>
-    <col min="40" max="40" width="11.5546875" customWidth="1"/>
-    <col min="41" max="41" width="16.6640625" customWidth="1"/>
-    <col min="46" max="46" width="12.88671875" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" customWidth="1"/>
+    <col min="35" max="35" width="18.21875" customWidth="1"/>
+    <col min="36" max="36" width="17.6640625" customWidth="1"/>
+    <col min="38" max="38" width="9" customWidth="1"/>
+    <col min="39" max="39" width="11.88671875" customWidth="1"/>
+    <col min="40" max="40" width="12.88671875" customWidth="1"/>
+    <col min="41" max="41" width="11.5546875" customWidth="1"/>
+    <col min="42" max="42" width="16.6640625" customWidth="1"/>
+    <col min="47" max="47" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="13" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AD1" s="30" t="s">
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AH1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="13"/>
+      <c r="AM1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="35"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="13"/>
+      <c r="AR1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35"/>
-    </row>
-    <row r="2" spans="1:46" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="13"/>
+    </row>
+    <row r="2" spans="1:47" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AA2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AH2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AM2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AR2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AS2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="12"/>
-    </row>
-    <row r="3" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AD3" s="8" t="s">
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="22"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1224,27 +1307,31 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AD4" s="8" t="s">
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1262,29 +1349,33 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="4"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AD5" s="8" t="s">
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12"/>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1329,7 +1420,9 @@
       <c r="S6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="U6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1342,21 +1435,25 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AD6" s="8" t="s">
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1401,7 +1498,9 @@
       <c r="S7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="U7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1414,21 +1513,25 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AD7" s="8" t="s">
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AF7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1473,7 +1576,9 @@
       <c r="S8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="4"/>
+      <c r="T8" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="U8" s="4" t="s">
         <v>61</v>
       </c>
@@ -1486,21 +1591,25 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AD8" s="8" t="s">
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1545,7 +1654,9 @@
       <c r="S9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="4"/>
+      <c r="T9" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="U9" s="4" t="s">
         <v>58</v>
       </c>
@@ -1558,21 +1669,25 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AD9" s="8" t="s">
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AF9" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -1617,7 +1732,9 @@
       <c r="S10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="U10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1630,15 +1747,19 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="35"/>
+    </row>
+    <row r="11" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1683,7 +1804,9 @@
       <c r="S11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="U11" s="4" t="s">
         <v>62</v>
       </c>
@@ -1696,15 +1819,19 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="35"/>
+    </row>
+    <row r="12" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -1749,7 +1876,9 @@
       <c r="S12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="U12" s="4" t="s">
         <v>62</v>
       </c>
@@ -1762,391 +1891,435 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="35"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
         <v>101</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>1</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="V13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="35"/>
+    </row>
+    <row r="14" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="35"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
         <v>100</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="16">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16" t="s">
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16" t="s">
+      <c r="T15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="V15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-    </row>
-    <row r="16" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="35"/>
+    </row>
+    <row r="16" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="35"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
         <v>111</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="16">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16">
-        <v>0</v>
-      </c>
-      <c r="M17" s="16">
-        <v>0</v>
-      </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>1</v>
-      </c>
-      <c r="P17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16" t="s">
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16" t="s">
+      <c r="T17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="U17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-    </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="35"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="35"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
         <v>110</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
-        <v>0</v>
-      </c>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>1</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16" t="s">
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16" t="s">
+      <c r="T19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Y19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="35"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="35"/>
+    </row>
+    <row r="21" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12"/>
+      <c r="B21" s="20">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2191,7 +2364,9 @@
       <c r="S21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="4"/>
+      <c r="T21" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -2200,15 +2375,19 @@
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="35"/>
+    </row>
+    <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12"/>
+      <c r="B22" s="20">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2253,7 +2432,9 @@
       <c r="S22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -2262,15 +2443,19 @@
         <v>58</v>
       </c>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="35"/>
+    </row>
+    <row r="23" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12"/>
+      <c r="B23" s="20">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2315,7 +2500,9 @@
       <c r="S23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -2326,203 +2513,227 @@
       <c r="Z23" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="35"/>
+    </row>
+    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
+      <c r="B24" s="29">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
         <v>110</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="16">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16">
-        <v>0</v>
-      </c>
-      <c r="M24" s="16">
-        <v>0</v>
-      </c>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16" t="s">
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16" t="s">
+      <c r="T24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="Y24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-    </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="35"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="35"/>
+    </row>
+    <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="s">
+      <c r="B26" s="29">
+        <v>0</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="14">
         <v>110</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <v>1</v>
-      </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="16" t="s">
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16" t="s">
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16" t="s">
+      <c r="T26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="Y26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="Z26" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-    </row>
-    <row r="28" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="35"/>
+    </row>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="35"/>
+    </row>
+    <row r="28" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12"/>
+      <c r="B28" s="20">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2567,28 +2778,34 @@
       <c r="S28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T28" s="4"/>
+      <c r="T28" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4" t="s">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="AB28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AC28" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD28" s="35"/>
+    </row>
+    <row r="29" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="11">
-        <v>0</v>
-      </c>
-      <c r="C29" s="12"/>
+      <c r="B29" s="20">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2637,24 +2854,28 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="4" t="s">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="AB29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AC29" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD29" s="35"/>
+    </row>
+    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-      <c r="C30" s="12"/>
+      <c r="B30" s="20">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2699,28 +2920,34 @@
       <c r="S30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T30" s="4"/>
+      <c r="T30" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="4" t="s">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="AB30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AC30" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD30" s="35"/>
+    </row>
+    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11">
-        <v>0</v>
-      </c>
-      <c r="C31" s="12"/>
+      <c r="B31" s="20">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -2765,28 +2992,34 @@
       <c r="S31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="4" t="s">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="AB31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Z31" s="4" t="s">
+      <c r="AC31" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD31" s="35"/>
+    </row>
+    <row r="32" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="11">
-        <v>0</v>
-      </c>
-      <c r="C32" s="12"/>
+      <c r="B32" s="20">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -2831,26 +3064,32 @@
       <c r="S32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T32" s="4"/>
+      <c r="T32" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="4" t="s">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="4" t="s">
+      <c r="AB32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AC32" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD32" s="35"/>
+    </row>
+    <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2876,13 +3115,17 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-    </row>
-    <row r="34" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="35"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2908,13 +3151,17 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="35"/>
+    </row>
+    <row r="35" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2940,13 +3187,17 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="35"/>
+    </row>
+    <row r="36" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2972,13 +3223,17 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="35"/>
+    </row>
+    <row r="37" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3004,86 +3259,133 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="204">
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+  <mergeCells count="226">
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -3108,109 +3410,88 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="S15:S16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="T17:T18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="S19:S20"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca51a41c02ca2ab/Documents/GitHub/Architecture-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{5B46B3C9-9EED-4C51-86C2-2B59B18A328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59303F2D-DB62-4D70-BBE1-8B055206C0BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7FDEE-5691-42E0-BBBD-C1C73786C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
   <si>
     <t>Instruction</t>
   </si>
@@ -283,9 +283,6 @@
     <t>"01"</t>
   </si>
   <si>
-    <t>OpCode (5)</t>
-  </si>
-  <si>
     <t>Rs1 (3)</t>
   </si>
   <si>
@@ -374,6 +371,15 @@
   </si>
   <si>
     <t>"100011"</t>
+  </si>
+  <si>
+    <t>OpCode (6)</t>
+  </si>
+  <si>
+    <t>2Bits (Type of Instruction)</t>
+  </si>
+  <si>
+    <t>4Bits (Number of instruction in this type)</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -584,12 +590,84 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,76 +680,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,246 +1044,259 @@
     <col min="41" max="41" width="11.5546875" customWidth="1"/>
     <col min="42" max="42" width="16.6640625" customWidth="1"/>
     <col min="47" max="47" width="12.88671875" customWidth="1"/>
+    <col min="49" max="49" width="22.33203125" customWidth="1"/>
+    <col min="50" max="50" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="17" t="s">
+      <c r="V1" s="22"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="8" t="s">
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="13"/>
-      <c r="AM1" s="11" t="s">
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AM1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="13"/>
-      <c r="AR1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="13"/>
-    </row>
-    <row r="2" spans="1:47" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
+      <c r="AR1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="37"/>
+      <c r="AW1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="36"/>
+    </row>
+    <row r="2" spans="1:50" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AR2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AR2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="22"/>
-    </row>
-    <row r="3" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="36" t="s">
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1307,31 +1338,31 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="36" t="s">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1349,33 +1380,33 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="36" t="s">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1420,8 +1451,8 @@
       <c r="S6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>92</v>
+      <c r="T6" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>61</v>
@@ -1435,25 +1466,25 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="36" t="s">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AF6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22"/>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1499,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>61</v>
@@ -1513,25 +1544,25 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="36" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF7" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1576,8 +1607,8 @@
       <c r="S8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>94</v>
+      <c r="T8" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>61</v>
@@ -1591,25 +1622,25 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="36" t="s">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22"/>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1654,8 +1685,8 @@
       <c r="S9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>95</v>
+      <c r="T9" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>58</v>
@@ -1669,25 +1700,25 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="36" t="s">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AF9" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF9" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22"/>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -1732,8 +1763,8 @@
       <c r="S10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>96</v>
+      <c r="T10" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>61</v>
@@ -1747,19 +1778,19 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="35"/>
-    </row>
-    <row r="11" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22"/>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1804,8 +1835,8 @@
       <c r="S11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="9" t="s">
-        <v>97</v>
+      <c r="T11" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>62</v>
@@ -1819,19 +1850,19 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="35"/>
-    </row>
-    <row r="12" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="13"/>
+    </row>
+    <row r="12" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22"/>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -1876,8 +1907,8 @@
       <c r="S12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>98</v>
+      <c r="T12" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>62</v>
@@ -1891,435 +1922,435 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="35"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="13"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="B13" s="24">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
         <v>101</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>1</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14" t="s">
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="13"/>
+    </row>
+    <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="13"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>100</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="14" t="s">
+      <c r="W15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="35"/>
-    </row>
-    <row r="14" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="35"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="13"/>
+    </row>
+    <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="13"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>111</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="U17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="13"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="13"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="24">
+        <v>1</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>110</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>1</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="14" t="s">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="35"/>
-    </row>
-    <row r="16" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="35"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>111</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="35"/>
-    </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="35"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>110</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>1</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z19" s="14" t="s">
+      <c r="Z19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="35"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="13"/>
     </row>
     <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="35"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="20">
-        <v>0</v>
-      </c>
-      <c r="C21" s="22"/>
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2365,7 +2396,7 @@
         <v>23</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -2375,19 +2406,19 @@
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="35"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="13"/>
     </row>
     <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-      <c r="C22" s="22"/>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2433,7 +2464,7 @@
         <v>23</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -2443,19 +2474,19 @@
         <v>58</v>
       </c>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="35"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="13"/>
     </row>
     <row r="23" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-      <c r="C23" s="22"/>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2501,7 +2532,7 @@
         <v>23</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -2513,227 +2544,227 @@
       <c r="Z23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="35"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="29">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="B24" s="24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
         <v>110</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="14">
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14">
-        <v>1</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14" t="s">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="13"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="13"/>
+    </row>
+    <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="15">
+        <v>110</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" s="14" t="s">
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="35"/>
-    </row>
-    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="35"/>
-    </row>
-    <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="29">
-        <v>0</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="14">
-        <v>110</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
-        <v>1</v>
-      </c>
-      <c r="N26" s="14">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="35"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="13"/>
     </row>
     <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="35"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="13"/>
     </row>
     <row r="28" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="20">
-        <v>0</v>
-      </c>
-      <c r="C28" s="22"/>
+      <c r="B28" s="19">
+        <v>0</v>
+      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2779,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -2787,25 +2818,25 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="9" t="s">
+      <c r="AA28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB28" s="9" t="s">
+      <c r="AB28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC28" s="9" t="s">
+      <c r="AC28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD28" s="35"/>
+      <c r="AD28" s="13"/>
     </row>
     <row r="29" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="20">
-        <v>0</v>
-      </c>
-      <c r="C29" s="22"/>
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2857,25 +2888,25 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="9" t="s">
+      <c r="AA29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB29" s="9" t="s">
+      <c r="AB29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC29" s="9" t="s">
+      <c r="AC29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD29" s="35"/>
+      <c r="AD29" s="13"/>
     </row>
     <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="20">
-        <v>0</v>
-      </c>
-      <c r="C30" s="22"/>
+      <c r="B30" s="19">
+        <v>0</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2921,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -2929,25 +2960,25 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="9" t="s">
+      <c r="AA30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB30" s="9" t="s">
+      <c r="AB30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="9" t="s">
+      <c r="AC30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD30" s="35"/>
+      <c r="AD30" s="13"/>
     </row>
     <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="20">
-        <v>0</v>
-      </c>
-      <c r="C31" s="22"/>
+      <c r="B31" s="19">
+        <v>0</v>
+      </c>
+      <c r="C31" s="20"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -2993,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -3001,25 +3032,25 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="9" t="s">
+      <c r="AA31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB31" s="9" t="s">
+      <c r="AB31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC31" s="9" t="s">
+      <c r="AC31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD31" s="35"/>
+      <c r="AD31" s="13"/>
     </row>
     <row r="32" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="20">
-        <v>0</v>
-      </c>
-      <c r="C32" s="22"/>
+      <c r="B32" s="19">
+        <v>0</v>
+      </c>
+      <c r="C32" s="20"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3073,23 +3104,23 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="9" t="s">
+      <c r="AA32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB32" s="9" t="s">
+      <c r="AB32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="9" t="s">
+      <c r="AC32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD32" s="35"/>
+      <c r="AD32" s="13"/>
     </row>
     <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3115,17 +3146,17 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="35"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="13"/>
     </row>
     <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3151,17 +3182,17 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="35"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="13"/>
     </row>
     <row r="35" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3187,17 +3218,17 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="35"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="13"/>
     </row>
     <row r="36" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3223,17 +3254,17 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="35"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="13"/>
     </row>
     <row r="37" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3259,41 +3290,188 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="35"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="226">
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+  <mergeCells count="227">
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B28:C28"/>
@@ -3318,180 +3496,34 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7FDEE-5691-42E0-BBBD-C1C73786C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816A487-4315-441A-90CB-84743CF5A0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-25335" yWindow="375" windowWidth="25470" windowHeight="15420" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
   <si>
     <t>Instruction</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Reg Dst</t>
   </si>
   <si>
-    <t>Reg Write2</t>
-  </si>
-  <si>
     <t>Reg Write1</t>
   </si>
   <si>
@@ -380,6 +377,30 @@
   </si>
   <si>
     <t>4Bits (Number of instruction in this type)</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>IF/ID</t>
+  </si>
+  <si>
+    <t>ID/EX</t>
+  </si>
+  <si>
+    <t>EX/MEM</t>
+  </si>
+  <si>
+    <t>MEM/WB</t>
+  </si>
+  <si>
+    <t>32(PC) + 32(I) = 64Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32(PC) + (16-1)(S) + 32(RD1) + 32(RD2) +3(Rs2) +3(Rd) +32(Sign Extent) =  149 bits </t>
   </si>
 </sst>
 </file>
@@ -567,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -611,6 +632,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,15 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,213 +1033,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:AX37"/>
+  <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.44140625" customWidth="1"/>
-    <col min="32" max="32" width="17.6640625" customWidth="1"/>
-    <col min="34" max="34" width="20.6640625" customWidth="1"/>
-    <col min="35" max="35" width="18.21875" customWidth="1"/>
-    <col min="36" max="36" width="17.6640625" customWidth="1"/>
-    <col min="38" max="38" width="9" customWidth="1"/>
-    <col min="39" max="39" width="11.88671875" customWidth="1"/>
-    <col min="40" max="40" width="12.88671875" customWidth="1"/>
-    <col min="41" max="41" width="11.5546875" customWidth="1"/>
-    <col min="42" max="42" width="16.6640625" customWidth="1"/>
-    <col min="47" max="47" width="12.88671875" customWidth="1"/>
-    <col min="49" max="49" width="22.33203125" customWidth="1"/>
-    <col min="50" max="50" width="37.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.44140625" customWidth="1"/>
+    <col min="31" max="31" width="76.5546875" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" customWidth="1"/>
+    <col min="34" max="34" width="18.21875" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9" customWidth="1"/>
+    <col min="38" max="38" width="11.88671875" customWidth="1"/>
+    <col min="39" max="39" width="12.88671875" customWidth="1"/>
+    <col min="40" max="40" width="11.5546875" customWidth="1"/>
+    <col min="41" max="41" width="16.6640625" customWidth="1"/>
+    <col min="46" max="46" width="12.88671875" customWidth="1"/>
+    <col min="48" max="48" width="22.33203125" customWidth="1"/>
+    <col min="49" max="49" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="6" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="21" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="21" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AM1" s="35" t="s">
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AL1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="37"/>
-      <c r="AR1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="37"/>
-      <c r="AW1" s="35" t="s">
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="42"/>
+      <c r="AQ1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="42"/>
+      <c r="AV1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="36"/>
-    </row>
-    <row r="2" spans="1:50" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="AW1" s="41"/>
+    </row>
+    <row r="2" spans="1:49" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>111</v>
+      <c r="AG2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>81</v>
@@ -1220,83 +1245,79 @@
       <c r="AJ2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>111</v>
+      <c r="AL2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AN2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AS2" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="41"/>
       <c r="AW2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AX2" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="40" t="s">
+    </row>
+    <row r="3" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE3" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20"/>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1309,14 +1330,14 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1333,44 +1354,41 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="40" t="s">
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE4" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1379,34 +1397,33 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="40" t="s">
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE5" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1419,14 +1436,14 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="H6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1443,16 +1460,16 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>91</v>
+      <c r="S6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>61</v>
@@ -1460,31 +1477,28 @@
       <c r="V6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="40" t="s">
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AF6" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE6" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1495,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1516,53 +1530,50 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S7" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="T7" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="40" t="s">
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1573,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>79</v>
+      <c r="J8" s="2">
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1594,73 +1605,70 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>93</v>
+      <c r="S8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="40" t="s">
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE8" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="19">
-        <v>0</v>
-      </c>
-      <c r="C9" s="20"/>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1677,53 +1685,50 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="8" t="s">
-        <v>94</v>
+      <c r="S9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AF9" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE9" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20"/>
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1731,14 +1736,14 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
+      <c r="H10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1750,47 +1755,44 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>95</v>
+      <c r="S10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC10" s="13"/>
+    </row>
+    <row r="11" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20"/>
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1803,14 +1805,14 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
+      <c r="H11" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1822,49 +1824,46 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="8" t="s">
-        <v>96</v>
+      <c r="S11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W11" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="13"/>
-    </row>
-    <row r="12" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC11" s="13"/>
+    </row>
+    <row r="12" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20"/>
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="25"/>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1873,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1894,463 +1893,470 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="8" t="s">
-        <v>97</v>
+      <c r="S12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="13"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="AC12" s="13"/>
+    </row>
+    <row r="13" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="24">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <v>101</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15">
-        <v>1</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15" t="s">
+      <c r="I13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <v>1</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="S13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE13" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>100</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
+        <v>1</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="T15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="U15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="V15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="13"/>
-    </row>
-    <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="13"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="24">
-        <v>1</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE16" s="19"/>
+    </row>
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>111</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
+        <v>1</v>
+      </c>
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE17" s="19"/>
+    </row>
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="13"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>110</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <v>1</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="15" t="s">
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="13"/>
-    </row>
-    <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="13"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="24">
-        <v>1</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>111</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
-        <v>1</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="13"/>
-    </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="13"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="24">
-        <v>1</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>110</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <v>1</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z19" s="15" t="s">
+      <c r="Y19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="13"/>
-    </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="13"/>
-    </row>
-    <row r="21" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="13"/>
+    </row>
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="13"/>
+    </row>
+    <row r="21" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="19">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20"/>
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2363,23 +2369,23 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
+      <c r="H21" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -2387,38 +2393,35 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="S21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="13"/>
-    </row>
-    <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC21" s="13"/>
+    </row>
+    <row r="22" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="19">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20"/>
+      <c r="B22" s="24">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2429,64 +2432,61 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="S22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4" t="s">
+      <c r="X22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="13"/>
-    </row>
-    <row r="23" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="13"/>
+    </row>
+    <row r="23" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="19">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20"/>
+      <c r="B23" s="24">
+        <v>1</v>
+      </c>
+      <c r="C23" s="25"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2494,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
+      <c r="H23" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -2515,256 +2515,245 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="S23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="Y23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z23" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="13"/>
-    </row>
-    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="AC23" s="13"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
+      <c r="B24" s="29">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
         <v>110</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="15">
-        <v>1</v>
-      </c>
-      <c r="O24" s="15">
-        <v>0</v>
-      </c>
-      <c r="P24" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15" t="s">
+      <c r="I24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <v>1</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0</v>
+      </c>
+      <c r="O24" s="20">
+        <v>0</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="S24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="13"/>
+    </row>
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="13"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="20">
+        <v>110</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+      <c r="L26" s="20">
+        <v>1</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="20">
+        <v>0</v>
+      </c>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" s="15" t="s">
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="X26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="13"/>
-    </row>
-    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="13"/>
-    </row>
-    <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="24">
-        <v>0</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="15">
-        <v>110</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>1</v>
-      </c>
-      <c r="N26" s="15">
-        <v>0</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="13"/>
-    </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="13"/>
-    </row>
-    <row r="28" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="13"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="13"/>
+    </row>
+    <row r="28" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
-        <v>0</v>
-      </c>
-      <c r="C28" s="20"/>
+      <c r="B28" s="24">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2772,71 +2761,68 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="2">
+        <v>11</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="2">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T28" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="S28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
+      <c r="Z28" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="AA28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD28" s="13"/>
-    </row>
-    <row r="29" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC28" s="13"/>
+    </row>
+    <row r="29" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="19">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20"/>
+      <c r="B29" s="24">
+        <v>0</v>
+      </c>
+      <c r="C29" s="25"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2844,69 +2830,66 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="AA29" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD29" s="13"/>
-    </row>
-    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC29" s="13"/>
+    </row>
+    <row r="30" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="19">
-        <v>0</v>
-      </c>
-      <c r="C30" s="20"/>
+      <c r="B30" s="24">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2914,71 +2897,68 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="S30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="Z30" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="AA30" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD30" s="13"/>
-    </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC30" s="13"/>
+    </row>
+    <row r="31" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-      <c r="C31" s="20"/>
+      <c r="B31" s="24">
+        <v>0</v>
+      </c>
+      <c r="C31" s="25"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -2986,71 +2966,68 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="S31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="AA31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD31" s="13"/>
-    </row>
-    <row r="32" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC31" s="13"/>
+    </row>
+    <row r="32" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="19">
-        <v>0</v>
-      </c>
-      <c r="C32" s="20"/>
+      <c r="B32" s="24">
+        <v>0</v>
+      </c>
+      <c r="C32" s="25"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3058,77 +3035,74 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1</v>
-      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="S32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="Z32" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="AA32" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD32" s="13"/>
-    </row>
-    <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC32" s="13"/>
+    </row>
+    <row r="33" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -3138,33 +3112,32 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
+      <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="13"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC33" s="13"/>
+    </row>
+    <row r="34" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3175,32 +3148,31 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+      <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="13"/>
-    </row>
-    <row r="35" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC34" s="13"/>
+    </row>
+    <row r="35" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3211,32 +3183,31 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
+      <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="13"/>
-    </row>
-    <row r="36" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC35" s="13"/>
+    </row>
+    <row r="36" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3247,32 +3218,31 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="13"/>
-    </row>
-    <row r="37" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC36" s="13"/>
+    </row>
+    <row r="37" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3283,93 +3253,98 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
+      <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="13"/>
+      <c r="AC37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AR1:AU1"/>
+  <mergeCells count="220">
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="T15:T16"/>
     <mergeCell ref="U15:U16"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="W15:W16"/>
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S24:S25"/>
     <mergeCell ref="T24:T25"/>
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="U19:U20"/>
     <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
     <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W24:W25"/>
     <mergeCell ref="X24:X25"/>
     <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
     <mergeCell ref="V26:V27"/>
     <mergeCell ref="W26:W27"/>
     <mergeCell ref="X26:X27"/>
     <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="T13:T14"/>
     <mergeCell ref="U13:U14"/>
     <mergeCell ref="V13:V14"/>
     <mergeCell ref="W13:W14"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -3377,45 +3352,43 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="R13:R14"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
@@ -3424,75 +3397,71 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R19:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="O19:O20"/>
     <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
     <mergeCell ref="B26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N24:N25"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -3505,25 +3474,18 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="Z17:Z18"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="AA19:AA20"/>
     <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="Z24:Z25"/>
     <mergeCell ref="AA24:AA25"/>
     <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816A487-4315-441A-90CB-84743CF5A0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F4220-3378-440D-95B2-EFDB98DEC476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25335" yWindow="375" windowWidth="25470" windowHeight="15420" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
   <si>
     <t>Instruction</t>
   </si>
@@ -653,71 +653,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:AW37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
+      <selection activeCell="V15" sqref="V15:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,45 +1078,45 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="26" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="26" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
       <c r="AC1" s="14"/>
       <c r="AD1" s="15" t="s">
         <v>38</v>
@@ -1124,71 +1124,71 @@
       <c r="AE1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AG1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="42"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="27"/>
+      <c r="AL1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="42"/>
-      <c r="AQ1" s="40" t="s">
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="27"/>
+      <c r="AQ1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="42"/>
-      <c r="AV1" s="40" t="s">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="27"/>
+      <c r="AV1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AW1" s="41"/>
+      <c r="AW1" s="26"/>
     </row>
     <row r="2" spans="1:49" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="20"/>
@@ -1260,11 +1260,11 @@
       <c r="AQ2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="25"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="30"/>
       <c r="AU2" s="17"/>
       <c r="AV2" s="10" t="s">
         <v>111</v>
@@ -1275,20 +1275,20 @@
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1314,10 +1314,10 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25"/>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1379,22 +1379,46 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="8"/>
@@ -1420,10 +1444,10 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25"/>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1495,10 +1519,10 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25"/>
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1570,10 +1594,10 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="24">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25"/>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1645,10 +1669,10 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="24">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25"/>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="30"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1720,10 +1744,10 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25"/>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1789,10 +1813,10 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="24">
-        <v>1</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="28">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1858,10 +1882,10 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="24">
-        <v>1</v>
-      </c>
-      <c r="C12" s="25"/>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -1924,13 +1948,13 @@
       <c r="AC12" s="13"/>
     </row>
     <row r="13" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30"/>
+      <c r="B13" s="38">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39"/>
       <c r="D13" s="20">
         <v>0</v>
       </c>
@@ -1999,9 +2023,9 @@
       </c>
     </row>
     <row r="14" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -2035,14 +2059,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30"/>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39"/>
       <c r="D15" s="20">
         <v>0</v>
       </c>
@@ -2111,9 +2135,9 @@
       </c>
     </row>
     <row r="16" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -2146,13 +2170,13 @@
       <c r="AE16" s="19"/>
     </row>
     <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30"/>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39"/>
       <c r="D17" s="20">
         <v>0</v>
       </c>
@@ -2219,9 +2243,9 @@
       <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -2250,13 +2274,13 @@
       <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30"/>
+      <c r="B19" s="38">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39"/>
       <c r="D19" s="20">
         <v>0</v>
       </c>
@@ -2319,9 +2343,9 @@
       <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -2353,10 +2377,10 @@
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="24">
-        <v>0</v>
-      </c>
-      <c r="C21" s="25"/>
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="30"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2418,10 +2442,10 @@
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="24">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25"/>
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2483,10 +2507,10 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="24">
-        <v>1</v>
-      </c>
-      <c r="C23" s="25"/>
+      <c r="B23" s="28">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2547,13 +2571,13 @@
       <c r="AC23" s="13"/>
     </row>
     <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="29">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30"/>
+      <c r="B24" s="38">
+        <v>1</v>
+      </c>
+      <c r="C24" s="39"/>
       <c r="D24" s="20">
         <v>0</v>
       </c>
@@ -2616,9 +2640,9 @@
       <c r="AC24" s="13"/>
     </row>
     <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -2647,13 +2671,13 @@
       <c r="AC25" s="13"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="29">
-        <v>0</v>
-      </c>
-      <c r="C26" s="30"/>
+      <c r="B26" s="38">
+        <v>0</v>
+      </c>
+      <c r="C26" s="39"/>
       <c r="D26" s="20">
         <v>0</v>
       </c>
@@ -2716,9 +2740,9 @@
       <c r="AC26" s="13"/>
     </row>
     <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -2734,7 +2758,7 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="39"/>
+      <c r="S27" s="31"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
@@ -2750,10 +2774,10 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="24">
-        <v>0</v>
-      </c>
-      <c r="C28" s="25"/>
+      <c r="B28" s="28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2819,10 +2843,10 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="24">
-        <v>0</v>
-      </c>
-      <c r="C29" s="25"/>
+      <c r="B29" s="28">
+        <v>0</v>
+      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2886,10 +2910,10 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="24">
-        <v>0</v>
-      </c>
-      <c r="C30" s="25"/>
+      <c r="B30" s="28">
+        <v>0</v>
+      </c>
+      <c r="C30" s="30"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2955,10 +2979,10 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="24">
-        <v>0</v>
-      </c>
-      <c r="C31" s="25"/>
+      <c r="B31" s="28">
+        <v>0</v>
+      </c>
+      <c r="C31" s="30"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3024,10 +3048,10 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="24">
-        <v>0</v>
-      </c>
-      <c r="C32" s="25"/>
+      <c r="B32" s="28">
+        <v>0</v>
+      </c>
+      <c r="C32" s="30"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3093,8 +3117,8 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3128,8 +3152,8 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3163,8 +3187,8 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3198,8 +3222,8 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3233,8 +3257,8 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3266,6 +3290,202 @@
     </row>
   </sheetData>
   <mergeCells count="220">
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
     <mergeCell ref="AA15:AA16"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="W1:Y1"/>
@@ -3290,202 +3510,6 @@
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="Z13:Z14"/>
     <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Spring 2022 - semester 8\Computer Arch\project\project phase 1\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F4220-3378-440D-95B2-EFDB98DEC476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E03CCC-FCEB-4121-9CD9-53BED77E3EF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,17 @@
   <definedNames>
     <definedName name="_Hlk100511737" localSheetId="0">Sheet1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
   <si>
     <t>Instruction</t>
   </si>
@@ -401,6 +391,15 @@
   </si>
   <si>
     <t xml:space="preserve">32(PC) + (16-1)(S) + 32(RD1) + 32(RD2) +3(Rs2) +3(Rd) +32(Sign Extent) =  149 bits </t>
+  </si>
+  <si>
+    <t>RevFlag</t>
+  </si>
+  <si>
+    <t>HwInt</t>
+  </si>
+  <si>
+    <t>SwInt</t>
   </si>
 </sst>
 </file>
@@ -588,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -653,6 +652,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,6 +680,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,53 +724,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:AX37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15:V16"/>
+      <selection activeCell="R15" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,270 +1062,279 @@
     <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1"/>
-    <col min="19" max="19" width="9.21875" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.44140625" customWidth="1"/>
-    <col min="31" max="31" width="76.5546875" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="18.21875" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" customWidth="1"/>
-    <col min="37" max="37" width="9" customWidth="1"/>
-    <col min="38" max="38" width="11.88671875" customWidth="1"/>
-    <col min="39" max="39" width="12.88671875" customWidth="1"/>
-    <col min="40" max="40" width="11.5546875" customWidth="1"/>
-    <col min="41" max="41" width="16.6640625" customWidth="1"/>
-    <col min="46" max="46" width="12.88671875" customWidth="1"/>
-    <col min="48" max="48" width="22.33203125" customWidth="1"/>
-    <col min="49" max="49" width="37.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" customWidth="1"/>
+    <col min="32" max="32" width="76.5546875" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" customWidth="1"/>
+    <col min="35" max="35" width="18.21875" customWidth="1"/>
+    <col min="36" max="36" width="17.6640625" customWidth="1"/>
+    <col min="38" max="38" width="9" customWidth="1"/>
+    <col min="39" max="39" width="11.88671875" customWidth="1"/>
+    <col min="40" max="40" width="12.88671875" customWidth="1"/>
+    <col min="41" max="41" width="11.5546875" customWidth="1"/>
+    <col min="42" max="42" width="16.6640625" customWidth="1"/>
+    <col min="47" max="47" width="12.88671875" customWidth="1"/>
+    <col min="49" max="49" width="22.33203125" customWidth="1"/>
+    <col min="50" max="50" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="6" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="30"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AH1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="27"/>
-      <c r="AL1" s="25" t="s">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="45"/>
+      <c r="AM1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="27"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="45"/>
+      <c r="AR1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="27"/>
-      <c r="AV1" s="25" t="s">
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="45"/>
+      <c r="AW1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AW1" s="26"/>
-    </row>
-    <row r="2" spans="1:49" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="AX1" s="44"/>
+    </row>
+    <row r="2" spans="1:50" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="P2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="V2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="W2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="X2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Y2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Z2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="28" t="s">
+      <c r="AS2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="10" t="s">
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="16" t="s">
+    <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30"/>
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1355,34 +1372,35 @@
         <v>0</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="8"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="4"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="16" t="s">
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30"/>
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1420,34 +1438,35 @@
         <v>0</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="8"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="16" t="s">
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AF5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="30"/>
+      <c r="B6" s="27">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1485,15 +1504,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>61</v>
@@ -1501,28 +1518,31 @@
       <c r="V6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="4"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="16" t="s">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AF6" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="28">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30"/>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1560,44 +1580,45 @@
         <v>0</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30"/>
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1635,44 +1656,45 @@
         <v>0</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="T8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="16" t="s">
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AF8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="30"/>
+      <c r="B9" s="27">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1710,44 +1732,45 @@
         <v>0</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="4"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="16" t="s">
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AF9" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="28">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30"/>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1785,38 +1808,39 @@
         <v>0</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="13"/>
-    </row>
-    <row r="11" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="28">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30"/>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1854,38 +1878,39 @@
         <v>0</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="8"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
-      <c r="AC11" s="13"/>
-    </row>
-    <row r="12" spans="1:49" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="13"/>
+    </row>
+    <row r="12" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="28">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30"/>
+      <c r="B12" s="27">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -1923,464 +1948,473 @@
         <v>0</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
-      <c r="AC12" s="13"/>
-    </row>
-    <row r="13" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="13"/>
+    </row>
+    <row r="13" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="38">
-        <v>1</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
         <v>101</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20">
-        <v>1</v>
-      </c>
-      <c r="O13" s="20">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20"/>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0</v>
+      </c>
+      <c r="P13" s="23"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="23"/>
+      <c r="S13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="T13" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="U13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="V13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="W13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="15" t="s">
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="AE13" s="18" t="s">
+      <c r="AF13" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+    <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="16" t="s">
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AE14" s="19" t="s">
+      <c r="AF14" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="38">
-        <v>1</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
         <v>100</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="20">
-        <v>0</v>
-      </c>
-      <c r="M15" s="20">
-        <v>0</v>
-      </c>
-      <c r="N15" s="20">
-        <v>1</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20"/>
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0</v>
+      </c>
+      <c r="M15" s="23">
+        <v>0</v>
+      </c>
+      <c r="N15" s="23">
+        <v>1</v>
+      </c>
+      <c r="O15" s="23">
+        <v>0</v>
+      </c>
+      <c r="P15" s="23"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="23"/>
+      <c r="S15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="T15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="U15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="V15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="20" t="s">
+      <c r="W15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="16" t="s">
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+    <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="16" t="s">
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AE16" s="19"/>
-    </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+      <c r="AF16" s="19"/>
+    </row>
+    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="38">
-        <v>1</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="20">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
         <v>111</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="20">
-        <v>0</v>
-      </c>
-      <c r="M17" s="20">
-        <v>0</v>
-      </c>
-      <c r="N17" s="20">
-        <v>1</v>
-      </c>
-      <c r="O17" s="20">
-        <v>0</v>
-      </c>
-      <c r="P17" s="20"/>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>0</v>
+      </c>
+      <c r="N17" s="23">
+        <v>1</v>
+      </c>
+      <c r="O17" s="23">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23"/>
       <c r="Q17" s="20"/>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="23"/>
+      <c r="S17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="T17" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="U17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="V17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="20" t="s">
+      <c r="W17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="16" t="s">
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="AE17" s="19"/>
-    </row>
-    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="AF17" s="19"/>
+    </row>
+    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="13"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="38">
-        <v>1</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="20">
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
         <v>110</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="20">
-        <v>0</v>
-      </c>
-      <c r="K19" s="20">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20">
-        <v>0</v>
-      </c>
-      <c r="M19" s="20">
-        <v>0</v>
-      </c>
-      <c r="N19" s="20">
-        <v>1</v>
-      </c>
-      <c r="O19" s="20">
-        <v>0</v>
-      </c>
-      <c r="P19" s="20"/>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+      <c r="M19" s="23">
+        <v>0</v>
+      </c>
+      <c r="N19" s="23">
+        <v>1</v>
+      </c>
+      <c r="O19" s="23">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="23"/>
+      <c r="S19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="T19" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20" t="s">
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="X19" s="20" t="s">
+      <c r="Y19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="20" t="s">
+      <c r="Z19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="13"/>
-    </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="13"/>
-    </row>
-    <row r="21" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="13"/>
+    </row>
+    <row r="21" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="28">
-        <v>0</v>
-      </c>
-      <c r="C21" s="30"/>
+      <c r="B21" s="27">
+        <v>0</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2418,34 +2452,35 @@
         <v>0</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="s">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="4"/>
+      <c r="X21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="4"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
-      <c r="AC21" s="13"/>
-    </row>
-    <row r="22" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="13"/>
+    </row>
+    <row r="22" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="28">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30"/>
+      <c r="B22" s="27">
+        <v>1</v>
+      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2483,34 +2518,35 @@
         <v>0</v>
       </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="Q22" s="22"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="4"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
-      <c r="AC22" s="13"/>
-    </row>
-    <row r="23" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="13"/>
+    </row>
+    <row r="23" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="28">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30"/>
+      <c r="B23" s="27">
+        <v>1</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2548,236 +2584,241 @@
         <v>0</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="s">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4" t="s">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="13"/>
-    </row>
-    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="13"/>
+    </row>
+    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="38">
-        <v>1</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20">
+      <c r="B24" s="32">
+        <v>1</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23">
         <v>110</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="20">
-        <v>0</v>
-      </c>
-      <c r="K24" s="20">
-        <v>0</v>
-      </c>
-      <c r="L24" s="20">
-        <v>0</v>
-      </c>
-      <c r="M24" s="20">
-        <v>1</v>
-      </c>
-      <c r="N24" s="20">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20">
-        <v>0</v>
-      </c>
-      <c r="P24" s="20"/>
+      <c r="J24" s="23">
+        <v>0</v>
+      </c>
+      <c r="K24" s="23">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0</v>
+      </c>
+      <c r="O24" s="23">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="23"/>
+      <c r="S24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="T24" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20" t="s">
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="X24" s="20" t="s">
+      <c r="Y24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="20" t="s">
+      <c r="Z24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="13"/>
-    </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="13"/>
+    </row>
+    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="13"/>
-    </row>
-    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="13"/>
+    </row>
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="38">
-        <v>0</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="B26" s="32">
+        <v>0</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="23">
         <v>110</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="20">
-        <v>0</v>
-      </c>
-      <c r="K26" s="20">
-        <v>0</v>
-      </c>
-      <c r="L26" s="20">
-        <v>1</v>
-      </c>
-      <c r="M26" s="20">
-        <v>0</v>
-      </c>
-      <c r="N26" s="20" t="s">
+      <c r="J26" s="23">
+        <v>0</v>
+      </c>
+      <c r="K26" s="23">
+        <v>0</v>
+      </c>
+      <c r="L26" s="23">
+        <v>1</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0</v>
+      </c>
+      <c r="N26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="20">
-        <v>0</v>
-      </c>
-      <c r="P26" s="20"/>
+      <c r="O26" s="23">
+        <v>0</v>
+      </c>
+      <c r="P26" s="23"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="23"/>
+      <c r="S26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="20" t="s">
+      <c r="T26" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20" t="s">
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="X26" s="20" t="s">
+      <c r="Y26" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Y26" s="20" t="s">
+      <c r="Z26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="13"/>
-    </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="13"/>
+    </row>
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
       <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="13"/>
-    </row>
-    <row r="28" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="30"/>
+      <c r="B28" s="27">
+        <v>0</v>
+      </c>
+      <c r="C28" s="28"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2815,38 +2856,39 @@
         <v>0</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
+      <c r="Q28" s="22"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="T28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z28" s="4"/>
       <c r="AA28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC28" s="13"/>
-    </row>
-    <row r="29" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="28">
-        <v>0</v>
-      </c>
-      <c r="C29" s="30"/>
+      <c r="B29" s="27">
+        <v>0</v>
+      </c>
+      <c r="C29" s="28"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2884,36 +2926,37 @@
         <v>0</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
+      <c r="Q29" s="22"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC29" s="13"/>
-    </row>
-    <row r="30" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="28">
-        <v>0</v>
-      </c>
-      <c r="C30" s="30"/>
+      <c r="B30" s="27">
+        <v>0</v>
+      </c>
+      <c r="C30" s="28"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2951,38 +2994,39 @@
         <v>0</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
+      <c r="Q30" s="22"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z30" s="4"/>
       <c r="AA30" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC30" s="13"/>
-    </row>
-    <row r="31" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="28">
-        <v>0</v>
-      </c>
-      <c r="C31" s="30"/>
+      <c r="B31" s="27">
+        <v>0</v>
+      </c>
+      <c r="C31" s="28"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3020,38 +3064,39 @@
         <v>0</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="s">
+      <c r="Q31" s="22"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC31" s="13"/>
-    </row>
-    <row r="32" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28">
-        <v>0</v>
-      </c>
-      <c r="C32" s="30"/>
+      <c r="B32" s="27">
+        <v>0</v>
+      </c>
+      <c r="C32" s="28"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3089,36 +3134,37 @@
         <v>1</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="s">
+      <c r="Q32" s="22"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AB32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC32" s="13"/>
-    </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD32" s="13"/>
+    </row>
+    <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3134,26 +3180,27 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="4"/>
+      <c r="S33" s="2"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="8"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
-      <c r="AC33" s="13"/>
-    </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="13"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3168,27 +3215,32 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
       <c r="S34" s="2"/>
-      <c r="T34" s="4"/>
+      <c r="T34" s="2"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
-      <c r="AC34" s="13"/>
-    </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="13"/>
+    </row>
+    <row r="35" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3203,27 +3255,30 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="22"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="4"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="8"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
-      <c r="AC35" s="13"/>
-    </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="13"/>
+    </row>
+    <row r="36" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3239,26 +3294,29 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="Q36" s="22">
+        <v>0</v>
+      </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="4"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="8"/>
+      <c r="Z36" s="4"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
-      <c r="AC36" s="13"/>
-    </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="13"/>
+    </row>
+    <row r="37" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3274,130 +3332,116 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="22">
+        <v>1</v>
+      </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="4"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="8"/>
+      <c r="Z37" s="4"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
-      <c r="AC37" s="13"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="220">
+  <mergeCells count="221">
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
     <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
     <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="S13:S14"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -3418,98 +3462,116 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Spring 2022 - semester 8\Computer Arch\project\project phase 1\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E03CCC-FCEB-4121-9CD9-53BED77E3EF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8712638E-325D-4643-AD93-E5C5E80C38E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
   <si>
     <t>Instruction</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Reg/Imm</t>
   </si>
   <si>
-    <t>ALU Op (3bits)</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -252,18 +249,6 @@
     <t>Reg Write1</t>
   </si>
   <si>
-    <t>"000"</t>
-  </si>
-  <si>
-    <t>"001"</t>
-  </si>
-  <si>
-    <t>"011"</t>
-  </si>
-  <si>
-    <t>"010"</t>
-  </si>
-  <si>
     <t>"00"</t>
   </si>
   <si>
@@ -288,18 +273,6 @@
     <t>J-Type</t>
   </si>
   <si>
-    <t>"100"</t>
-  </si>
-  <si>
-    <t>"101"</t>
-  </si>
-  <si>
-    <t>"110"</t>
-  </si>
-  <si>
-    <t>"111"</t>
-  </si>
-  <si>
     <t>"000000"</t>
   </si>
   <si>
@@ -393,13 +366,46 @@
     <t xml:space="preserve">32(PC) + (16-1)(S) + 32(RD1) + 32(RD2) +3(Rs2) +3(Rd) +32(Sign Extent) =  149 bits </t>
   </si>
   <si>
-    <t>RevFlag</t>
-  </si>
-  <si>
-    <t>HwInt</t>
-  </si>
-  <si>
-    <t>SwInt</t>
+    <t>SWAP</t>
+  </si>
+  <si>
+    <t>"1000"</t>
+  </si>
+  <si>
+    <t>ADD2 (INT index)</t>
+  </si>
+  <si>
+    <t>"1001"</t>
+  </si>
+  <si>
+    <t>"0000"</t>
+  </si>
+  <si>
+    <t>"0001"</t>
+  </si>
+  <si>
+    <t>"0010"</t>
+  </si>
+  <si>
+    <t>"0011"</t>
+  </si>
+  <si>
+    <t>"0100"</t>
+  </si>
+  <si>
+    <t>"0101"</t>
+  </si>
+  <si>
+    <t>"0110"</t>
+  </si>
+  <si>
+    <t>"0111"</t>
+  </si>
+  <si>
+    <t>ALU Op (4bits)</t>
+  </si>
+  <si>
+    <t>PcMem</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -605,9 +611,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,86 +649,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R15" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1062,6 @@
     <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
     <col min="19" max="19" width="10.88671875" customWidth="1"/>
     <col min="20" max="20" width="9.21875" customWidth="1"/>
     <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
@@ -1086,255 +1085,255 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="6" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="15" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="28"/>
+      <c r="AM1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="45"/>
-      <c r="AM1" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="45"/>
-      <c r="AR1" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
-      <c r="AW1" s="43" t="s">
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="28"/>
+      <c r="AR1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="28"/>
+      <c r="AW1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="44"/>
+      <c r="AX1" s="27"/>
     </row>
     <row r="2" spans="1:50" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="23" t="s">
+      <c r="P2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="W2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="Y2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="AA2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AB2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>110</v>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>112</v>
+        <v>78</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>75</v>
+      <c r="A3" s="22"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="27">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1348,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1371,36 +1370,42 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>77</v>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="27">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1414,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1437,36 +1442,42 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1</v>
+      </c>
+      <c r="R5" s="20">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>76</v>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="27">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1480,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1503,122 +1514,134 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="2"/>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0</v>
+      </c>
       <c r="S6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>86</v>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27">
-        <v>1</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="T7" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>87</v>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="27">
-        <v>1</v>
-      </c>
-      <c r="C8" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1632,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1650,51 +1673,57 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="2"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0</v>
+      </c>
       <c r="S8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>88</v>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="27">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1708,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1731,46 +1760,52 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0</v>
+      </c>
       <c r="S9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>89</v>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="27">
-        <v>1</v>
-      </c>
-      <c r="C10" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1784,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1807,40 +1842,52 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0</v>
+      </c>
       <c r="S10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>94</v>
+        <v>16</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="13"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="27">
-        <v>1</v>
-      </c>
-      <c r="C11" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1854,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1872,45 +1919,57 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0</v>
+      </c>
       <c r="S11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="13"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="27">
-        <v>1</v>
-      </c>
-      <c r="C12" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -1924,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1942,479 +2001,509 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="2"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0</v>
+      </c>
       <c r="S12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="13"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="32">
-        <v>1</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>101</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
-        <v>0</v>
-      </c>
-      <c r="N13" s="23">
-        <v>1</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0</v>
-      </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="23" t="s">
+      <c r="A13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
+        <v>1</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="W13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF13" s="18" t="s">
-        <v>114</v>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF14" s="19" t="s">
-        <v>119</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
-        <v>100</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0</v>
-      </c>
-      <c r="L15" s="23">
-        <v>0</v>
-      </c>
-      <c r="M15" s="23">
-        <v>0</v>
-      </c>
-      <c r="N15" s="23">
-        <v>1</v>
-      </c>
-      <c r="O15" s="23">
-        <v>0</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="U15" s="23" t="s">
+      <c r="A15" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21">
+        <v>0</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="W15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>120</v>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF15" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF16" s="19"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF16" s="18"/>
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="32">
-        <v>1</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
-        <v>111</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="23">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
-        <v>0</v>
-      </c>
-      <c r="N17" s="23">
-        <v>1</v>
-      </c>
-      <c r="O17" s="23">
-        <v>0</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="23" t="s">
+      <c r="A17" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21">
+        <v>0</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="V17" s="23" t="s">
+      <c r="W17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF17" s="19"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="13"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="32">
-        <v>1</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>110</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
-        <v>0</v>
-      </c>
-      <c r="N19" s="23">
-        <v>1</v>
-      </c>
-      <c r="O19" s="23">
-        <v>0</v>
-      </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="23" t="s">
+      <c r="A19" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0</v>
+      </c>
+      <c r="R19" s="21">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="13"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="13"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0</v>
+      </c>
+      <c r="C21" s="31"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2428,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -2446,41 +2535,47 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="2"/>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>0</v>
+      </c>
+      <c r="R21" s="20">
+        <v>0</v>
+      </c>
       <c r="S21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="13"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="27">
-        <v>1</v>
-      </c>
-      <c r="C22" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="31"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2494,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -2512,41 +2607,47 @@
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="2"/>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <v>0</v>
+      </c>
       <c r="S22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="13"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="27">
-        <v>1</v>
-      </c>
-      <c r="C23" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2560,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2578,247 +2679,265 @@
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="2"/>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>0</v>
+      </c>
+      <c r="R23" s="20">
+        <v>0</v>
+      </c>
       <c r="S23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="32">
-        <v>1</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23">
-        <v>1</v>
-      </c>
-      <c r="H24" s="23">
-        <v>110</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="23">
-        <v>0</v>
-      </c>
-      <c r="K24" s="23">
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
-        <v>1</v>
-      </c>
-      <c r="N24" s="23">
-        <v>0</v>
-      </c>
-      <c r="O24" s="23">
-        <v>0</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="13"/>
+      <c r="A24" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="39">
+        <v>1</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="21">
+        <v>1</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>0</v>
+      </c>
+      <c r="R24" s="21">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="13"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="32">
-        <v>0</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="A26" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="39">
+        <v>0</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>1</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="23">
-        <v>110</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="23">
-        <v>0</v>
-      </c>
-      <c r="K26" s="23">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
-        <v>1</v>
-      </c>
-      <c r="M26" s="23">
-        <v>0</v>
-      </c>
-      <c r="N26" s="23" t="s">
+      <c r="H26" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>1</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="23">
-        <v>0</v>
-      </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z26" s="23" t="s">
+      <c r="O26" s="21">
+        <v>0</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0</v>
+      </c>
+      <c r="R26" s="21">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="13"/>
+      <c r="Z26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="13"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="27">
-        <v>0</v>
-      </c>
-      <c r="C28" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="29">
+        <v>0</v>
+      </c>
+      <c r="C28" s="31"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -2832,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I28" s="2">
         <v>11</v>
@@ -2855,14 +2974,20 @@
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="2"/>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>0</v>
+      </c>
+      <c r="R28" s="20">
+        <v>0</v>
+      </c>
       <c r="S28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -2870,25 +2995,25 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="8" t="s">
+      <c r="AA28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB28" s="8" t="s">
+      <c r="AB28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD28" s="13"/>
+      <c r="AC28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="27">
-        <v>0</v>
-      </c>
-      <c r="C29" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="31"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -2902,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -2925,11 +3050,17 @@
       <c r="O29" s="2">
         <v>0</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="2"/>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0</v>
+      </c>
+      <c r="R29" s="20">
+        <v>0</v>
+      </c>
       <c r="S29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -2938,25 +3069,25 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="8" t="s">
+      <c r="AA29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB29" s="8" t="s">
+      <c r="AB29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD29" s="13"/>
+      <c r="AC29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="27">
-        <v>0</v>
-      </c>
-      <c r="C30" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0</v>
+      </c>
+      <c r="C30" s="31"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2970,10 +3101,10 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -2993,14 +3124,20 @@
       <c r="O30" s="2">
         <v>0</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="2"/>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0</v>
+      </c>
+      <c r="R30" s="20">
+        <v>0</v>
+      </c>
       <c r="S30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -3008,25 +3145,25 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="8" t="s">
+      <c r="AA30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB30" s="8" t="s">
+      <c r="AB30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD30" s="13"/>
+      <c r="AC30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="27">
-        <v>0</v>
-      </c>
-      <c r="C31" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="31"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3040,10 +3177,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3063,14 +3200,20 @@
       <c r="O31" s="2">
         <v>0</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="2"/>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>0</v>
+      </c>
+      <c r="R31" s="20">
+        <v>0</v>
+      </c>
       <c r="S31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -3078,25 +3221,25 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="8" t="s">
+      <c r="AA31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB31" s="8" t="s">
+      <c r="AB31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD31" s="13"/>
+      <c r="AC31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="27">
-        <v>0</v>
-      </c>
-      <c r="C32" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0</v>
+      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3110,10 +3253,10 @@
         <v>4</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -3133,14 +3276,20 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="2"/>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>0</v>
+      </c>
+      <c r="R32" s="20">
+        <v>0</v>
+      </c>
       <c r="S32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3148,29 +3297,35 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="8" t="s">
+      <c r="AA32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB32" s="8" t="s">
+      <c r="AB32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD32" s="13"/>
+      <c r="AC32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3179,9 +3334,15 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="2"/>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>0</v>
+      </c>
+      <c r="R33" s="20">
+        <v>0</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -3190,23 +3351,29 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="13"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3218,9 +3385,11 @@
       <c r="P34" s="2">
         <v>1</v>
       </c>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="2">
-        <v>1</v>
+      <c r="Q34" s="19">
+        <v>0</v>
+      </c>
+      <c r="R34" s="20">
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -3230,23 +3399,29 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="13"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3256,10 +3431,14 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>0</v>
+      </c>
+      <c r="R35" s="20">
+        <v>0</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="4"/>
@@ -3268,23 +3447,23 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="13"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3294,10 +3473,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="22">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="4"/>
@@ -3306,23 +3483,23 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="13"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3332,10 +3509,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="22">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="20"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="4"/>
@@ -3344,13 +3519,216 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="13"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="227">
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="AC15:AC16"/>
     <mergeCell ref="X1:Z1"/>
@@ -3375,203 +3753,6 @@
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8712638E-325D-4643-AD93-E5C5E80C38E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A4837-0117-49C5-BB62-A693435C13C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -661,12 +661,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,53 +724,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,46 +1085,46 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="23" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="23" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
       <c r="AD1" s="13"/>
       <c r="AE1" s="14" t="s">
         <v>37</v>
@@ -1132,28 +1132,28 @@
       <c r="AF1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AH1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="28"/>
-      <c r="AM1" s="26" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="43"/>
+      <c r="AM1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="28"/>
-      <c r="AR1" s="26" t="s">
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="43"/>
+      <c r="AR1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="28"/>
-      <c r="AW1" s="26" t="s">
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="43"/>
+      <c r="AW1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="27"/>
+      <c r="AX1" s="42"/>
     </row>
     <row r="2" spans="1:50" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -1275,11 +1275,11 @@
       <c r="AR2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="31"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="26"/>
       <c r="AV2" s="16"/>
       <c r="AW2" s="9" t="s">
         <v>102</v>
@@ -1330,10 +1330,10 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31"/>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1402,10 +1402,10 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31"/>
+      <c r="B5" s="25">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1474,10 +1474,10 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1556,10 +1556,10 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="31"/>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1638,10 +1638,10 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31"/>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1720,10 +1720,10 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="29">
-        <v>0</v>
-      </c>
-      <c r="C9" s="31"/>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1802,10 +1802,10 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="31"/>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1884,10 +1884,10 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1966,10 +1966,10 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31"/>
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2039,13 +2039,13 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="39">
-        <v>1</v>
-      </c>
-      <c r="C13" s="40"/>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="21">
         <v>0</v>
       </c>
@@ -2121,9 +2121,9 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -2159,13 +2159,13 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="39">
-        <v>1</v>
-      </c>
-      <c r="C15" s="40"/>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="21">
         <v>0</v>
       </c>
@@ -2241,9 +2241,9 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -2277,13 +2277,13 @@
       <c r="AF16" s="18"/>
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="39">
-        <v>1</v>
-      </c>
-      <c r="C17" s="40"/>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="21">
         <v>0</v>
       </c>
@@ -2357,9 +2357,9 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -2389,13 +2389,13 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="39">
-        <v>1</v>
-      </c>
-      <c r="C19" s="40"/>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30"/>
       <c r="D19" s="21">
         <v>0</v>
       </c>
@@ -2465,9 +2465,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -2500,10 +2500,10 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29">
-        <v>0</v>
-      </c>
-      <c r="C21" s="31"/>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2572,10 +2572,10 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29">
-        <v>1</v>
-      </c>
-      <c r="C22" s="31"/>
+      <c r="B22" s="25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2644,10 +2644,10 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="29">
-        <v>1</v>
-      </c>
-      <c r="C23" s="31"/>
+      <c r="B23" s="25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="26"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2715,13 +2715,13 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="39">
-        <v>1</v>
-      </c>
-      <c r="C24" s="40"/>
+      <c r="B24" s="29">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30"/>
       <c r="D24" s="21">
         <v>0</v>
       </c>
@@ -2791,9 +2791,9 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -2823,13 +2823,13 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="39">
-        <v>0</v>
-      </c>
-      <c r="C26" s="40"/>
+      <c r="B26" s="29">
+        <v>0</v>
+      </c>
+      <c r="C26" s="30"/>
       <c r="D26" s="21">
         <v>0</v>
       </c>
@@ -2899,9 +2899,9 @@
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -2918,7 +2918,7 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
-      <c r="T27" s="32"/>
+      <c r="T27" s="39"/>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
@@ -2934,10 +2934,10 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="29">
-        <v>0</v>
-      </c>
-      <c r="C28" s="31"/>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3010,10 +3010,10 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="31"/>
+      <c r="B29" s="25">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3084,10 +3084,10 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="29">
-        <v>0</v>
-      </c>
-      <c r="C30" s="31"/>
+      <c r="B30" s="25">
+        <v>0</v>
+      </c>
+      <c r="C30" s="26"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3160,10 +3160,10 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="29">
-        <v>0</v>
-      </c>
-      <c r="C31" s="31"/>
+      <c r="B31" s="25">
+        <v>0</v>
+      </c>
+      <c r="C31" s="26"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3236,10 +3236,10 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="29">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25">
+        <v>0</v>
+      </c>
+      <c r="C32" s="26"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="29">
-        <v>0</v>
-      </c>
-      <c r="C33" s="31"/>
+      <c r="B33" s="25">
+        <v>0</v>
+      </c>
+      <c r="C33" s="26"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3360,10 +3360,10 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="29">
-        <v>0</v>
-      </c>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25">
+        <v>0</v>
+      </c>
+      <c r="C34" s="26"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -3408,10 +3408,10 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="29">
-        <v>0</v>
-      </c>
-      <c r="C35" s="31"/>
+      <c r="B35" s="25">
+        <v>0</v>
+      </c>
+      <c r="C35" s="26"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -3456,8 +3456,8 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3492,8 +3492,8 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3526,119 +3526,96 @@
     </row>
   </sheetData>
   <mergeCells count="227">
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -3663,96 +3640,119 @@
     <mergeCell ref="S15:S16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E2111-374F-4921-9241-DA51E52C21B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD3266A-883D-4739-B1B5-C4E5EB3186E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="140">
   <si>
     <t>Instruction</t>
   </si>
@@ -348,12 +348,6 @@
     <t>MEM/WB</t>
   </si>
   <si>
-    <t>32(PC) + 32(I) = 64Bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32(PC) + (16-1)(S) + 32(RD1) + 32(RD2) +3(Rs2) +3(Rd) +32(Sign Extent) =  149 bits </t>
-  </si>
-  <si>
     <t>SWAP</t>
   </si>
   <si>
@@ -442,6 +436,18 @@
   </si>
   <si>
     <t>"100100"</t>
+  </si>
+  <si>
+    <t>20(PC) + 32(I) = 52Bit</t>
+  </si>
+  <si>
+    <t>23(PC Concate) + 20(PC)  + (22-12)(S) + 32(ALU) + 32(RD2) + 3 (Rs2/Rd) = 110 bits</t>
+  </si>
+  <si>
+    <t>(10-6)(S) + 32(ALU) + 32(MemData) + 3 (Rs2/Rd) = 72bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20(PC) + (24-12)(S) + 32(RD1) + 32(RD2) + 32(Imm)  + 3(Rs1)+3(Rs2) +3(Rd) =  147 bits </t>
   </si>
 </sst>
 </file>
@@ -703,18 +709,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,61 +785,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1105,7 @@
   <dimension ref="A1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1128,7 @@
     <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.44140625" customWidth="1"/>
-    <col min="35" max="35" width="76.5546875" customWidth="1"/>
+    <col min="35" max="35" width="81.109375" customWidth="1"/>
     <col min="37" max="37" width="20.6640625" customWidth="1"/>
     <col min="38" max="38" width="18.21875" customWidth="1"/>
     <col min="39" max="39" width="17.6640625" customWidth="1"/>
@@ -1140,25 +1146,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1168,152 +1174,152 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="27" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="27" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
       <c r="AG1" s="13"/>
       <c r="AH1" s="14" t="s">
         <v>37</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
-      <c r="AP1" s="30" t="s">
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
+      <c r="AP1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="32"/>
-      <c r="AU1" s="30" t="s">
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="50"/>
+      <c r="AU1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="32"/>
-      <c r="AZ1" s="30" t="s">
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="50"/>
+      <c r="AZ1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="31"/>
+      <c r="BA1" s="49"/>
     </row>
     <row r="2" spans="1:53" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="29" t="s">
         <v>57</v>
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>97</v>
@@ -1345,8 +1351,8 @@
       <c r="AV2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="35"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="34"/>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="9" t="s">
         <v>98</v>
@@ -1356,44 +1362,44 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1403,7 +1409,7 @@
       <c r="B4" s="33">
         <v>0</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>69</v>
@@ -1476,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1486,7 +1492,7 @@
       <c r="B5" s="33">
         <v>0</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>69</v>
@@ -1559,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="AI5" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1569,7 +1575,7 @@
       <c r="B6" s="33">
         <v>0</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>69</v>
@@ -1650,7 +1656,7 @@
         <v>41</v>
       </c>
       <c r="AI6" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1660,7 +1666,7 @@
       <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>69</v>
@@ -1741,7 +1747,7 @@
         <v>42</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1751,7 +1757,7 @@
       <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>69</v>
@@ -1832,7 +1838,7 @@
         <v>43</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1842,7 +1848,7 @@
       <c r="B9" s="33">
         <v>0</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>69</v>
@@ -1923,7 +1929,7 @@
         <v>44</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1933,7 +1939,7 @@
       <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>69</v>
@@ -1991,7 +1997,7 @@
       <c r="V10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="48" t="s">
+      <c r="W10" s="25" t="s">
         <v>81</v>
       </c>
       <c r="X10" s="23" t="s">
@@ -2011,10 +2017,10 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2024,7 +2030,7 @@
       <c r="B11" s="33">
         <v>1</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>69</v>
@@ -2102,10 +2108,10 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2115,7 +2121,7 @@
       <c r="B12" s="33">
         <v>1</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>69</v>
@@ -2193,493 +2199,493 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI12" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="42">
-        <v>1</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-      <c r="K13" s="25">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0</v>
-      </c>
-      <c r="P13" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>0</v>
-      </c>
-      <c r="R13" s="25">
-        <v>0</v>
-      </c>
-      <c r="S13" s="25">
-        <v>0</v>
-      </c>
-      <c r="T13" s="25">
-        <v>0</v>
-      </c>
-      <c r="U13" s="25">
-        <v>0</v>
-      </c>
-      <c r="V13" s="25" t="s">
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="29">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>0</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0</v>
+      </c>
+      <c r="S13" s="29">
+        <v>0</v>
+      </c>
+      <c r="T13" s="29">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="X13" s="25" t="s">
+      <c r="X13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
       <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="42">
-        <v>1</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="25">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="B15" s="35">
+        <v>1</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="25">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25">
-        <v>0</v>
-      </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25">
-        <v>0</v>
-      </c>
-      <c r="S15" s="25">
-        <v>0</v>
-      </c>
-      <c r="T15" s="25">
-        <v>0</v>
-      </c>
-      <c r="U15" s="25">
-        <v>0</v>
-      </c>
-      <c r="V15" s="25" t="s">
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0</v>
+      </c>
+      <c r="R15" s="29">
+        <v>0</v>
+      </c>
+      <c r="S15" s="29">
+        <v>0</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0</v>
+      </c>
+      <c r="V15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="X15" s="25" t="s">
+      <c r="X15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="25" t="s">
+      <c r="Y15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Z15" s="25" t="s">
+      <c r="Z15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
       <c r="AG16" s="12"/>
-      <c r="AI16" s="50"/>
+      <c r="AI16" s="27"/>
       <c r="AJ16" s="12"/>
-      <c r="AK16" s="51"/>
+      <c r="AK16" s="28"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="42">
-        <v>1</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="25">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="B17" s="35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="25" t="s">
+      <c r="H17" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="25">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="25">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>0</v>
-      </c>
-      <c r="R17" s="25">
-        <v>0</v>
-      </c>
-      <c r="S17" s="25">
-        <v>0</v>
-      </c>
-      <c r="T17" s="25">
-        <v>0</v>
-      </c>
-      <c r="U17" s="25">
-        <v>0</v>
-      </c>
-      <c r="V17" s="25" t="s">
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0</v>
+      </c>
+      <c r="R17" s="29">
+        <v>0</v>
+      </c>
+      <c r="S17" s="29">
+        <v>0</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0</v>
+      </c>
+      <c r="U17" s="29">
+        <v>0</v>
+      </c>
+      <c r="V17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W17" s="25" t="s">
+      <c r="W17" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="X17" s="25" t="s">
+      <c r="X17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="25" t="s">
+      <c r="Y17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Z17" s="25" t="s">
+      <c r="Z17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
       <c r="AG17" s="12"/>
     </row>
     <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="42">
-        <v>1</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>1</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="B19" s="35">
+        <v>1</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="25" t="s">
+      <c r="H19" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="25">
-        <v>0</v>
-      </c>
-      <c r="K19" s="25">
-        <v>0</v>
-      </c>
-      <c r="L19" s="25">
-        <v>0</v>
-      </c>
-      <c r="M19" s="25">
-        <v>0</v>
-      </c>
-      <c r="N19" s="25">
-        <v>0</v>
-      </c>
-      <c r="O19" s="25">
-        <v>0</v>
-      </c>
-      <c r="P19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <v>0</v>
-      </c>
-      <c r="T19" s="25">
-        <v>0</v>
-      </c>
-      <c r="U19" s="25">
-        <v>0</v>
-      </c>
-      <c r="V19" s="25" t="s">
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="29">
+        <v>0</v>
+      </c>
+      <c r="P19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0</v>
+      </c>
+      <c r="R19" s="29">
+        <v>0</v>
+      </c>
+      <c r="S19" s="29">
+        <v>0</v>
+      </c>
+      <c r="T19" s="29">
+        <v>0</v>
+      </c>
+      <c r="U19" s="29">
+        <v>0</v>
+      </c>
+      <c r="V19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="25" t="s">
+      <c r="W19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25" t="s">
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AB19" s="25" t="s">
+      <c r="AB19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="25" t="s">
+      <c r="AC19" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
       <c r="AG20" s="12"/>
     </row>
     <row r="21" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2689,7 +2695,7 @@
       <c r="B21" s="33">
         <v>0</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>69</v>
@@ -2770,7 +2776,7 @@
       <c r="B22" s="33">
         <v>1</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
@@ -2857,7 +2863,7 @@
       <c r="B23" s="33">
         <v>1</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>70</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>69</v>
@@ -2936,261 +2942,265 @@
         <v>102</v>
       </c>
       <c r="AI23" s="18" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="42">
-        <v>1</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>1</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="B24" s="35">
+        <v>1</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="29">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="25" t="s">
+      <c r="H24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="25">
-        <v>0</v>
-      </c>
-      <c r="K24" s="25">
-        <v>0</v>
-      </c>
-      <c r="L24" s="25">
-        <v>0</v>
-      </c>
-      <c r="M24" s="25">
-        <v>1</v>
-      </c>
-      <c r="N24" s="25">
-        <v>1</v>
-      </c>
-      <c r="O24" s="25">
-        <v>0</v>
-      </c>
-      <c r="P24" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25">
-        <v>0</v>
-      </c>
-      <c r="S24" s="25">
-        <v>0</v>
-      </c>
-      <c r="T24" s="25">
-        <v>0</v>
-      </c>
-      <c r="U24" s="25">
-        <v>0</v>
-      </c>
-      <c r="V24" s="25" t="s">
+      <c r="J24" s="29">
+        <v>0</v>
+      </c>
+      <c r="K24" s="29">
+        <v>0</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+      <c r="M24" s="29">
+        <v>1</v>
+      </c>
+      <c r="N24" s="29">
+        <v>1</v>
+      </c>
+      <c r="O24" s="29">
+        <v>0</v>
+      </c>
+      <c r="P24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0</v>
+      </c>
+      <c r="R24" s="29">
+        <v>0</v>
+      </c>
+      <c r="S24" s="29">
+        <v>0</v>
+      </c>
+      <c r="T24" s="29">
+        <v>0</v>
+      </c>
+      <c r="U24" s="29">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="W24" s="25" t="s">
+      <c r="W24" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25" t="s">
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AB24" s="25" t="s">
+      <c r="AB24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC24" s="25" t="s">
+      <c r="AC24" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="15" t="s">
         <v>103</v>
       </c>
       <c r="AI24" s="18" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="AI25" s="18"/>
+      <c r="AI25" s="18" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="42">
-        <v>0</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="B26" s="35">
+        <v>0</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="29">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
+      <c r="G26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="25" t="s">
+      <c r="H26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="25">
-        <v>0</v>
-      </c>
-      <c r="K26" s="25">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <v>1</v>
-      </c>
-      <c r="M26" s="25">
-        <v>0</v>
-      </c>
-      <c r="N26" s="25" t="s">
+      <c r="J26" s="29">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29">
+        <v>1</v>
+      </c>
+      <c r="M26" s="29">
+        <v>0</v>
+      </c>
+      <c r="N26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="25">
-        <v>0</v>
-      </c>
-      <c r="P26" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>0</v>
-      </c>
-      <c r="R26" s="25">
-        <v>0</v>
-      </c>
-      <c r="S26" s="25">
-        <v>0</v>
-      </c>
-      <c r="T26" s="25">
-        <v>0</v>
-      </c>
-      <c r="U26" s="25">
-        <v>0</v>
-      </c>
-      <c r="V26" s="25" t="s">
+      <c r="O26" s="29">
+        <v>0</v>
+      </c>
+      <c r="P26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>0</v>
+      </c>
+      <c r="R26" s="29">
+        <v>0</v>
+      </c>
+      <c r="S26" s="29">
+        <v>0</v>
+      </c>
+      <c r="T26" s="29">
+        <v>0</v>
+      </c>
+      <c r="U26" s="29">
+        <v>0</v>
+      </c>
+      <c r="V26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="W26" s="25" t="s">
+      <c r="W26" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25" t="s">
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AB26" s="25" t="s">
+      <c r="AB26" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" s="25" t="s">
+      <c r="AC26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="AI26" s="18"/>
+      <c r="AI26" s="18" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
       <c r="AG27" s="12"/>
     </row>
     <row r="28" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3200,7 +3210,7 @@
       <c r="B28" s="33">
         <v>0</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>69</v>
@@ -3285,7 +3295,7 @@
       <c r="B29" s="33">
         <v>0</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3299,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>70</v>
@@ -3370,7 +3380,7 @@
       <c r="B30" s="33">
         <v>0</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3384,10 +3394,10 @@
         <v>4</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3455,7 +3465,7 @@
       <c r="B31" s="33">
         <v>0</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3469,10 +3479,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3540,7 +3550,7 @@
       <c r="B32" s="33">
         <v>0</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>69</v>
@@ -3599,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="23"/>
@@ -3625,7 +3635,7 @@
       <c r="B33" s="33">
         <v>0</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>69</v>
@@ -3684,7 +3694,7 @@
         <v>27</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="23"/>
@@ -3710,7 +3720,7 @@
       <c r="B34" s="33">
         <v>0</v>
       </c>
-      <c r="C34" s="35"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -3724,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>69</v>
@@ -3769,7 +3779,7 @@
         <v>27</v>
       </c>
       <c r="W34" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
@@ -3784,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG34" s="12"/>
     </row>
@@ -3795,7 +3805,7 @@
       <c r="B35" s="33">
         <v>0</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>69</v>
@@ -3854,7 +3864,7 @@
         <v>27</v>
       </c>
       <c r="W35" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X35" s="23"/>
       <c r="Y35" s="4"/>
@@ -3881,11 +3891,11 @@
     </row>
     <row r="38" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3921,7 +3931,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="33"/>
-      <c r="C40" s="35"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -3954,56 +3964,180 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B28:C28"/>
@@ -4028,180 +4162,56 @@
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD3266A-883D-4739-B1B5-C4E5EB3186E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09EECB-E24F-4A7C-BFB0-28F191512978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -725,68 +725,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
@@ -1146,25 +1146,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1174,21 +1174,21 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="39" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="39" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
       <c r="AG1" s="13"/>
       <c r="AH1" s="14" t="s">
         <v>37</v>
@@ -1196,71 +1196,71 @@
       <c r="AI1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="48" t="s">
+      <c r="AK1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="50"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+      <c r="AP1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="50"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="36"/>
+      <c r="AU1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="50"/>
-      <c r="AZ1" s="48" t="s">
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="36"/>
+      <c r="AZ1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="49"/>
+      <c r="BA1" s="35"/>
     </row>
     <row r="2" spans="1:53" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="40" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="29" t="s">
@@ -1348,11 +1348,11 @@
       <c r="AU2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AV2" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="34"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="9" t="s">
         <v>98</v>
@@ -1363,20 +1363,20 @@
     </row>
     <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
@@ -1406,10 +1406,10 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33">
-        <v>0</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1489,10 +1489,10 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34"/>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1572,10 +1572,10 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33">
-        <v>0</v>
-      </c>
-      <c r="C6" s="34"/>
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1663,10 +1663,10 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7" s="34"/>
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1754,10 +1754,10 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34"/>
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1845,10 +1845,10 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="33">
-        <v>0</v>
-      </c>
-      <c r="C9" s="34"/>
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="39"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34"/>
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -2027,10 +2027,10 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34"/>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -2118,10 +2118,10 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34"/>
+      <c r="B12" s="37">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2206,13 +2206,13 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="36"/>
+      <c r="B13" s="46">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="29">
         <v>0</v>
       </c>
@@ -2291,9 +2291,9 @@
       <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -2326,13 +2326,13 @@
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="35">
-        <v>1</v>
-      </c>
-      <c r="C15" s="36"/>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="29">
         <v>0</v>
       </c>
@@ -2411,9 +2411,9 @@
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2449,13 +2449,13 @@
       <c r="AK16" s="28"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="35">
-        <v>1</v>
-      </c>
-      <c r="C17" s="36"/>
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="29">
         <v>0</v>
       </c>
@@ -2534,9 +2534,9 @@
       <c r="AG17" s="12"/>
     </row>
     <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2569,13 +2569,13 @@
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="35">
-        <v>1</v>
-      </c>
-      <c r="C19" s="36"/>
+      <c r="B19" s="46">
+        <v>1</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="29">
         <v>0</v>
       </c>
@@ -2654,9 +2654,9 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2692,10 +2692,10 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="33">
-        <v>0</v>
-      </c>
-      <c r="C21" s="34"/>
+      <c r="B21" s="37">
+        <v>0</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2773,10 +2773,10 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="33">
-        <v>1</v>
-      </c>
-      <c r="C22" s="34"/>
+      <c r="B22" s="37">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2860,10 +2860,10 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="33">
-        <v>1</v>
-      </c>
-      <c r="C23" s="34"/>
+      <c r="B23" s="37">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2945,14 +2945,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="35">
-        <v>1</v>
-      </c>
-      <c r="C24" s="36"/>
+      <c r="B24" s="46">
+        <v>1</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="29">
         <v>0</v>
       </c>
@@ -3037,9 +3037,9 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3078,13 +3078,13 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="35">
-        <v>0</v>
-      </c>
-      <c r="C26" s="36"/>
+      <c r="B26" s="46">
+        <v>0</v>
+      </c>
+      <c r="C26" s="47"/>
       <c r="D26" s="29">
         <v>0</v>
       </c>
@@ -3169,9 +3169,9 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3207,10 +3207,10 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="33">
-        <v>0</v>
-      </c>
-      <c r="C28" s="34"/>
+      <c r="B28" s="37">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="33">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34"/>
+      <c r="B29" s="37">
+        <v>0</v>
+      </c>
+      <c r="C29" s="39"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3377,10 +3377,10 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="33">
-        <v>0</v>
-      </c>
-      <c r="C30" s="34"/>
+      <c r="B30" s="37">
+        <v>0</v>
+      </c>
+      <c r="C30" s="39"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3462,10 +3462,10 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="33">
-        <v>0</v>
-      </c>
-      <c r="C31" s="34"/>
+      <c r="B31" s="37">
+        <v>0</v>
+      </c>
+      <c r="C31" s="39"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3547,10 +3547,10 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="33">
-        <v>0</v>
-      </c>
-      <c r="C32" s="34"/>
+      <c r="B32" s="37">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3632,10 +3632,10 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="34"/>
+      <c r="B33" s="37">
+        <v>0</v>
+      </c>
+      <c r="C33" s="39"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3717,10 +3717,10 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="33">
-        <v>0</v>
-      </c>
-      <c r="C34" s="34"/>
+      <c r="B34" s="37">
+        <v>0</v>
+      </c>
+      <c r="C34" s="39"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -3802,10 +3802,10 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="33">
-        <v>0</v>
-      </c>
-      <c r="C35" s="34"/>
+      <c r="B35" s="37">
+        <v>0</v>
+      </c>
+      <c r="C35" s="39"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -3894,8 +3894,8 @@
       <c r="A39" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3930,8 +3930,8 @@
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -3964,6 +3964,230 @@
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AF15:AF16"/>
     <mergeCell ref="AA1:AC1"/>
@@ -3988,230 +4212,6 @@
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AD13:AD14"/>
     <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09EECB-E24F-4A7C-BFB0-28F191512978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB5B93-C1D5-4F7B-BFF3-F222F9E1C1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -725,12 +725,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,50 +785,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,25 +1146,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1174,21 +1174,21 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="31" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="31" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
       <c r="AG1" s="13"/>
       <c r="AH1" s="14" t="s">
         <v>37</v>
@@ -1196,71 +1196,71 @@
       <c r="AI1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
-      <c r="AP1" s="34" t="s">
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
+      <c r="AP1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="36"/>
-      <c r="AU1" s="34" t="s">
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="50"/>
+      <c r="AU1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36"/>
-      <c r="AZ1" s="34" t="s">
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="50"/>
+      <c r="AZ1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="35"/>
+      <c r="BA1" s="49"/>
     </row>
     <row r="2" spans="1:53" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="29" t="s">
@@ -1348,11 +1348,11 @@
       <c r="AU2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AV2" s="37" t="s">
+      <c r="AV2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="34"/>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="9" t="s">
         <v>98</v>
@@ -1363,20 +1363,20 @@
     </row>
     <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
@@ -1406,10 +1406,10 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39"/>
+      <c r="B4" s="33">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1489,10 +1489,10 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37">
-        <v>0</v>
-      </c>
-      <c r="C5" s="39"/>
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1572,10 +1572,10 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="37">
-        <v>0</v>
-      </c>
-      <c r="C6" s="39"/>
+      <c r="B6" s="33">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1663,10 +1663,10 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37">
-        <v>1</v>
-      </c>
-      <c r="C7" s="39"/>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1754,10 +1754,10 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37">
-        <v>1</v>
-      </c>
-      <c r="C8" s="39"/>
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1845,10 +1845,10 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="37">
-        <v>0</v>
-      </c>
-      <c r="C9" s="39"/>
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="39"/>
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -2027,10 +2027,10 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="37">
-        <v>1</v>
-      </c>
-      <c r="C11" s="39"/>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -2118,10 +2118,10 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="37">
-        <v>1</v>
-      </c>
-      <c r="C12" s="39"/>
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2206,13 +2206,13 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="46">
-        <v>1</v>
-      </c>
-      <c r="C13" s="47"/>
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
+      <c r="C13" s="36"/>
       <c r="D13" s="29">
         <v>0</v>
       </c>
@@ -2291,9 +2291,9 @@
       <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -2326,13 +2326,13 @@
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="47"/>
+      <c r="B15" s="35">
+        <v>1</v>
+      </c>
+      <c r="C15" s="36"/>
       <c r="D15" s="29">
         <v>0</v>
       </c>
@@ -2411,9 +2411,9 @@
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2449,13 +2449,13 @@
       <c r="AK16" s="28"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="46">
-        <v>1</v>
-      </c>
-      <c r="C17" s="47"/>
+      <c r="B17" s="35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36"/>
       <c r="D17" s="29">
         <v>0</v>
       </c>
@@ -2534,9 +2534,9 @@
       <c r="AG17" s="12"/>
     </row>
     <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2569,13 +2569,13 @@
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="46">
-        <v>1</v>
-      </c>
-      <c r="C19" s="47"/>
+      <c r="B19" s="35">
+        <v>1</v>
+      </c>
+      <c r="C19" s="36"/>
       <c r="D19" s="29">
         <v>0</v>
       </c>
@@ -2654,9 +2654,9 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2692,10 +2692,10 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="37">
-        <v>0</v>
-      </c>
-      <c r="C21" s="39"/>
+      <c r="B21" s="33">
+        <v>0</v>
+      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2773,10 +2773,10 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="37">
-        <v>1</v>
-      </c>
-      <c r="C22" s="39"/>
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2860,10 +2860,10 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="37">
-        <v>1</v>
-      </c>
-      <c r="C23" s="39"/>
+      <c r="B23" s="33">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2946,13 +2946,13 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="46">
-        <v>1</v>
-      </c>
-      <c r="C24" s="47"/>
+      <c r="B24" s="35">
+        <v>1</v>
+      </c>
+      <c r="C24" s="36"/>
       <c r="D24" s="29">
         <v>0</v>
       </c>
@@ -3037,9 +3037,9 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3078,13 +3078,13 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="46">
-        <v>0</v>
-      </c>
-      <c r="C26" s="47"/>
+      <c r="B26" s="35">
+        <v>0</v>
+      </c>
+      <c r="C26" s="36"/>
       <c r="D26" s="29">
         <v>0</v>
       </c>
@@ -3169,9 +3169,9 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3207,10 +3207,10 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="37">
-        <v>0</v>
-      </c>
-      <c r="C28" s="39"/>
+      <c r="B28" s="33">
+        <v>0</v>
+      </c>
+      <c r="C28" s="34"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="37">
-        <v>0</v>
-      </c>
-      <c r="C29" s="39"/>
+      <c r="B29" s="33">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3377,10 +3377,10 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="37">
-        <v>0</v>
-      </c>
-      <c r="C30" s="39"/>
+      <c r="B30" s="33">
+        <v>0</v>
+      </c>
+      <c r="C30" s="34"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3462,10 +3462,10 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
-        <v>0</v>
-      </c>
-      <c r="C31" s="39"/>
+      <c r="B31" s="33">
+        <v>0</v>
+      </c>
+      <c r="C31" s="34"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3547,10 +3547,10 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
-        <v>0</v>
-      </c>
-      <c r="C32" s="39"/>
+      <c r="B32" s="33">
+        <v>0</v>
+      </c>
+      <c r="C32" s="34"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3632,10 +3632,10 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39"/>
+      <c r="B33" s="33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="34"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3717,10 +3717,10 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
-        <v>0</v>
-      </c>
-      <c r="C34" s="39"/>
+      <c r="B34" s="33">
+        <v>0</v>
+      </c>
+      <c r="C34" s="34"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>69</v>
@@ -3802,10 +3802,10 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="37">
-        <v>0</v>
-      </c>
-      <c r="C35" s="39"/>
+      <c r="B35" s="33">
+        <v>0</v>
+      </c>
+      <c r="C35" s="34"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -3894,8 +3894,8 @@
       <c r="A39" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3930,8 +3930,8 @@
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -3964,56 +3964,180 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B28:C28"/>
@@ -4038,180 +4162,56 @@
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB5B93-C1D5-4F7B-BFF3-F222F9E1C1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7DF3CB-1217-437D-85B4-A35511AB30EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="142">
   <si>
     <t>Instruction</t>
   </si>
@@ -45,27 +45,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>InPort</t>
-  </si>
-  <si>
-    <t>OutPort</t>
-  </si>
-  <si>
-    <t>Reg/Imm</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Sp/Heap</t>
-  </si>
-  <si>
-    <t>Mem Write</t>
-  </si>
-  <si>
-    <t>PC/RD2</t>
-  </si>
-  <si>
     <t>NOP</t>
   </si>
   <si>
@@ -228,15 +207,6 @@
     <t>Rsrc1</t>
   </si>
   <si>
-    <t>Mem/ALU toReg</t>
-  </si>
-  <si>
-    <t>Mem Read</t>
-  </si>
-  <si>
-    <t>JmpCond (2bits)</t>
-  </si>
-  <si>
     <t>"00"</t>
   </si>
   <si>
@@ -384,21 +354,6 @@
     <t>"0111"</t>
   </si>
   <si>
-    <t>ALU Op (4bits)</t>
-  </si>
-  <si>
-    <t>PcMem</t>
-  </si>
-  <si>
-    <t>Reg Dst (2bits)</t>
-  </si>
-  <si>
-    <t>Reg Write</t>
-  </si>
-  <si>
-    <t>Flush</t>
-  </si>
-  <si>
     <t>"11"</t>
   </si>
   <si>
@@ -417,12 +372,6 @@
     <t>"1010"</t>
   </si>
   <si>
-    <t>SwInt</t>
-  </si>
-  <si>
-    <t>RTISig</t>
-  </si>
-  <si>
     <t>"100101"</t>
   </si>
   <si>
@@ -448,6 +397,63 @@
   </si>
   <si>
     <t xml:space="preserve">20(PC) + (24-12)(S) + 32(RD1) + 32(RD2) + 32(Imm)  + 3(Rs1)+3(Rs2) +3(Rd) =  147 bits </t>
+  </si>
+  <si>
+    <t>Flush [0]</t>
+  </si>
+  <si>
+    <t>RTISig [1]</t>
+  </si>
+  <si>
+    <t>SwInt [2]</t>
+  </si>
+  <si>
+    <t>SWAP [3]</t>
+  </si>
+  <si>
+    <t>HLT [4]</t>
+  </si>
+  <si>
+    <t>PcMem [5]</t>
+  </si>
+  <si>
+    <t>PC/RD2 [6]</t>
+  </si>
+  <si>
+    <t>Mem/ALU toReg [7]</t>
+  </si>
+  <si>
+    <t>Mem Read [8]</t>
+  </si>
+  <si>
+    <t>Mem Write [9]</t>
+  </si>
+  <si>
+    <t>Sp/Heap [10]</t>
+  </si>
+  <si>
+    <t>Branch [11]</t>
+  </si>
+  <si>
+    <t>JmpCond (2bits) [13-12]</t>
+  </si>
+  <si>
+    <t>ALU Op (4bits) [17-14]</t>
+  </si>
+  <si>
+    <t>Reg Dst (2bits) [19 - 18]</t>
+  </si>
+  <si>
+    <t>Reg/Imm [20]</t>
+  </si>
+  <si>
+    <t>OutPort [21]</t>
+  </si>
+  <si>
+    <t>InPort [22]</t>
+  </si>
+  <si>
+    <t>Reg Write [23]</t>
   </si>
 </sst>
 </file>
@@ -725,68 +731,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1120,7 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
@@ -1146,25 +1152,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1174,112 +1180,112 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
+      <c r="X1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
       <c r="AG1" s="13"/>
       <c r="AH1" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="50"/>
-      <c r="AP1" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="50"/>
-      <c r="AU1" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="50"/>
-      <c r="AZ1" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+      <c r="AP1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="36"/>
+      <c r="AU1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="36"/>
+      <c r="AZ1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="49"/>
+      <c r="BA1" s="35"/>
     </row>
     <row r="2" spans="1:53" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>11</v>
+      <c r="B2" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V2" s="29" t="s">
         <v>4</v>
@@ -1288,95 +1294,95 @@
         <v>4</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AE2" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF2" s="29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="15" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="34"/>
+        <v>87</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
@@ -1396,20 +1402,20 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0</v>
-      </c>
-      <c r="C4" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1420,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1479,20 +1485,20 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="33">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1503,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1562,20 +1568,20 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI5" s="20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0</v>
-      </c>
-      <c r="C6" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1586,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1631,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X6" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AA6" s="23"/>
       <c r="AB6" s="4"/>
@@ -1653,20 +1659,20 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI6" s="20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1677,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1722,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W7" s="23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AA7" s="23"/>
       <c r="AB7" s="4"/>
@@ -1744,20 +1750,20 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="13"/>
       <c r="AH7" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1768,64 +1774,64 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
+        <v>0</v>
+      </c>
+      <c r="U8" s="23">
+        <v>0</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>0</v>
-      </c>
-      <c r="R8" s="23">
-        <v>0</v>
-      </c>
-      <c r="S8" s="23">
-        <v>0</v>
-      </c>
-      <c r="T8" s="23">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
-        <v>0</v>
-      </c>
-      <c r="V8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="W8" s="23" t="s">
-        <v>79</v>
-      </c>
       <c r="X8" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="23"/>
       <c r="AB8" s="4"/>
@@ -1835,20 +1841,20 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="13"/>
       <c r="AH8" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="33">
-        <v>0</v>
-      </c>
-      <c r="C9" s="34"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="39"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1859,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1904,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AA9" s="23"/>
       <c r="AB9" s="4"/>
@@ -1926,20 +1932,20 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="13"/>
       <c r="AH9" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -1950,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1995,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W10" s="25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="23"/>
       <c r="AB10" s="4"/>
@@ -2017,20 +2023,20 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="15" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -2041,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -2086,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="X11" s="23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Z11" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="23"/>
       <c r="AB11" s="4"/>
@@ -2108,20 +2114,20 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="37">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2132,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -2177,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X12" s="23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="23"/>
       <c r="AB12" s="4"/>
@@ -2199,20 +2205,20 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="AI12" s="23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="36"/>
+      <c r="A13" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="46">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="29">
         <v>0</v>
       </c>
@@ -2223,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J13" s="29">
         <v>0</v>
@@ -2268,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="V13" s="29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="X13" s="29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AA13" s="29"/>
       <c r="AB13" s="29"/>
@@ -2291,9 +2297,9 @@
       <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -2326,13 +2332,13 @@
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="35">
-        <v>1</v>
-      </c>
-      <c r="C15" s="36"/>
+      <c r="A15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="29">
         <v>0</v>
       </c>
@@ -2343,13 +2349,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J15" s="29">
         <v>0</v>
@@ -2388,19 +2394,19 @@
         <v>0</v>
       </c>
       <c r="V15" s="29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W15" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X15" s="29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Y15" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AA15" s="29"/>
       <c r="AB15" s="29"/>
@@ -2411,9 +2417,9 @@
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2449,13 +2455,13 @@
       <c r="AK16" s="28"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="35">
-        <v>1</v>
-      </c>
-      <c r="C17" s="36"/>
+      <c r="A17" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="29">
         <v>0</v>
       </c>
@@ -2466,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J17" s="29">
         <v>0</v>
@@ -2511,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="V17" s="29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W17" s="29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="X17" s="29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
@@ -2534,9 +2540,9 @@
       <c r="AG17" s="12"/>
     </row>
     <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2569,13 +2575,13 @@
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="35">
-        <v>1</v>
-      </c>
-      <c r="C19" s="36"/>
+      <c r="A19" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="46">
+        <v>1</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="29">
         <v>0</v>
       </c>
@@ -2586,13 +2592,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J19" s="29">
         <v>0</v>
@@ -2631,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="V19" s="29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W19" s="29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X19" s="29"/>
       <c r="Y19" s="29"/>
       <c r="Z19" s="29"/>
       <c r="AA19" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB19" s="29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AC19" s="29" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="29"/>
       <c r="AE19" s="29"/>
@@ -2654,9 +2660,9 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2690,12 +2696,12 @@
     </row>
     <row r="21" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="33">
-        <v>0</v>
-      </c>
-      <c r="C21" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="37">
+        <v>0</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2706,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -2751,17 +2757,17 @@
         <v>0</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="7"/>
@@ -2771,12 +2777,12 @@
     </row>
     <row r="22" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="33">
-        <v>1</v>
-      </c>
-      <c r="C22" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="37">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2787,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -2832,17 +2838,17 @@
         <v>0</v>
       </c>
       <c r="V22" s="23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W22" s="23" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
       <c r="AB22" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="7"/>
@@ -2850,20 +2856,20 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI22" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="33">
-        <v>1</v>
-      </c>
-      <c r="C23" s="34"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="37">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2874,13 +2880,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2919,40 +2925,40 @@
         <v>0</v>
       </c>
       <c r="V23" s="23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AI23" s="18" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="35">
-        <v>1</v>
-      </c>
-      <c r="C24" s="36"/>
+      <c r="A24" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="46">
+        <v>1</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="29">
         <v>0</v>
       </c>
@@ -2963,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J24" s="29">
         <v>0</v>
@@ -3008,38 +3014,38 @@
         <v>0</v>
       </c>
       <c r="V24" s="29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W24" s="29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
       <c r="Z24" s="29"/>
       <c r="AA24" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB24" s="29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AC24" s="29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AD24" s="29"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AI24" s="18" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3071,20 +3077,20 @@
       <c r="AF25" s="30"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AI25" s="18" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="35">
-        <v>0</v>
-      </c>
-      <c r="C26" s="36"/>
+      <c r="A26" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="46">
+        <v>0</v>
+      </c>
+      <c r="C26" s="47"/>
       <c r="D26" s="29">
         <v>0</v>
       </c>
@@ -3098,10 +3104,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J26" s="29">
         <v>0</v>
@@ -3140,38 +3146,38 @@
         <v>0</v>
       </c>
       <c r="V26" s="29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W26" s="29" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X26" s="29"/>
       <c r="Y26" s="29"/>
       <c r="Z26" s="29"/>
       <c r="AA26" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB26" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AC26" s="29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AD26" s="29"/>
       <c r="AE26" s="29"/>
       <c r="AF26" s="29"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AI26" s="18" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3205,12 +3211,12 @@
     </row>
     <row r="28" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="33">
-        <v>0</v>
-      </c>
-      <c r="C28" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="37">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3224,10 +3230,10 @@
         <v>4</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -3266,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="V28" s="23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W28" s="23" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X28" s="23"/>
       <c r="Y28" s="23"/>
@@ -3284,18 +3290,18 @@
         <v>4</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG28" s="12"/>
     </row>
     <row r="29" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="33">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0</v>
+      </c>
+      <c r="C29" s="39"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3309,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -3351,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
@@ -3369,18 +3375,18 @@
         <v>4</v>
       </c>
       <c r="AF29" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG29" s="12"/>
     </row>
     <row r="30" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="33">
-        <v>0</v>
-      </c>
-      <c r="C30" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="37">
+        <v>0</v>
+      </c>
+      <c r="C30" s="39"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3394,10 +3400,10 @@
         <v>4</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3436,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -3454,18 +3460,18 @@
         <v>4</v>
       </c>
       <c r="AF30" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG30" s="12"/>
     </row>
     <row r="31" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="33">
-        <v>0</v>
-      </c>
-      <c r="C31" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="37">
+        <v>0</v>
+      </c>
+      <c r="C31" s="39"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3479,10 +3485,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3521,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3539,18 +3545,18 @@
         <v>4</v>
       </c>
       <c r="AF31" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG31" s="12"/>
     </row>
     <row r="32" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="33">
-        <v>0</v>
-      </c>
-      <c r="C32" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="37">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3564,10 +3570,10 @@
         <v>4</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3606,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="23"/>
@@ -3624,18 +3630,18 @@
         <v>4</v>
       </c>
       <c r="AF32" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG32" s="12"/>
     </row>
     <row r="33" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="34"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="37">
+        <v>0</v>
+      </c>
+      <c r="C33" s="39"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3649,10 +3655,10 @@
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -3691,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="23"/>
@@ -3715,12 +3721,12 @@
     </row>
     <row r="34" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="33">
-        <v>0</v>
-      </c>
-      <c r="C34" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="37">
+        <v>0</v>
+      </c>
+      <c r="C34" s="39"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -3734,10 +3740,10 @@
         <v>4</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3776,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="V34" s="23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W34" s="23" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
@@ -3794,18 +3800,18 @@
         <v>4</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AG34" s="12"/>
     </row>
     <row r="35" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="33">
-        <v>0</v>
-      </c>
-      <c r="C35" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="37">
+        <v>0</v>
+      </c>
+      <c r="C35" s="39"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -3819,10 +3825,10 @@
         <v>4</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -3861,10 +3867,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W35" s="23" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="X35" s="23"/>
       <c r="Y35" s="4"/>
@@ -3892,10 +3898,10 @@
     <row r="38" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3928,10 +3934,10 @@
     </row>
     <row r="40" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -3964,6 +3970,230 @@
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AF15:AF16"/>
     <mergeCell ref="AA1:AC1"/>
@@ -3988,230 +4218,6 @@
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AD13:AD14"/>
     <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7DF3CB-1217-437D-85B4-A35511AB30EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DECFCC-9A6C-4222-9682-2C507D8F2C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
   <si>
     <t>Instruction</t>
   </si>
@@ -454,6 +454,87 @@
   </si>
   <si>
     <t>Reg Write [23]</t>
+  </si>
+  <si>
+    <t>Control Signal In Hexadecimal</t>
+  </si>
+  <si>
+    <t>16#000000</t>
+  </si>
+  <si>
+    <t>16#000010</t>
+  </si>
+  <si>
+    <t>16#004000</t>
+  </si>
+  <si>
+    <t>16#84C000</t>
+  </si>
+  <si>
+    <t>16#848000</t>
+  </si>
+  <si>
+    <t>16#200000</t>
+  </si>
+  <si>
+    <t>16#C00000</t>
+  </si>
+  <si>
+    <t>16#800000</t>
+  </si>
+  <si>
+    <t>16#864008</t>
+  </si>
+  <si>
+    <t>16#814000</t>
+  </si>
+  <si>
+    <t>16#810000</t>
+  </si>
+  <si>
+    <t>16#81C000</t>
+  </si>
+  <si>
+    <t>16#958000</t>
+  </si>
+  <si>
+    <t>16#000680</t>
+  </si>
+  <si>
+    <t>16#840580</t>
+  </si>
+  <si>
+    <t>16#968180</t>
+  </si>
+  <si>
+    <t>16#118200</t>
+  </si>
+  <si>
+    <t>16#958180</t>
+  </si>
+  <si>
+    <t>16#128800</t>
+  </si>
+  <si>
+    <t>16#129800</t>
+  </si>
+  <si>
+    <t>16#12A800</t>
+  </si>
+  <si>
+    <t>16#12B800</t>
+  </si>
+  <si>
+    <t>16#128661</t>
+  </si>
+  <si>
+    <t>16#000521</t>
+  </si>
+  <si>
+    <t>16#120665</t>
+  </si>
+  <si>
+    <t>16#000523</t>
   </si>
 </sst>
 </file>
@@ -507,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -637,11 +718,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -725,18 +862,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,50 +931,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:BA40"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,44 +1288,45 @@
     <col min="23" max="23" width="12.109375" customWidth="1"/>
     <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.44140625" customWidth="1"/>
-    <col min="35" max="35" width="81.109375" customWidth="1"/>
-    <col min="37" max="37" width="20.6640625" customWidth="1"/>
-    <col min="38" max="38" width="18.21875" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" customWidth="1"/>
-    <col min="41" max="41" width="9" customWidth="1"/>
-    <col min="42" max="42" width="11.88671875" customWidth="1"/>
-    <col min="43" max="43" width="12.88671875" customWidth="1"/>
-    <col min="44" max="44" width="11.5546875" customWidth="1"/>
-    <col min="45" max="45" width="16.6640625" customWidth="1"/>
-    <col min="50" max="50" width="12.88671875" customWidth="1"/>
-    <col min="52" max="52" width="22.33203125" customWidth="1"/>
-    <col min="53" max="53" width="37.77734375" customWidth="1"/>
+    <col min="33" max="33" width="15.88671875" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" customWidth="1"/>
+    <col min="36" max="36" width="81.109375" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" customWidth="1"/>
+    <col min="39" max="39" width="18.21875" customWidth="1"/>
+    <col min="40" max="40" width="17.6640625" customWidth="1"/>
+    <col min="42" max="42" width="9" customWidth="1"/>
+    <col min="43" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="12.88671875" customWidth="1"/>
+    <col min="45" max="45" width="11.5546875" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" customWidth="1"/>
+    <col min="51" max="51" width="12.88671875" customWidth="1"/>
+    <col min="53" max="53" width="22.33203125" customWidth="1"/>
+    <col min="54" max="54" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1180,242 +1336,249 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="31" t="s">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="31" t="s">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
-      <c r="AP1" s="34" t="s">
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="51"/>
+      <c r="AQ1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="36"/>
-      <c r="AU1" s="34" t="s">
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51"/>
+      <c r="AV1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36"/>
-      <c r="AZ1" s="34" t="s">
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="51"/>
+      <c r="BA1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="35"/>
+      <c r="BB1" s="50"/>
     </row>
-    <row r="2" spans="1:53" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:54" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AG2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="37" t="s">
+      <c r="AW2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="9" t="s">
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="15" t="s">
+    <row r="3" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39"/>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1483,22 +1646,25 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="15" t="s">
+      <c r="AG4" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37">
-        <v>0</v>
-      </c>
-      <c r="C5" s="39"/>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1566,22 +1732,25 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="15" t="s">
+      <c r="AG5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="20" t="s">
+      <c r="AJ5" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37">
-        <v>0</v>
-      </c>
-      <c r="C6" s="39"/>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1657,22 +1826,25 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="15" t="s">
+      <c r="AG6" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AI6" s="20" t="s">
+      <c r="AJ6" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37">
-        <v>1</v>
-      </c>
-      <c r="C7" s="39"/>
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1748,22 +1920,25 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="15" t="s">
+      <c r="AG7" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AJ7" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37">
-        <v>1</v>
-      </c>
-      <c r="C8" s="39"/>
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -1839,22 +2014,25 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="15" t="s">
+      <c r="AG8" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="37">
-        <v>0</v>
-      </c>
-      <c r="C9" s="39"/>
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -1930,22 +2108,25 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="15" t="s">
+      <c r="AG9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AJ9" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="39"/>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -2021,22 +2202,25 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="15" t="s">
+      <c r="AG10" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AJ10" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="37">
-        <v>1</v>
-      </c>
-      <c r="C11" s="39"/>
+      <c r="B11" s="34">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -2112,22 +2296,25 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="15" t="s">
+      <c r="AG11" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AI11" s="20" t="s">
+      <c r="AJ11" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="37">
-        <v>1</v>
-      </c>
-      <c r="C12" s="39"/>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2203,505 +2390,524 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="15" t="s">
+      <c r="AG12" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AI12" s="23" t="s">
+      <c r="AJ12" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="46">
-        <v>1</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="B13" s="36">
+        <v>1</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
-        <v>0</v>
-      </c>
-      <c r="L13" s="29">
-        <v>0</v>
-      </c>
-      <c r="M13" s="29">
-        <v>0</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0</v>
-      </c>
-      <c r="O13" s="29">
-        <v>0</v>
-      </c>
-      <c r="P13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>0</v>
-      </c>
-      <c r="R13" s="29">
-        <v>0</v>
-      </c>
-      <c r="S13" s="29">
-        <v>0</v>
-      </c>
-      <c r="T13" s="29">
-        <v>0</v>
-      </c>
-      <c r="U13" s="29">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29" t="s">
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30">
+        <v>0</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
+      <c r="P13" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0</v>
+      </c>
+      <c r="R13" s="30">
+        <v>0</v>
+      </c>
+      <c r="S13" s="30">
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="29" t="s">
+      <c r="W13" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="X13" s="29" t="s">
+      <c r="X13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Y13" s="29" t="s">
+      <c r="Y13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Z13" s="29" t="s">
+      <c r="Z13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="12"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH13" s="12"/>
     </row>
-    <row r="14" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="12"/>
+    <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="12"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29" t="s">
+      <c r="B15" s="36">
+        <v>1</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
-        <v>0</v>
-      </c>
-      <c r="L15" s="29">
-        <v>0</v>
-      </c>
-      <c r="M15" s="29">
-        <v>0</v>
-      </c>
-      <c r="N15" s="29">
-        <v>0</v>
-      </c>
-      <c r="O15" s="29">
-        <v>0</v>
-      </c>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>0</v>
-      </c>
-      <c r="R15" s="29">
-        <v>0</v>
-      </c>
-      <c r="S15" s="29">
-        <v>0</v>
-      </c>
-      <c r="T15" s="29">
-        <v>0</v>
-      </c>
-      <c r="U15" s="29">
-        <v>0</v>
-      </c>
-      <c r="V15" s="29" t="s">
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0</v>
+      </c>
+      <c r="P15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>0</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0</v>
+      </c>
+      <c r="S15" s="30">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="29" t="s">
+      <c r="W15" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="X15" s="29" t="s">
+      <c r="X15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="29" t="s">
+      <c r="Y15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" s="29" t="s">
+      <c r="Z15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="12"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH15" s="12"/>
     </row>
-    <row r="16" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="12"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="28"/>
+    <row r="16" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="12"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="28"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="46">
-        <v>1</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="29">
-        <v>0</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29" t="s">
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="29">
-        <v>0</v>
-      </c>
-      <c r="M17" s="29">
-        <v>0</v>
-      </c>
-      <c r="N17" s="29">
-        <v>0</v>
-      </c>
-      <c r="O17" s="29">
-        <v>0</v>
-      </c>
-      <c r="P17" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>0</v>
-      </c>
-      <c r="R17" s="29">
-        <v>0</v>
-      </c>
-      <c r="S17" s="29">
-        <v>0</v>
-      </c>
-      <c r="T17" s="29">
-        <v>0</v>
-      </c>
-      <c r="U17" s="29">
-        <v>0</v>
-      </c>
-      <c r="V17" s="29" t="s">
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="30">
+        <v>0</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>0</v>
+      </c>
+      <c r="R17" s="30">
+        <v>0</v>
+      </c>
+      <c r="S17" s="30">
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+      <c r="U17" s="30">
+        <v>0</v>
+      </c>
+      <c r="V17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="29" t="s">
+      <c r="W17" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="X17" s="29" t="s">
+      <c r="X17" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="29" t="s">
+      <c r="Y17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Z17" s="29" t="s">
+      <c r="Z17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="12"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH17" s="12"/>
     </row>
-    <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="12"/>
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="12"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="46">
-        <v>1</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0</v>
-      </c>
-      <c r="F19" s="29">
-        <v>1</v>
-      </c>
-      <c r="G19" s="29" t="s">
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="30">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="29">
-        <v>0</v>
-      </c>
-      <c r="K19" s="29">
-        <v>0</v>
-      </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="29">
-        <v>0</v>
-      </c>
-      <c r="N19" s="29">
-        <v>0</v>
-      </c>
-      <c r="O19" s="29">
-        <v>0</v>
-      </c>
-      <c r="P19" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>0</v>
-      </c>
-      <c r="R19" s="29">
-        <v>0</v>
-      </c>
-      <c r="S19" s="29">
-        <v>0</v>
-      </c>
-      <c r="T19" s="29">
-        <v>0</v>
-      </c>
-      <c r="U19" s="29">
-        <v>0</v>
-      </c>
-      <c r="V19" s="29" t="s">
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+      <c r="K19" s="30">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>0</v>
+      </c>
+      <c r="O19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0</v>
+      </c>
+      <c r="S19" s="30">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30">
+        <v>0</v>
+      </c>
+      <c r="V19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W19" s="29" t="s">
+      <c r="W19" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29" t="s">
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AB19" s="29" t="s">
+      <c r="AB19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AC19" s="29" t="s">
+      <c r="AC19" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="12"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH19" s="12"/>
     </row>
-    <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="12"/>
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="37">
-        <v>0</v>
-      </c>
-      <c r="C21" s="39"/>
+      <c r="B21" s="34">
+        <v>0</v>
+      </c>
+      <c r="C21" s="35"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2773,16 +2979,19 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="12"/>
+      <c r="AG21" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="37">
-        <v>1</v>
-      </c>
-      <c r="C22" s="39"/>
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -2854,22 +3063,25 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="14" t="s">
+      <c r="AG22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="17" t="s">
+      <c r="AJ22" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="37">
-        <v>1</v>
-      </c>
-      <c r="C23" s="39"/>
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -2943,280 +3155,291 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="15" t="s">
+      <c r="AG23" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AI23" s="18" t="s">
+      <c r="AJ23" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="46">
-        <v>1</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="29">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29">
-        <v>1</v>
-      </c>
-      <c r="G24" s="29" t="s">
+      <c r="B24" s="36">
+        <v>1</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="29">
-        <v>0</v>
-      </c>
-      <c r="K24" s="29">
-        <v>0</v>
-      </c>
-      <c r="L24" s="29">
-        <v>0</v>
-      </c>
-      <c r="M24" s="29">
-        <v>1</v>
-      </c>
-      <c r="N24" s="29">
-        <v>1</v>
-      </c>
-      <c r="O24" s="29">
-        <v>0</v>
-      </c>
-      <c r="P24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>0</v>
-      </c>
-      <c r="R24" s="29">
-        <v>0</v>
-      </c>
-      <c r="S24" s="29">
-        <v>0</v>
-      </c>
-      <c r="T24" s="29">
-        <v>0</v>
-      </c>
-      <c r="U24" s="29">
-        <v>0</v>
-      </c>
-      <c r="V24" s="29" t="s">
+      <c r="J24" s="30">
+        <v>0</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0</v>
+      </c>
+      <c r="L24" s="30">
+        <v>0</v>
+      </c>
+      <c r="M24" s="30">
+        <v>1</v>
+      </c>
+      <c r="N24" s="30">
+        <v>1</v>
+      </c>
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>0</v>
+      </c>
+      <c r="R24" s="30">
+        <v>0</v>
+      </c>
+      <c r="S24" s="30">
+        <v>0</v>
+      </c>
+      <c r="T24" s="30">
+        <v>0</v>
+      </c>
+      <c r="U24" s="30">
+        <v>0</v>
+      </c>
+      <c r="V24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W24" s="29" t="s">
+      <c r="W24" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29" t="s">
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AB24" s="29" t="s">
+      <c r="AB24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AC24" s="29" t="s">
+      <c r="AC24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="15" t="s">
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AI24" s="18" t="s">
+      <c r="AJ24" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="15" t="s">
+    <row r="25" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AI25" s="18" t="s">
+      <c r="AJ25" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="46">
-        <v>0</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29">
-        <v>1</v>
-      </c>
-      <c r="G26" s="29" t="s">
+      <c r="B26" s="36">
+        <v>0</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="30">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="29">
-        <v>0</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0</v>
-      </c>
-      <c r="L26" s="29">
-        <v>1</v>
-      </c>
-      <c r="M26" s="29">
-        <v>0</v>
-      </c>
-      <c r="N26" s="29" t="s">
+      <c r="J26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="30">
+        <v>0</v>
+      </c>
+      <c r="L26" s="30">
+        <v>1</v>
+      </c>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="29">
-        <v>0</v>
-      </c>
-      <c r="P26" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>0</v>
-      </c>
-      <c r="R26" s="29">
-        <v>0</v>
-      </c>
-      <c r="S26" s="29">
-        <v>0</v>
-      </c>
-      <c r="T26" s="29">
-        <v>0</v>
-      </c>
-      <c r="U26" s="29">
-        <v>0</v>
-      </c>
-      <c r="V26" s="29" t="s">
+      <c r="O26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>0</v>
+      </c>
+      <c r="R26" s="30">
+        <v>0</v>
+      </c>
+      <c r="S26" s="30">
+        <v>0</v>
+      </c>
+      <c r="T26" s="30">
+        <v>0</v>
+      </c>
+      <c r="U26" s="30">
+        <v>0</v>
+      </c>
+      <c r="V26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W26" s="29" t="s">
+      <c r="W26" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29" t="s">
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="29" t="s">
+      <c r="AB26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AC26" s="29" t="s">
+      <c r="AC26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="15" t="s">
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AI26" s="18" t="s">
+      <c r="AJ26" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="12"/>
+    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="12"/>
     </row>
-    <row r="28" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="37">
-        <v>0</v>
-      </c>
-      <c r="C28" s="39"/>
+      <c r="B28" s="34">
+        <v>0</v>
+      </c>
+      <c r="C28" s="35"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3292,16 +3515,19 @@
       <c r="AF28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG28" s="12"/>
+      <c r="AG28" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH28" s="12"/>
     </row>
-    <row r="29" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="37">
-        <v>0</v>
-      </c>
-      <c r="C29" s="39"/>
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="35"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3377,16 +3603,19 @@
       <c r="AF29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG29" s="12"/>
+      <c r="AG29" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH29" s="12"/>
     </row>
-    <row r="30" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="37">
-        <v>0</v>
-      </c>
-      <c r="C30" s="39"/>
+      <c r="B30" s="34">
+        <v>0</v>
+      </c>
+      <c r="C30" s="35"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3462,16 +3691,19 @@
       <c r="AF30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG30" s="12"/>
+      <c r="AG30" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="37">
-        <v>0</v>
-      </c>
-      <c r="C31" s="39"/>
+      <c r="B31" s="34">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3547,16 +3779,19 @@
       <c r="AF31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG31" s="12"/>
+      <c r="AG31" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="37">
-        <v>0</v>
-      </c>
-      <c r="C32" s="39"/>
+      <c r="B32" s="34">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3632,16 +3867,19 @@
       <c r="AF32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="37">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39"/>
+      <c r="B33" s="34">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3717,16 +3955,19 @@
       <c r="AF33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH33" s="12"/>
     </row>
-    <row r="34" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="37">
-        <v>0</v>
-      </c>
-      <c r="C34" s="39"/>
+      <c r="B34" s="34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -3802,16 +4043,19 @@
       <c r="AF34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH34" s="12"/>
     </row>
-    <row r="35" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="37">
-        <v>0</v>
-      </c>
-      <c r="C35" s="39"/>
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -3887,21 +4131,24 @@
       <c r="AF35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AG36" s="12"/>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH36" s="12"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AG37" s="12"/>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH37" s="12"/>
     </row>
-    <row r="38" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3931,13 +4178,14 @@
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
+      <c r="AG39" s="12"/>
     </row>
-    <row r="40" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -3967,59 +4215,191 @@
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
+      <c r="AG40" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="248">
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
+  <mergeCells count="255">
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B28:C28"/>
@@ -4044,180 +4424,56 @@
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DECFCC-9A6C-4222-9682-2C507D8F2C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC72287-A0A4-4E8F-B56F-129382A494CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -865,10 +865,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,78 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,25 +1308,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1336,22 +1336,22 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="40" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="55" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="53" t="s">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="30" t="s">
         <v>142</v>
       </c>
       <c r="AH1" s="13"/>
@@ -1361,125 +1361,125 @@
       <c r="AJ1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AL1" s="49" t="s">
+      <c r="AL1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
-      <c r="AQ1" s="49" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="39"/>
+      <c r="AQ1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51"/>
-      <c r="AV1" s="49" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39"/>
+      <c r="AV1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="51"/>
-      <c r="BA1" s="49" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="39"/>
+      <c r="BA1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="50"/>
+      <c r="BB1" s="38"/>
     </row>
     <row r="2" spans="1:54" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="54" t="s">
+      <c r="AD2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="54" t="s">
+      <c r="AE2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="54" t="s">
+      <c r="AF2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AG2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AH2" s="13"/>
@@ -1516,11 +1516,11 @@
       <c r="AV2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AW2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="35"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="42"/>
       <c r="AZ2" s="16"/>
       <c r="BA2" s="9" t="s">
         <v>88</v>
@@ -1530,39 +1530,39 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="15" t="s">
         <v>31</v>
@@ -1575,10 +1575,10 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34">
-        <v>0</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="B4" s="40">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35"/>
+      <c r="B5" s="40">
+        <v>0</v>
+      </c>
+      <c r="C5" s="42"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -1747,10 +1747,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34">
-        <v>0</v>
-      </c>
-      <c r="C6" s="35"/>
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+      <c r="C6" s="42"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -1841,10 +1841,10 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-      <c r="C7" s="35"/>
+      <c r="B7" s="40">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1935,10 +1935,10 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34">
-        <v>1</v>
-      </c>
-      <c r="C8" s="35"/>
+      <c r="B8" s="40">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -2029,10 +2029,10 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34">
-        <v>0</v>
-      </c>
-      <c r="C9" s="35"/>
+      <c r="B9" s="40">
+        <v>0</v>
+      </c>
+      <c r="C9" s="42"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
@@ -2123,10 +2123,10 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="34">
-        <v>1</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="B10" s="40">
+        <v>1</v>
+      </c>
+      <c r="C10" s="42"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -2217,10 +2217,10 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="34">
-        <v>1</v>
-      </c>
-      <c r="C11" s="35"/>
+      <c r="B11" s="40">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -2311,10 +2311,10 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-      <c r="C12" s="35"/>
+      <c r="B12" s="40">
+        <v>1</v>
+      </c>
+      <c r="C12" s="42"/>
       <c r="D12" s="2">
         <v>0</v>
       </c>
@@ -2402,512 +2402,512 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="36">
-        <v>1</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="B13" s="52">
+        <v>1</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
-        <v>0</v>
-      </c>
-      <c r="L13" s="30">
-        <v>0</v>
-      </c>
-      <c r="M13" s="30">
-        <v>0</v>
-      </c>
-      <c r="N13" s="30">
-        <v>0</v>
-      </c>
-      <c r="O13" s="30">
-        <v>0</v>
-      </c>
-      <c r="P13" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>0</v>
-      </c>
-      <c r="R13" s="30">
-        <v>0</v>
-      </c>
-      <c r="S13" s="30">
-        <v>0</v>
-      </c>
-      <c r="T13" s="30">
-        <v>0</v>
-      </c>
-      <c r="U13" s="30">
-        <v>0</v>
-      </c>
-      <c r="V13" s="30" t="s">
+      <c r="J13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33">
+        <v>0</v>
+      </c>
+      <c r="U13" s="33">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="30" t="s">
+      <c r="W13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Y13" s="30" t="s">
+      <c r="Y13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Z13" s="30" t="s">
+      <c r="Z13" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30" t="s">
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33" t="s">
         <v>152</v>
       </c>
       <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="36">
-        <v>1</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="B15" s="52">
+        <v>1</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="33">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="30">
-        <v>0</v>
-      </c>
-      <c r="L15" s="30">
-        <v>0</v>
-      </c>
-      <c r="M15" s="30">
-        <v>0</v>
-      </c>
-      <c r="N15" s="30">
-        <v>0</v>
-      </c>
-      <c r="O15" s="30">
-        <v>0</v>
-      </c>
-      <c r="P15" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>0</v>
-      </c>
-      <c r="R15" s="30">
-        <v>0</v>
-      </c>
-      <c r="S15" s="30">
-        <v>0</v>
-      </c>
-      <c r="T15" s="30">
-        <v>0</v>
-      </c>
-      <c r="U15" s="30">
-        <v>0</v>
-      </c>
-      <c r="V15" s="30" t="s">
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33">
+        <v>0</v>
+      </c>
+      <c r="U15" s="33">
+        <v>0</v>
+      </c>
+      <c r="V15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="30" t="s">
+      <c r="W15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="X15" s="30" t="s">
+      <c r="X15" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="30" t="s">
+      <c r="Y15" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" s="30" t="s">
+      <c r="Z15" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30" t="s">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33" t="s">
         <v>153</v>
       </c>
       <c r="AH15" s="12"/>
     </row>
     <row r="16" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
       <c r="AH16" s="12"/>
       <c r="AJ16" s="27"/>
       <c r="AK16" s="12"/>
       <c r="AL16" s="28"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36">
-        <v>1</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="B17" s="52">
+        <v>1</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="30">
-        <v>0</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30">
-        <v>0</v>
-      </c>
-      <c r="M17" s="30">
-        <v>0</v>
-      </c>
-      <c r="N17" s="30">
-        <v>0</v>
-      </c>
-      <c r="O17" s="30">
-        <v>0</v>
-      </c>
-      <c r="P17" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>0</v>
-      </c>
-      <c r="R17" s="30">
-        <v>0</v>
-      </c>
-      <c r="S17" s="30">
-        <v>0</v>
-      </c>
-      <c r="T17" s="30">
-        <v>0</v>
-      </c>
-      <c r="U17" s="30">
-        <v>0</v>
-      </c>
-      <c r="V17" s="30" t="s">
+      <c r="J17" s="33">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
+      </c>
+      <c r="M17" s="33">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>0</v>
+      </c>
+      <c r="R17" s="33">
+        <v>0</v>
+      </c>
+      <c r="S17" s="33">
+        <v>0</v>
+      </c>
+      <c r="T17" s="33">
+        <v>0</v>
+      </c>
+      <c r="U17" s="33">
+        <v>0</v>
+      </c>
+      <c r="V17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="30" t="s">
+      <c r="W17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="X17" s="30" t="s">
+      <c r="X17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="30" t="s">
+      <c r="Y17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Z17" s="30" t="s">
+      <c r="Z17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30" t="s">
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AH17" s="12"/>
     </row>
     <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
       <c r="AH18" s="12"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="36">
-        <v>1</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30" t="s">
+      <c r="B19" s="52">
+        <v>1</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="33">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="30">
-        <v>0</v>
-      </c>
-      <c r="K19" s="30">
-        <v>0</v>
-      </c>
-      <c r="L19" s="30">
-        <v>0</v>
-      </c>
-      <c r="M19" s="30">
-        <v>0</v>
-      </c>
-      <c r="N19" s="30">
-        <v>0</v>
-      </c>
-      <c r="O19" s="30">
-        <v>0</v>
-      </c>
-      <c r="P19" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>0</v>
-      </c>
-      <c r="R19" s="30">
-        <v>0</v>
-      </c>
-      <c r="S19" s="30">
-        <v>0</v>
-      </c>
-      <c r="T19" s="30">
-        <v>0</v>
-      </c>
-      <c r="U19" s="30">
-        <v>0</v>
-      </c>
-      <c r="V19" s="30" t="s">
+      <c r="J19" s="33">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
+        <v>0</v>
+      </c>
+      <c r="S19" s="33">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="33">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="W19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30" t="s">
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AB19" s="30" t="s">
+      <c r="AB19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AC19" s="30" t="s">
+      <c r="AC19" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30" t="s">
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33" t="s">
         <v>155</v>
       </c>
       <c r="AH19" s="12"/>
     </row>
     <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
       <c r="AH20" s="12"/>
     </row>
     <row r="21" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="34">
-        <v>0</v>
-      </c>
-      <c r="C21" s="35"/>
+      <c r="B21" s="40">
+        <v>0</v>
+      </c>
+      <c r="C21" s="42"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -2988,10 +2988,10 @@
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="34">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35"/>
+      <c r="B22" s="40">
+        <v>1</v>
+      </c>
+      <c r="C22" s="42"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
@@ -3078,10 +3078,10 @@
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35"/>
+      <c r="B23" s="40">
+        <v>1</v>
+      </c>
+      <c r="C23" s="42"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -3167,89 +3167,89 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="36">
-        <v>1</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30">
-        <v>1</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="B24" s="52">
+        <v>1</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="33">
+        <v>0</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
-        <v>0</v>
-      </c>
-      <c r="M24" s="30">
-        <v>1</v>
-      </c>
-      <c r="N24" s="30">
-        <v>1</v>
-      </c>
-      <c r="O24" s="30">
-        <v>0</v>
-      </c>
-      <c r="P24" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>0</v>
-      </c>
-      <c r="R24" s="30">
-        <v>0</v>
-      </c>
-      <c r="S24" s="30">
-        <v>0</v>
-      </c>
-      <c r="T24" s="30">
-        <v>0</v>
-      </c>
-      <c r="U24" s="30">
-        <v>0</v>
-      </c>
-      <c r="V24" s="30" t="s">
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33">
+        <v>1</v>
+      </c>
+      <c r="N24" s="33">
+        <v>1</v>
+      </c>
+      <c r="O24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>0</v>
+      </c>
+      <c r="R24" s="33">
+        <v>0</v>
+      </c>
+      <c r="S24" s="33">
+        <v>0</v>
+      </c>
+      <c r="T24" s="33">
+        <v>0</v>
+      </c>
+      <c r="U24" s="33">
+        <v>0</v>
+      </c>
+      <c r="V24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="W24" s="30" t="s">
+      <c r="W24" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30" t="s">
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AB24" s="30" t="s">
+      <c r="AB24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AC24" s="30" t="s">
+      <c r="AC24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30" t="s">
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33" t="s">
         <v>160</v>
       </c>
       <c r="AH24" s="12"/>
@@ -3261,39 +3261,39 @@
       </c>
     </row>
     <row r="25" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="15" t="s">
         <v>94</v>
@@ -3303,89 +3303,89 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="36">
-        <v>0</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="30">
-        <v>0</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="B26" s="52">
+        <v>0</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="33">
+        <v>0</v>
+      </c>
+      <c r="E26" s="33">
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="30">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
-        <v>1</v>
-      </c>
-      <c r="M26" s="30">
-        <v>0</v>
-      </c>
-      <c r="N26" s="30" t="s">
+      <c r="J26" s="33">
+        <v>0</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <v>1</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="30">
-        <v>0</v>
-      </c>
-      <c r="P26" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="30">
-        <v>0</v>
-      </c>
-      <c r="R26" s="30">
-        <v>0</v>
-      </c>
-      <c r="S26" s="30">
-        <v>0</v>
-      </c>
-      <c r="T26" s="30">
-        <v>0</v>
-      </c>
-      <c r="U26" s="30">
-        <v>0</v>
-      </c>
-      <c r="V26" s="30" t="s">
+      <c r="O26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>0</v>
+      </c>
+      <c r="R26" s="33">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33">
+        <v>0</v>
+      </c>
+      <c r="T26" s="33">
+        <v>0</v>
+      </c>
+      <c r="U26" s="33">
+        <v>0</v>
+      </c>
+      <c r="V26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="W26" s="30" t="s">
+      <c r="W26" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30" t="s">
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="30" t="s">
+      <c r="AB26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AC26" s="30" t="s">
+      <c r="AC26" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30" t="s">
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33" t="s">
         <v>159</v>
       </c>
       <c r="AH26" s="12"/>
@@ -3397,49 +3397,49 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
       <c r="AH27" s="12"/>
     </row>
     <row r="28" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="34">
-        <v>0</v>
-      </c>
-      <c r="C28" s="35"/>
+      <c r="B28" s="40">
+        <v>0</v>
+      </c>
+      <c r="C28" s="42"/>
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -3524,10 +3524,10 @@
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="34">
-        <v>0</v>
-      </c>
-      <c r="C29" s="35"/>
+      <c r="B29" s="40">
+        <v>0</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -3612,10 +3612,10 @@
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="34">
-        <v>0</v>
-      </c>
-      <c r="C30" s="35"/>
+      <c r="B30" s="40">
+        <v>0</v>
+      </c>
+      <c r="C30" s="42"/>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -3700,10 +3700,10 @@
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="34">
-        <v>0</v>
-      </c>
-      <c r="C31" s="35"/>
+      <c r="B31" s="40">
+        <v>0</v>
+      </c>
+      <c r="C31" s="42"/>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -3788,10 +3788,10 @@
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="34">
-        <v>0</v>
-      </c>
-      <c r="C32" s="35"/>
+      <c r="B32" s="40">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42"/>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -3876,10 +3876,10 @@
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="34">
-        <v>0</v>
-      </c>
-      <c r="C33" s="35"/>
+      <c r="B33" s="40">
+        <v>0</v>
+      </c>
+      <c r="C33" s="42"/>
       <c r="D33" s="2">
         <v>0</v>
       </c>
@@ -3964,10 +3964,10 @@
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="35"/>
+      <c r="B34" s="40">
+        <v>0</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -4052,10 +4052,10 @@
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="34">
-        <v>0</v>
-      </c>
-      <c r="C35" s="35"/>
+      <c r="B35" s="40">
+        <v>0</v>
+      </c>
+      <c r="C35" s="42"/>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -4147,8 +4147,8 @@
       <c r="A39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -4184,8 +4184,8 @@
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -4219,15 +4219,228 @@
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA2:AA3"/>
@@ -4252,228 +4465,15 @@
     <mergeCell ref="AE13:AE14"/>
     <mergeCell ref="AF13:AF14"/>
     <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCE\Semester 8\Computer Architecture\Project\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC72287-A0A4-4E8F-B56F-129382A494CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E607FD-482D-4295-AE74-3EEF19F5D907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="170">
   <si>
     <t>Instruction</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>16#000523</t>
+  </si>
+  <si>
+    <t>HWINT [24]</t>
   </si>
 </sst>
 </file>
@@ -778,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -868,86 +871,98 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:BB40"/>
+  <dimension ref="A1:BC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,29 +1319,29 @@
     <col min="54" max="54" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1336,21 +1351,21 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="34" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="43" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="30" t="s">
         <v>142</v>
       </c>
@@ -1361,191 +1376,194 @@
       <c r="AJ1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="39"/>
-      <c r="AQ1" s="37" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="52"/>
+      <c r="AQ1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="39"/>
-      <c r="AV1" s="37" t="s">
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="52"/>
+      <c r="AV1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="39"/>
-      <c r="BA1" s="37" t="s">
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="52"/>
+      <c r="BA1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="38"/>
+      <c r="BB1" s="51"/>
     </row>
-    <row r="2" spans="1:54" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:55" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="I2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="M2" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="P2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="R2" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="U2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="W2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="X2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="Y2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Z2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AA2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AC2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AD2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AE2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AF2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AG2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AH2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AW2" s="40" t="s">
+      <c r="AX2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="9" t="s">
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -1563,43 +1581,44 @@
       <c r="AE3" s="32"/>
       <c r="AF3" s="32"/>
       <c r="AG3" s="32"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="15" t="s">
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40">
-        <v>0</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
+      <c r="B4" s="59">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
@@ -1618,13 +1637,13 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="20">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
         <v>0</v>
       </c>
       <c r="T4" s="23">
@@ -1633,59 +1652,62 @@
       <c r="U4" s="23">
         <v>0</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="23">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="4"/>
+      <c r="X4" s="7"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="29" t="s">
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40">
-        <v>0</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
+      <c r="B5" s="59">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
@@ -1704,13 +1726,13 @@
       <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="Q5" s="19">
-        <v>1</v>
-      </c>
-      <c r="R5" s="20">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23">
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20">
         <v>0</v>
       </c>
       <c r="T5" s="23">
@@ -1719,59 +1741,62 @@
       <c r="U5" s="23">
         <v>0</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="23">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="4"/>
+      <c r="X5" s="7"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="29" t="s">
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="15" t="s">
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AJ5" s="20" t="s">
+      <c r="AK5" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40">
-        <v>0</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
+      <c r="B6" s="59">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
@@ -1787,7 +1812,7 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="2">
         <v>0</v>
       </c>
       <c r="Q6" s="23">
@@ -1805,14 +1830,14 @@
       <c r="U6" s="23">
         <v>0</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="23">
+        <v>0</v>
+      </c>
+      <c r="W6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="X6" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>51</v>
       </c>
       <c r="Y6" s="23" t="s">
         <v>51</v>
@@ -1820,52 +1845,55 @@
       <c r="Z6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="4"/>
+      <c r="AA6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="7"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="29" t="s">
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="15" t="s">
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ6" s="20" t="s">
+      <c r="AK6" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40">
-        <v>1</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
@@ -1881,7 +1909,7 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="2">
         <v>0</v>
       </c>
       <c r="Q7" s="23">
@@ -1899,67 +1927,70 @@
       <c r="U7" s="23">
         <v>0</v>
       </c>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="23">
+        <v>0</v>
+      </c>
+      <c r="W7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="23" t="s">
+      <c r="X7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="Y7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Z7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="AA7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="4"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="29" t="s">
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="15" t="s">
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AK7" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="40">
-        <v>1</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
+      <c r="B8" s="59">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
@@ -1975,7 +2006,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="2">
         <v>0</v>
       </c>
       <c r="Q8" s="23">
@@ -1993,67 +2024,70 @@
       <c r="U8" s="23">
         <v>0</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="23">
+        <v>0</v>
+      </c>
+      <c r="W8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="23" t="s">
+      <c r="X8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="Y8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Z8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="AA8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="4"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="7"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="29" t="s">
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="15" t="s">
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AK8" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="40">
-        <v>0</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
+      <c r="B9" s="59">
+        <v>0</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36"/>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
@@ -2069,7 +2103,7 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="2">
         <v>0</v>
       </c>
       <c r="Q9" s="23">
@@ -2087,67 +2121,70 @@
       <c r="U9" s="23">
         <v>0</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="23">
+        <v>0</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="X9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="Y9" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="Y9" s="23" t="s">
-        <v>51</v>
       </c>
       <c r="Z9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="4"/>
+      <c r="AA9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="7"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
-      <c r="AG9" s="29" t="s">
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="15" t="s">
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AJ9" s="20" t="s">
+      <c r="AK9" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="40">
-        <v>1</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
+      <c r="B10" s="59">
+        <v>0</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36"/>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
@@ -2163,7 +2200,7 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="23">
@@ -2181,67 +2218,70 @@
       <c r="U10" s="23">
         <v>0</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="V10" s="23">
+        <v>0</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="X10" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="X10" s="23" t="s">
-        <v>51</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>51</v>
       </c>
       <c r="Z10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="7"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="29" t="s">
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="15" t="s">
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AJ10" s="20" t="s">
+      <c r="AK10" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="40">
-        <v>1</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
+      <c r="B11" s="59">
+        <v>0</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
@@ -2257,7 +2297,7 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="2">
         <v>0</v>
       </c>
       <c r="Q11" s="23">
@@ -2275,67 +2315,70 @@
       <c r="U11" s="23">
         <v>0</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="23">
+        <v>0</v>
+      </c>
+      <c r="W11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="X11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="X11" s="23" t="s">
+      <c r="Y11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Z11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="23" t="s">
+      <c r="AA11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="4"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="29" t="s">
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="15" t="s">
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AJ11" s="20" t="s">
+      <c r="AK11" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="40">
-        <v>1</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
+      <c r="B12" s="59">
+        <v>0</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
@@ -2351,17 +2394,17 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="2">
         <v>0</v>
       </c>
       <c r="Q12" s="23">
         <v>0</v>
       </c>
       <c r="R12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="23">
         <v>0</v>
@@ -2369,131 +2412,137 @@
       <c r="U12" s="23">
         <v>0</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="V12" s="23">
+        <v>0</v>
+      </c>
+      <c r="W12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="X12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="X12" s="23" t="s">
+      <c r="Y12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Z12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AA12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="4"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="29" t="s">
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="15" t="s">
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AK12" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="52">
-        <v>1</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="33">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="s">
+      <c r="B13" s="60">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="J13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="33">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>0</v>
-      </c>
-      <c r="R13" s="33">
-        <v>0</v>
-      </c>
-      <c r="S13" s="33">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33">
-        <v>0</v>
-      </c>
-      <c r="U13" s="33">
-        <v>0</v>
-      </c>
-      <c r="V13" s="33" t="s">
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>0</v>
+      </c>
+      <c r="R13" s="31">
+        <v>0</v>
+      </c>
+      <c r="S13" s="31">
+        <v>0</v>
+      </c>
+      <c r="T13" s="31">
+        <v>0</v>
+      </c>
+      <c r="U13" s="31">
+        <v>0</v>
+      </c>
+      <c r="V13" s="31">
+        <v>0</v>
+      </c>
+      <c r="W13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="33" t="s">
+      <c r="X13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="X13" s="33" t="s">
+      <c r="Y13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y13" s="33" t="s">
+      <c r="Z13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="AA13" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33" t="s">
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
     </row>
-    <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="32"/>
+    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -2523,101 +2572,105 @@
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
       <c r="AG14" s="32"/>
-      <c r="AH14" s="12"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="12"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+    <row r="15" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="52">
-        <v>1</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="33">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33" t="s">
+      <c r="B15" s="60">
+        <v>0</v>
+      </c>
+      <c r="C15" s="37">
+        <v>1</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="33">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0</v>
-      </c>
-      <c r="L15" s="33">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
-        <v>0</v>
-      </c>
-      <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="33">
-        <v>0</v>
-      </c>
-      <c r="R15" s="33">
-        <v>0</v>
-      </c>
-      <c r="S15" s="33">
-        <v>0</v>
-      </c>
-      <c r="T15" s="33">
-        <v>0</v>
-      </c>
-      <c r="U15" s="33">
-        <v>0</v>
-      </c>
-      <c r="V15" s="33" t="s">
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
+        <v>0</v>
+      </c>
+      <c r="M15" s="31">
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
+        <v>0</v>
+      </c>
+      <c r="S15" s="31">
+        <v>0</v>
+      </c>
+      <c r="T15" s="31">
+        <v>0</v>
+      </c>
+      <c r="U15" s="31">
+        <v>0</v>
+      </c>
+      <c r="V15" s="31">
+        <v>0</v>
+      </c>
+      <c r="W15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="33" t="s">
+      <c r="X15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="X15" s="33" t="s">
+      <c r="Y15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="33" t="s">
+      <c r="Z15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="AA15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33" t="s">
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
     </row>
-    <row r="16" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="32"/>
+    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -2647,104 +2700,108 @@
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
       <c r="AG16" s="32"/>
-      <c r="AH16" s="12"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="28"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="12"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="28"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="52">
-        <v>1</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="33">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33">
-        <v>0</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33" t="s">
+      <c r="B17" s="60">
+        <v>0</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="J17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="33">
-        <v>0</v>
-      </c>
-      <c r="K17" s="33">
-        <v>0</v>
-      </c>
-      <c r="L17" s="33">
-        <v>0</v>
-      </c>
-      <c r="M17" s="33">
-        <v>0</v>
-      </c>
-      <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="33">
-        <v>0</v>
-      </c>
-      <c r="R17" s="33">
-        <v>0</v>
-      </c>
-      <c r="S17" s="33">
-        <v>0</v>
-      </c>
-      <c r="T17" s="33">
-        <v>0</v>
-      </c>
-      <c r="U17" s="33">
-        <v>0</v>
-      </c>
-      <c r="V17" s="33" t="s">
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0</v>
+      </c>
+      <c r="M17" s="31">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="31">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>0</v>
+      </c>
+      <c r="R17" s="31">
+        <v>0</v>
+      </c>
+      <c r="S17" s="31">
+        <v>0</v>
+      </c>
+      <c r="T17" s="31">
+        <v>0</v>
+      </c>
+      <c r="U17" s="31">
+        <v>0</v>
+      </c>
+      <c r="V17" s="31">
+        <v>0</v>
+      </c>
+      <c r="W17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="33" t="s">
+      <c r="X17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="X17" s="33" t="s">
+      <c r="Y17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="AA17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33" t="s">
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="32"/>
+    <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -2774,101 +2831,105 @@
       <c r="AE18" s="32"/>
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
-      <c r="AH18" s="12"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="12"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="52">
-        <v>1</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="33">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1</v>
-      </c>
-      <c r="G19" s="33" t="s">
+      <c r="B19" s="60">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="I19" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="J19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="33">
-        <v>0</v>
-      </c>
-      <c r="K19" s="33">
-        <v>0</v>
-      </c>
-      <c r="L19" s="33">
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
-        <v>0</v>
-      </c>
-      <c r="N19" s="33">
-        <v>0</v>
-      </c>
-      <c r="O19" s="33">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="33">
-        <v>0</v>
-      </c>
-      <c r="R19" s="33">
-        <v>0</v>
-      </c>
-      <c r="S19" s="33">
-        <v>0</v>
-      </c>
-      <c r="T19" s="33">
-        <v>0</v>
-      </c>
-      <c r="U19" s="33">
-        <v>0</v>
-      </c>
-      <c r="V19" s="33" t="s">
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0</v>
+      </c>
+      <c r="M19" s="31">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="31">
+        <v>0</v>
+      </c>
+      <c r="T19" s="31">
+        <v>0</v>
+      </c>
+      <c r="U19" s="31">
+        <v>0</v>
+      </c>
+      <c r="V19" s="31">
+        <v>0</v>
+      </c>
+      <c r="W19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="W19" s="33" t="s">
+      <c r="X19" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33" t="s">
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AB19" s="33" t="s">
+      <c r="AC19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AC19" s="33" t="s">
+      <c r="AD19" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33" t="s">
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
     </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="57"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="32"/>
+    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -2898,53 +2959,54 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
-      <c r="AH20" s="12"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="12"/>
     </row>
-    <row r="21" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="40">
-        <v>0</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
+      <c r="B21" s="59">
+        <v>0</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="23">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
         <v>0</v>
       </c>
       <c r="Q21" s="23">
@@ -2962,73 +3024,76 @@
       <c r="U21" s="23">
         <v>0</v>
       </c>
-      <c r="V21" s="23" t="s">
+      <c r="V21" s="23">
+        <v>0</v>
+      </c>
+      <c r="W21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W21" s="23" t="s">
+      <c r="X21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
-      <c r="AB21" s="4" t="s">
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="29" t="s">
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
     </row>
-    <row r="22" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="40">
-        <v>1</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
+      <c r="B22" s="59">
+        <v>0</v>
+      </c>
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="23">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
         <v>0</v>
       </c>
       <c r="Q22" s="23">
@@ -3046,63 +3111,66 @@
       <c r="U22" s="23">
         <v>0</v>
       </c>
-      <c r="V22" s="23" t="s">
+      <c r="V22" s="23">
+        <v>0</v>
+      </c>
+      <c r="W22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W22" s="23" t="s">
+      <c r="X22" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
-      <c r="AB22" s="4" t="s">
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="7"/>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="29" t="s">
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="14" t="s">
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AJ22" s="17" t="s">
+      <c r="AK22" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="40">
-        <v>1</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
+      <c r="B23" s="59">
+        <v>0</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="I23" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
@@ -3110,15 +3178,15 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>1</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
         <v>0</v>
       </c>
       <c r="Q23" s="23">
@@ -3136,135 +3204,141 @@
       <c r="U23" s="23">
         <v>0</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="23">
+        <v>0</v>
+      </c>
+      <c r="W23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W23" s="23" t="s">
+      <c r="X23" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
-      <c r="AB23" s="4" t="s">
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AD23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="29" t="s">
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="15" t="s">
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AJ23" s="18" t="s">
+      <c r="AK23" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:37" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="52">
-        <v>1</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="33">
-        <v>0</v>
-      </c>
-      <c r="E24" s="33">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33">
-        <v>1</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="B24" s="60">
+        <v>0</v>
+      </c>
+      <c r="C24" s="37">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="31">
+        <v>0</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="I24" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="J24" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="33">
-        <v>0</v>
-      </c>
-      <c r="K24" s="33">
-        <v>0</v>
-      </c>
-      <c r="L24" s="33">
-        <v>0</v>
-      </c>
-      <c r="M24" s="33">
-        <v>1</v>
-      </c>
-      <c r="N24" s="33">
-        <v>1</v>
-      </c>
-      <c r="O24" s="33">
-        <v>0</v>
-      </c>
-      <c r="P24" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="33">
-        <v>0</v>
-      </c>
-      <c r="R24" s="33">
-        <v>0</v>
-      </c>
-      <c r="S24" s="33">
-        <v>0</v>
-      </c>
-      <c r="T24" s="33">
-        <v>0</v>
-      </c>
-      <c r="U24" s="33">
-        <v>0</v>
-      </c>
-      <c r="V24" s="33" t="s">
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
+        <v>0</v>
+      </c>
+      <c r="M24" s="31">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>1</v>
+      </c>
+      <c r="O24" s="31">
+        <v>1</v>
+      </c>
+      <c r="P24" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>0</v>
+      </c>
+      <c r="R24" s="31">
+        <v>0</v>
+      </c>
+      <c r="S24" s="31">
+        <v>0</v>
+      </c>
+      <c r="T24" s="31">
+        <v>0</v>
+      </c>
+      <c r="U24" s="31">
+        <v>0</v>
+      </c>
+      <c r="V24" s="31">
+        <v>0</v>
+      </c>
+      <c r="W24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="W24" s="33" t="s">
+      <c r="X24" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33" t="s">
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AB24" s="33" t="s">
+      <c r="AC24" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AC24" s="33" t="s">
+      <c r="AD24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33" t="s">
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="15" t="s">
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AJ24" s="18" t="s">
+      <c r="AK24" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="32"/>
+    <row r="25" spans="1:37" ht="1.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
@@ -3294,113 +3368,117 @@
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="15" t="s">
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AJ25" s="18" t="s">
+      <c r="AK25" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="52">
-        <v>0</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="33">
-        <v>0</v>
-      </c>
-      <c r="E26" s="33">
-        <v>0</v>
-      </c>
-      <c r="F26" s="33">
-        <v>1</v>
-      </c>
-      <c r="G26" s="33" t="s">
+      <c r="B26" s="60">
+        <v>0</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="I26" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="J26" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="33">
-        <v>0</v>
-      </c>
-      <c r="K26" s="33">
-        <v>0</v>
-      </c>
-      <c r="L26" s="33">
-        <v>1</v>
-      </c>
-      <c r="M26" s="33">
-        <v>0</v>
-      </c>
-      <c r="N26" s="33" t="s">
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0</v>
+      </c>
+      <c r="M26" s="31">
+        <v>1</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="33">
-        <v>0</v>
-      </c>
-      <c r="P26" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="33">
-        <v>0</v>
-      </c>
-      <c r="R26" s="33">
-        <v>0</v>
-      </c>
-      <c r="S26" s="33">
-        <v>0</v>
-      </c>
-      <c r="T26" s="33">
-        <v>0</v>
-      </c>
-      <c r="U26" s="33">
-        <v>0</v>
-      </c>
-      <c r="V26" s="33" t="s">
+      <c r="P26" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>0</v>
+      </c>
+      <c r="R26" s="31">
+        <v>0</v>
+      </c>
+      <c r="S26" s="31">
+        <v>0</v>
+      </c>
+      <c r="T26" s="31">
+        <v>0</v>
+      </c>
+      <c r="U26" s="31">
+        <v>0</v>
+      </c>
+      <c r="V26" s="31">
+        <v>0</v>
+      </c>
+      <c r="W26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="W26" s="33" t="s">
+      <c r="X26" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33" t="s">
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AB26" s="33" t="s">
+      <c r="AC26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AC26" s="33" t="s">
+      <c r="AD26" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33" t="s">
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="15" t="s">
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AJ26" s="18" t="s">
+      <c r="AK26" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="32"/>
+    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
@@ -3430,39 +3508,40 @@
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
-      <c r="AH27" s="12"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="12"/>
     </row>
-    <row r="28" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="40">
-        <v>0</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
+      <c r="B28" s="59">
+        <v>0</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="36"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -3470,13 +3549,13 @@
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="23">
+      <c r="P28" s="2">
         <v>0</v>
       </c>
       <c r="Q28" s="23">
@@ -3494,63 +3573,66 @@
       <c r="U28" s="23">
         <v>0</v>
       </c>
-      <c r="V28" s="23" t="s">
+      <c r="V28" s="23">
+        <v>0</v>
+      </c>
+      <c r="W28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="23" t="s">
+      <c r="X28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="X28" s="23"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="23"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG28" s="29" t="s">
+      <c r="AH28" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
     </row>
-    <row r="29" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="40">
-        <v>0</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
+      <c r="B29" s="59">
+        <v>0</v>
+      </c>
+      <c r="C29" s="35">
+        <v>0</v>
+      </c>
+      <c r="D29" s="36"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="I29" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -3558,13 +3640,13 @@
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="23">
+      <c r="P29" s="2">
         <v>0</v>
       </c>
       <c r="Q29" s="23">
@@ -3582,63 +3664,66 @@
       <c r="U29" s="23">
         <v>0</v>
       </c>
-      <c r="V29" s="23" t="s">
+      <c r="V29" s="23">
+        <v>0</v>
+      </c>
+      <c r="W29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
-      <c r="AB29" s="4"/>
+      <c r="AB29" s="23"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG29" s="29" t="s">
+      <c r="AH29" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
     </row>
-    <row r="30" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="40">
-        <v>0</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
+      <c r="B30" s="59">
+        <v>0</v>
+      </c>
+      <c r="C30" s="35">
+        <v>0</v>
+      </c>
+      <c r="D30" s="36"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="I30" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3646,22 +3731,22 @@
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
       <c r="P30" s="2">
         <v>0</v>
       </c>
-      <c r="Q30" s="19">
-        <v>0</v>
-      </c>
-      <c r="R30" s="20">
-        <v>0</v>
-      </c>
-      <c r="S30" s="23">
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30" s="20">
         <v>0</v>
       </c>
       <c r="T30" s="23">
@@ -3670,63 +3755,66 @@
       <c r="U30" s="23">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="V30" s="23">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD30" s="4"/>
       <c r="AE30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG30" s="29" t="s">
+      <c r="AH30" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
     </row>
-    <row r="31" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="40">
-        <v>0</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
+      <c r="B31" s="59">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35">
+        <v>0</v>
+      </c>
+      <c r="D31" s="36"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="I31" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
       <c r="K31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -3734,22 +3822,22 @@
       <c r="M31" s="2">
         <v>0</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
       <c r="P31" s="2">
         <v>0</v>
       </c>
-      <c r="Q31" s="19">
-        <v>0</v>
-      </c>
-      <c r="R31" s="20">
-        <v>0</v>
-      </c>
-      <c r="S31" s="23">
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="19">
+        <v>0</v>
+      </c>
+      <c r="S31" s="20">
         <v>0</v>
       </c>
       <c r="T31" s="23">
@@ -3758,398 +3846,413 @@
       <c r="U31" s="23">
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="V31" s="23">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD31" s="4"/>
       <c r="AE31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG31" s="29" t="s">
+      <c r="AH31" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
     </row>
-    <row r="32" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="40">
-        <v>0</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
+      <c r="B32" s="59">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
+        <v>0</v>
+      </c>
+      <c r="D32" s="36"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="I32" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
       <c r="K32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="2">
-        <v>1</v>
-      </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="Q32" s="19">
-        <v>0</v>
-      </c>
-      <c r="R32" s="20">
-        <v>0</v>
-      </c>
-      <c r="S32" s="23">
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0</v>
+      </c>
+      <c r="S32" s="20">
         <v>0</v>
       </c>
       <c r="T32" s="23">
         <v>0</v>
       </c>
       <c r="U32" s="23">
-        <v>1</v>
-      </c>
-      <c r="V32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="23">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="23"/>
+      <c r="Y32" s="4"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
-      <c r="AB32" s="4"/>
+      <c r="AB32" s="23"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD32" s="4"/>
       <c r="AE32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG32" s="29" t="s">
+      <c r="AH32" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
     </row>
-    <row r="33" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="40">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
+      <c r="B33" s="59">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <v>0</v>
+      </c>
+      <c r="D33" s="36"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
       <c r="K33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="19">
-        <v>0</v>
-      </c>
-      <c r="R33" s="20">
-        <v>0</v>
-      </c>
-      <c r="S33" s="23">
+      <c r="P33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
         <v>0</v>
       </c>
       <c r="T33" s="23">
         <v>0</v>
       </c>
       <c r="U33" s="23">
-        <v>1</v>
-      </c>
-      <c r="V33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V33" s="23">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="2" t="s">
+      <c r="X33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="23"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
-      <c r="AB33" s="4"/>
+      <c r="AB33" s="23"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AG33" s="29" t="s">
+      <c r="AG33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH33" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
     </row>
-    <row r="34" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="40">
-        <v>0</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
+      <c r="B34" s="59">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <v>0</v>
+      </c>
+      <c r="D34" s="36"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
       <c r="K34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
       <c r="P34" s="2">
         <v>1</v>
       </c>
-      <c r="Q34" s="19">
-        <v>0</v>
-      </c>
-      <c r="R34" s="20">
-        <v>0</v>
-      </c>
-      <c r="S34" s="23">
-        <v>1</v>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="19">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <v>0</v>
       </c>
       <c r="T34" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="23">
-        <v>1</v>
-      </c>
-      <c r="V34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V34" s="23">
+        <v>1</v>
+      </c>
+      <c r="W34" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="23" t="s">
+      <c r="X34" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
-      <c r="AB34" s="4"/>
+      <c r="AB34" s="23"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AG34" s="29" t="s">
+      <c r="AH34" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
     </row>
-    <row r="35" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="40">
-        <v>0</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
+      <c r="B35" s="59">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="36"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
       <c r="K35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="19">
-        <v>0</v>
-      </c>
-      <c r="R35" s="20">
-        <v>0</v>
-      </c>
-      <c r="S35" s="23">
+      <c r="P35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
         <v>0</v>
       </c>
       <c r="T35" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="23">
         <v>1</v>
       </c>
-      <c r="V35" s="23" t="s">
+      <c r="V35" s="23">
+        <v>1</v>
+      </c>
+      <c r="W35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="23" t="s">
+      <c r="X35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="4"/>
+      <c r="Y35" s="23"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD35" s="4"/>
       <c r="AE35" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AF35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AG35" s="29" t="s">
+      <c r="AG35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AH36" s="12"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AI36" s="12"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AH37" s="12"/>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AI37" s="12"/>
     </row>
-    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -4178,35 +4281,80 @@
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
-      <c r="AG39" s="12"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
+      <c r="B40" s="59">
+        <v>1</v>
+      </c>
+      <c r="C40" s="35">
+        <v>0</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="23">
+        <v>0</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>0</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+      <c r="K40" s="23">
+        <v>0</v>
+      </c>
+      <c r="L40" s="23">
+        <v>0</v>
+      </c>
+      <c r="M40" s="23">
+        <v>0</v>
+      </c>
+      <c r="N40" s="23">
+        <v>0</v>
+      </c>
+      <c r="O40" s="23">
+        <v>0</v>
+      </c>
+      <c r="P40" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>0</v>
+      </c>
+      <c r="R40" s="23">
+        <v>0</v>
+      </c>
+      <c r="S40" s="23">
+        <v>0</v>
+      </c>
+      <c r="T40" s="23">
+        <v>0</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0</v>
+      </c>
+      <c r="V40" s="23">
+        <v>0</v>
+      </c>
+      <c r="W40" s="23">
+        <v>0</v>
+      </c>
+      <c r="X40" s="23">
+        <v>110010</v>
+      </c>
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
       <c r="AA40" s="23"/>
@@ -4215,265 +4363,273 @@
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
-      <c r="AG40" s="12"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="255">
+  <mergeCells count="262">
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
     <mergeCell ref="U13:U14"/>
     <mergeCell ref="U15:U16"/>
     <mergeCell ref="U17:U18"/>
     <mergeCell ref="U19:U20"/>
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="U26:U27"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCE\Semester 8\Computer Architecture\Project\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Senior-1\Semester 8\Comp Architecture\Project\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E607FD-482D-4295-AE74-3EEF19F5D907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8CCED-016C-4AD5-BC90-C3B05CBB0D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -810,9 +810,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -871,10 +868,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,81 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,231 +1280,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.88671875" customWidth="1"/>
-    <col min="35" max="35" width="17.44140625" customWidth="1"/>
-    <col min="36" max="36" width="81.109375" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" customWidth="1"/>
-    <col min="39" max="39" width="18.21875" customWidth="1"/>
-    <col min="40" max="40" width="17.6640625" customWidth="1"/>
-    <col min="42" max="42" width="9" customWidth="1"/>
-    <col min="43" max="43" width="11.88671875" customWidth="1"/>
-    <col min="44" max="44" width="12.88671875" customWidth="1"/>
-    <col min="45" max="45" width="11.5546875" customWidth="1"/>
-    <col min="46" max="46" width="16.6640625" customWidth="1"/>
-    <col min="51" max="51" width="12.88671875" customWidth="1"/>
-    <col min="53" max="53" width="22.33203125" customWidth="1"/>
-    <col min="54" max="54" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.453125" customWidth="1"/>
+    <col min="36" max="36" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="77.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.6328125" customWidth="1"/>
+    <col min="39" max="39" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.90625" customWidth="1"/>
+    <col min="44" max="44" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" customWidth="1"/>
+    <col min="53" max="53" width="22.36328125" customWidth="1"/>
+    <col min="54" max="54" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="14" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="41" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="54" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="30" t="s">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AH1" s="12"/>
+      <c r="AJ1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AL1" s="50" t="s">
+      <c r="AM1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="52"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="33"/>
+      <c r="AR1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="52"/>
-      <c r="AV1" s="50" t="s">
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="33"/>
+      <c r="AW1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="52"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="33"/>
+      <c r="BB1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="51"/>
+      <c r="BC1" s="32"/>
     </row>
-    <row r="2" spans="1:55" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:55" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="57" t="s">
+      <c r="AE2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="57" t="s">
+      <c r="AF2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="57" t="s">
+      <c r="AG2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="57" t="s">
+      <c r="AH2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="10" t="s">
         <v>100</v>
       </c>
       <c r="AM2" s="8" t="s">
@@ -1534,12 +1547,12 @@
       <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="35" t="s">
+      <c r="AX2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="16"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="15"/>
       <c r="BB2" s="9" t="s">
         <v>88</v>
       </c>
@@ -1547,60 +1560,60 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="15" t="s">
+    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="59">
-        <v>0</v>
-      </c>
-      <c r="C4" s="35">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36"/>
+      <c r="B4" s="35">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1640,19 +1653,19 @@
       <c r="Q4" s="2">
         <v>0</v>
       </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23">
-        <v>0</v>
-      </c>
-      <c r="U4" s="23">
-        <v>0</v>
-      </c>
-      <c r="V4" s="23">
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22">
         <v>0</v>
       </c>
       <c r="W4" s="7" t="s">
@@ -1668,28 +1681,28 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="29" t="s">
+      <c r="AH4" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="15" t="s">
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35">
-        <v>0</v>
-      </c>
-      <c r="D5" s="36"/>
+      <c r="B5" s="35">
+        <v>0</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0</v>
+      </c>
+      <c r="D5" s="44"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1729,19 +1742,19 @@
       <c r="Q5" s="2">
         <v>0</v>
       </c>
-      <c r="R5" s="19">
-        <v>1</v>
-      </c>
-      <c r="S5" s="20">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23">
-        <v>0</v>
-      </c>
-      <c r="V5" s="23">
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22">
         <v>0</v>
       </c>
       <c r="W5" s="7" t="s">
@@ -1757,28 +1770,28 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="29" t="s">
+      <c r="AH5" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="15" t="s">
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AK5" s="20" t="s">
+      <c r="AK5" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59">
-        <v>0</v>
-      </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36"/>
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1815,67 +1828,67 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="23">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0</v>
-      </c>
-      <c r="V6" s="23">
-        <v>0</v>
-      </c>
-      <c r="W6" s="23" t="s">
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AA6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="23"/>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="29" t="s">
+      <c r="AH6" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="15" t="s">
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AK6" s="20" t="s">
+      <c r="AK6" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36"/>
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -1912,67 +1925,67 @@
       <c r="P7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="23">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0</v>
-      </c>
-      <c r="V7" s="23">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23" t="s">
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AA7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" s="23"/>
+      <c r="AB7" s="22"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="29" t="s">
+      <c r="AH7" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="15" t="s">
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AK7" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="59">
-        <v>0</v>
-      </c>
-      <c r="C8" s="35">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="B8" s="35">
+        <v>0</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="44"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -2009,67 +2022,67 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
-        <v>0</v>
-      </c>
-      <c r="R8" s="23">
-        <v>0</v>
-      </c>
-      <c r="S8" s="23">
-        <v>0</v>
-      </c>
-      <c r="T8" s="23">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
-        <v>0</v>
-      </c>
-      <c r="V8" s="23">
-        <v>0</v>
-      </c>
-      <c r="W8" s="23" t="s">
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="X8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="Z8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AA8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" s="23"/>
+      <c r="AB8" s="22"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="29" t="s">
+      <c r="AH8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="15" t="s">
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AK8" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="59">
-        <v>0</v>
-      </c>
-      <c r="C9" s="35">
-        <v>0</v>
-      </c>
-      <c r="D9" s="36"/>
+      <c r="B9" s="35">
+        <v>0</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0</v>
+      </c>
+      <c r="D9" s="44"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2106,67 +2119,67 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-      <c r="Q9" s="23">
-        <v>0</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23">
-        <v>0</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0</v>
-      </c>
-      <c r="V9" s="23">
-        <v>0</v>
-      </c>
-      <c r="W9" s="23" t="s">
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="X9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="Z9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="23" t="s">
+      <c r="AA9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" s="23"/>
+      <c r="AB9" s="22"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="29" t="s">
+      <c r="AH9" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="15" t="s">
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AK9" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="59">
-        <v>0</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1</v>
-      </c>
-      <c r="D10" s="36"/>
+      <c r="B10" s="35">
+        <v>0</v>
+      </c>
+      <c r="C10" s="42">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2203,67 +2216,67 @@
       <c r="P10" s="2">
         <v>0</v>
       </c>
-      <c r="Q10" s="23">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23">
-        <v>0</v>
-      </c>
-      <c r="S10" s="23">
-        <v>0</v>
-      </c>
-      <c r="T10" s="23">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0</v>
-      </c>
-      <c r="V10" s="23">
-        <v>0</v>
-      </c>
-      <c r="W10" s="23" t="s">
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+      <c r="S10" s="22">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Y10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" s="23"/>
+      <c r="AB10" s="22"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="29" t="s">
+      <c r="AH10" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="15" t="s">
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AK10" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="59">
-        <v>0</v>
-      </c>
-      <c r="C11" s="35">
-        <v>1</v>
-      </c>
-      <c r="D11" s="36"/>
+      <c r="B11" s="35">
+        <v>0</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -2300,67 +2313,67 @@
       <c r="P11" s="2">
         <v>0</v>
       </c>
-      <c r="Q11" s="23">
-        <v>0</v>
-      </c>
-      <c r="R11" s="23">
-        <v>0</v>
-      </c>
-      <c r="S11" s="23">
-        <v>0</v>
-      </c>
-      <c r="T11" s="23">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0</v>
-      </c>
-      <c r="V11" s="23">
-        <v>0</v>
-      </c>
-      <c r="W11" s="23" t="s">
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="23" t="s">
+      <c r="X11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="23" t="s">
+      <c r="Z11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA11" s="23" t="s">
+      <c r="AA11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="23"/>
+      <c r="AB11" s="22"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="29" t="s">
+      <c r="AH11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="15" t="s">
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AK11" s="20" t="s">
+      <c r="AK11" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="59">
-        <v>0</v>
-      </c>
-      <c r="C12" s="35">
-        <v>1</v>
-      </c>
-      <c r="D12" s="36"/>
+      <c r="B12" s="35">
+        <v>0</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1</v>
+      </c>
+      <c r="D12" s="44"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -2397,582 +2410,582 @@
       <c r="P12" s="2">
         <v>0</v>
       </c>
-      <c r="Q12" s="23">
-        <v>0</v>
-      </c>
-      <c r="R12" s="23">
-        <v>0</v>
-      </c>
-      <c r="S12" s="23">
-        <v>1</v>
-      </c>
-      <c r="T12" s="23">
-        <v>0</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0</v>
-      </c>
-      <c r="V12" s="23">
-        <v>0</v>
-      </c>
-      <c r="W12" s="23" t="s">
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <v>1</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
+        <v>0</v>
+      </c>
+      <c r="W12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X12" s="23" t="s">
+      <c r="X12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Z12" s="23" t="s">
+      <c r="Z12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" s="23" t="s">
+      <c r="AA12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" s="23"/>
+      <c r="AB12" s="22"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="29" t="s">
+      <c r="AH12" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="15" t="s">
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AK12" s="23" t="s">
+      <c r="AK12" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:55" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="60">
         <v>0</v>
       </c>
-      <c r="C13" s="37">
-        <v>1</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="C13" s="54">
+        <v>1</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="31">
-        <v>0</v>
-      </c>
-      <c r="L13" s="31">
-        <v>0</v>
-      </c>
-      <c r="M13" s="31">
-        <v>0</v>
-      </c>
-      <c r="N13" s="31">
-        <v>0</v>
-      </c>
-      <c r="O13" s="31">
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>0</v>
-      </c>
-      <c r="R13" s="31">
-        <v>0</v>
-      </c>
-      <c r="S13" s="31">
-        <v>0</v>
-      </c>
-      <c r="T13" s="31">
-        <v>0</v>
-      </c>
-      <c r="U13" s="31">
-        <v>0</v>
-      </c>
-      <c r="V13" s="31">
-        <v>0</v>
-      </c>
-      <c r="W13" s="31" t="s">
+      <c r="K13" s="38">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+      <c r="M13" s="38">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0</v>
+      </c>
+      <c r="O13" s="38">
+        <v>0</v>
+      </c>
+      <c r="P13" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>0</v>
+      </c>
+      <c r="R13" s="38">
+        <v>0</v>
+      </c>
+      <c r="S13" s="38">
+        <v>0</v>
+      </c>
+      <c r="T13" s="38">
+        <v>0</v>
+      </c>
+      <c r="U13" s="38">
+        <v>0</v>
+      </c>
+      <c r="V13" s="38">
+        <v>0</v>
+      </c>
+      <c r="W13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="31" t="s">
+      <c r="X13" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="Y13" s="31" t="s">
+      <c r="Y13" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="31" t="s">
+      <c r="Z13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA13" s="31" t="s">
+      <c r="AA13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31" t="s">
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AI13" s="12"/>
+      <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="59"/>
       <c r="B14" s="61"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="12"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:55" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="60">
         <v>0</v>
       </c>
-      <c r="C15" s="37">
-        <v>1</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="31" t="s">
+      <c r="C15" s="54">
+        <v>1</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="31">
-        <v>0</v>
-      </c>
-      <c r="L15" s="31">
-        <v>0</v>
-      </c>
-      <c r="M15" s="31">
-        <v>0</v>
-      </c>
-      <c r="N15" s="31">
-        <v>0</v>
-      </c>
-      <c r="O15" s="31">
-        <v>0</v>
-      </c>
-      <c r="P15" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>0</v>
-      </c>
-      <c r="R15" s="31">
-        <v>0</v>
-      </c>
-      <c r="S15" s="31">
-        <v>0</v>
-      </c>
-      <c r="T15" s="31">
-        <v>0</v>
-      </c>
-      <c r="U15" s="31">
-        <v>0</v>
-      </c>
-      <c r="V15" s="31">
-        <v>0</v>
-      </c>
-      <c r="W15" s="31" t="s">
+      <c r="K15" s="38">
+        <v>0</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0</v>
+      </c>
+      <c r="M15" s="38">
+        <v>0</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0</v>
+      </c>
+      <c r="O15" s="38">
+        <v>0</v>
+      </c>
+      <c r="P15" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>0</v>
+      </c>
+      <c r="R15" s="38">
+        <v>0</v>
+      </c>
+      <c r="S15" s="38">
+        <v>0</v>
+      </c>
+      <c r="T15" s="38">
+        <v>0</v>
+      </c>
+      <c r="U15" s="38">
+        <v>0</v>
+      </c>
+      <c r="V15" s="38">
+        <v>0</v>
+      </c>
+      <c r="W15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="X15" s="31" t="s">
+      <c r="X15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="31" t="s">
+      <c r="Y15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Z15" s="31" t="s">
+      <c r="Z15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA15" s="31" t="s">
+      <c r="AA15" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31" t="s">
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="AI15" s="12"/>
+      <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="59"/>
       <c r="B16" s="61"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="12"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="28"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="11"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="27"/>
     </row>
-    <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="60">
         <v>0</v>
       </c>
-      <c r="C17" s="37">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
-        <v>0</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="C17" s="54">
+        <v>1</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="31">
-        <v>0</v>
-      </c>
-      <c r="L17" s="31">
-        <v>0</v>
-      </c>
-      <c r="M17" s="31">
-        <v>0</v>
-      </c>
-      <c r="N17" s="31">
-        <v>0</v>
-      </c>
-      <c r="O17" s="31">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>0</v>
-      </c>
-      <c r="R17" s="31">
-        <v>0</v>
-      </c>
-      <c r="S17" s="31">
-        <v>0</v>
-      </c>
-      <c r="T17" s="31">
-        <v>0</v>
-      </c>
-      <c r="U17" s="31">
-        <v>0</v>
-      </c>
-      <c r="V17" s="31">
-        <v>0</v>
-      </c>
-      <c r="W17" s="31" t="s">
+      <c r="K17" s="38">
+        <v>0</v>
+      </c>
+      <c r="L17" s="38">
+        <v>0</v>
+      </c>
+      <c r="M17" s="38">
+        <v>0</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0</v>
+      </c>
+      <c r="O17" s="38">
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>0</v>
+      </c>
+      <c r="R17" s="38">
+        <v>0</v>
+      </c>
+      <c r="S17" s="38">
+        <v>0</v>
+      </c>
+      <c r="T17" s="38">
+        <v>0</v>
+      </c>
+      <c r="U17" s="38">
+        <v>0</v>
+      </c>
+      <c r="V17" s="38">
+        <v>0</v>
+      </c>
+      <c r="W17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="31" t="s">
+      <c r="X17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="Y17" s="31" t="s">
+      <c r="Y17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="31" t="s">
+      <c r="Z17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AA17" s="31" t="s">
+      <c r="AA17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31" t="s">
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="AI17" s="12"/>
+      <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="59"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="12"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="60">
         <v>0</v>
       </c>
-      <c r="C19" s="37">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>1</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="C19" s="54">
+        <v>1</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="38">
+        <v>0</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="31">
-        <v>0</v>
-      </c>
-      <c r="L19" s="31">
-        <v>0</v>
-      </c>
-      <c r="M19" s="31">
-        <v>0</v>
-      </c>
-      <c r="N19" s="31">
-        <v>0</v>
-      </c>
-      <c r="O19" s="31">
-        <v>0</v>
-      </c>
-      <c r="P19" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="31">
-        <v>0</v>
-      </c>
-      <c r="R19" s="31">
-        <v>0</v>
-      </c>
-      <c r="S19" s="31">
-        <v>0</v>
-      </c>
-      <c r="T19" s="31">
-        <v>0</v>
-      </c>
-      <c r="U19" s="31">
-        <v>0</v>
-      </c>
-      <c r="V19" s="31">
-        <v>0</v>
-      </c>
-      <c r="W19" s="31" t="s">
+      <c r="K19" s="38">
+        <v>0</v>
+      </c>
+      <c r="L19" s="38">
+        <v>0</v>
+      </c>
+      <c r="M19" s="38">
+        <v>0</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0</v>
+      </c>
+      <c r="O19" s="38">
+        <v>0</v>
+      </c>
+      <c r="P19" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>0</v>
+      </c>
+      <c r="R19" s="38">
+        <v>0</v>
+      </c>
+      <c r="S19" s="38">
+        <v>0</v>
+      </c>
+      <c r="T19" s="38">
+        <v>0</v>
+      </c>
+      <c r="U19" s="38">
+        <v>0</v>
+      </c>
+      <c r="V19" s="38">
+        <v>0</v>
+      </c>
+      <c r="W19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="X19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31" t="s">
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AC19" s="31" t="s">
+      <c r="AC19" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AD19" s="31" t="s">
+      <c r="AD19" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31" t="s">
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="AI19" s="12"/>
+      <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="59"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="12"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="59">
-        <v>0</v>
-      </c>
-      <c r="C21" s="35">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
+      <c r="B21" s="35">
+        <v>0</v>
+      </c>
+      <c r="C21" s="42">
+        <v>0</v>
+      </c>
+      <c r="D21" s="44"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -3009,34 +3022,34 @@
       <c r="P21" s="2">
         <v>0</v>
       </c>
-      <c r="Q21" s="23">
-        <v>0</v>
-      </c>
-      <c r="R21" s="23">
-        <v>0</v>
-      </c>
-      <c r="S21" s="23">
-        <v>0</v>
-      </c>
-      <c r="T21" s="23">
-        <v>0</v>
-      </c>
-      <c r="U21" s="23">
-        <v>0</v>
-      </c>
-      <c r="V21" s="23">
-        <v>0</v>
-      </c>
-      <c r="W21" s="23" t="s">
+      <c r="Q21" s="22">
+        <v>0</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+      <c r="S21" s="22">
+        <v>0</v>
+      </c>
+      <c r="T21" s="22">
+        <v>0</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+      <c r="V21" s="22">
+        <v>0</v>
+      </c>
+      <c r="W21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="X21" s="23" t="s">
+      <c r="X21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3044,22 +3057,22 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="29" t="s">
+      <c r="AH21" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="AI21" s="12"/>
+      <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="59">
-        <v>0</v>
-      </c>
-      <c r="C22" s="35">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36"/>
+      <c r="B22" s="35">
+        <v>0</v>
+      </c>
+      <c r="C22" s="42">
+        <v>1</v>
+      </c>
+      <c r="D22" s="44"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -3096,34 +3109,34 @@
       <c r="P22" s="2">
         <v>0</v>
       </c>
-      <c r="Q22" s="23">
-        <v>0</v>
-      </c>
-      <c r="R22" s="23">
-        <v>0</v>
-      </c>
-      <c r="S22" s="23">
-        <v>0</v>
-      </c>
-      <c r="T22" s="23">
-        <v>0</v>
-      </c>
-      <c r="U22" s="23">
-        <v>0</v>
-      </c>
-      <c r="V22" s="23">
-        <v>0</v>
-      </c>
-      <c r="W22" s="23" t="s">
+      <c r="Q22" s="22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="X22" s="23" t="s">
+      <c r="X22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
       <c r="AC22" s="4" t="s">
         <v>48</v>
       </c>
@@ -3131,28 +3144,28 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="29" t="s">
+      <c r="AH22" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="14" t="s">
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AK22" s="17" t="s">
+      <c r="AK22" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="59">
-        <v>0</v>
-      </c>
-      <c r="C23" s="35">
-        <v>1</v>
-      </c>
-      <c r="D23" s="36"/>
+      <c r="B23" s="35">
+        <v>0</v>
+      </c>
+      <c r="C23" s="42">
+        <v>1</v>
+      </c>
+      <c r="D23" s="44"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -3165,7 +3178,7 @@
       <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="22" t="s">
         <v>113</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -3189,34 +3202,34 @@
       <c r="P23" s="2">
         <v>0</v>
       </c>
-      <c r="Q23" s="23">
-        <v>0</v>
-      </c>
-      <c r="R23" s="23">
-        <v>0</v>
-      </c>
-      <c r="S23" s="23">
-        <v>0</v>
-      </c>
-      <c r="T23" s="23">
-        <v>0</v>
-      </c>
-      <c r="U23" s="23">
-        <v>0</v>
-      </c>
-      <c r="V23" s="23">
-        <v>0</v>
-      </c>
-      <c r="W23" s="23" t="s">
+      <c r="Q23" s="22">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22">
+        <v>0</v>
+      </c>
+      <c r="T23" s="22">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+      <c r="V23" s="22">
+        <v>0</v>
+      </c>
+      <c r="W23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="X23" s="23" t="s">
+      <c r="X23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
       <c r="AC23" s="4" t="s">
         <v>48</v>
       </c>
@@ -3226,302 +3239,302 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
-      <c r="AH23" s="29" t="s">
+      <c r="AH23" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="15" t="s">
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AK23" s="18" t="s">
+      <c r="AK23" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:37" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="58" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="60">
         <v>0</v>
       </c>
-      <c r="C24" s="37">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="31">
-        <v>0</v>
-      </c>
-      <c r="F24" s="31">
-        <v>0</v>
-      </c>
-      <c r="G24" s="31">
-        <v>1</v>
-      </c>
-      <c r="H24" s="31" t="s">
+      <c r="C24" s="54">
+        <v>1</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0</v>
+      </c>
+      <c r="G24" s="38">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="31">
-        <v>0</v>
-      </c>
-      <c r="L24" s="31">
-        <v>0</v>
-      </c>
-      <c r="M24" s="31">
-        <v>0</v>
-      </c>
-      <c r="N24" s="31">
-        <v>1</v>
-      </c>
-      <c r="O24" s="31">
-        <v>1</v>
-      </c>
-      <c r="P24" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="31">
-        <v>0</v>
-      </c>
-      <c r="R24" s="31">
-        <v>0</v>
-      </c>
-      <c r="S24" s="31">
-        <v>0</v>
-      </c>
-      <c r="T24" s="31">
-        <v>0</v>
-      </c>
-      <c r="U24" s="31">
-        <v>0</v>
-      </c>
-      <c r="V24" s="31">
-        <v>0</v>
-      </c>
-      <c r="W24" s="31" t="s">
+      <c r="K24" s="38">
+        <v>0</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0</v>
+      </c>
+      <c r="M24" s="38">
+        <v>0</v>
+      </c>
+      <c r="N24" s="38">
+        <v>1</v>
+      </c>
+      <c r="O24" s="38">
+        <v>1</v>
+      </c>
+      <c r="P24" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>0</v>
+      </c>
+      <c r="R24" s="38">
+        <v>0</v>
+      </c>
+      <c r="S24" s="38">
+        <v>0</v>
+      </c>
+      <c r="T24" s="38">
+        <v>0</v>
+      </c>
+      <c r="U24" s="38">
+        <v>0</v>
+      </c>
+      <c r="V24" s="38">
+        <v>0</v>
+      </c>
+      <c r="W24" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X24" s="31" t="s">
+      <c r="X24" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31" t="s">
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AC24" s="31" t="s">
+      <c r="AC24" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AD24" s="31" t="s">
+      <c r="AD24" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31" t="s">
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="15" t="s">
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AK24" s="18" t="s">
+      <c r="AK24" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="1.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:37" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="59"/>
       <c r="B25" s="61"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="15" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AK25" s="18" t="s">
+      <c r="AK25" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="60">
         <v>0</v>
       </c>
-      <c r="C26" s="37">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="31">
-        <v>0</v>
-      </c>
-      <c r="F26" s="31">
-        <v>0</v>
-      </c>
-      <c r="G26" s="31">
-        <v>1</v>
-      </c>
-      <c r="H26" s="31" t="s">
+      <c r="C26" s="54">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="38">
+        <v>0</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0</v>
+      </c>
+      <c r="G26" s="38">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="31">
-        <v>0</v>
-      </c>
-      <c r="L26" s="31">
-        <v>0</v>
-      </c>
-      <c r="M26" s="31">
-        <v>1</v>
-      </c>
-      <c r="N26" s="31">
-        <v>0</v>
-      </c>
-      <c r="O26" s="31" t="s">
+      <c r="K26" s="38">
+        <v>0</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0</v>
+      </c>
+      <c r="M26" s="38">
+        <v>1</v>
+      </c>
+      <c r="N26" s="38">
+        <v>0</v>
+      </c>
+      <c r="O26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>0</v>
-      </c>
-      <c r="R26" s="31">
-        <v>0</v>
-      </c>
-      <c r="S26" s="31">
-        <v>0</v>
-      </c>
-      <c r="T26" s="31">
-        <v>0</v>
-      </c>
-      <c r="U26" s="31">
-        <v>0</v>
-      </c>
-      <c r="V26" s="31">
-        <v>0</v>
-      </c>
-      <c r="W26" s="31" t="s">
+      <c r="P26" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>0</v>
+      </c>
+      <c r="R26" s="38">
+        <v>0</v>
+      </c>
+      <c r="S26" s="38">
+        <v>0</v>
+      </c>
+      <c r="T26" s="38">
+        <v>0</v>
+      </c>
+      <c r="U26" s="38">
+        <v>0</v>
+      </c>
+      <c r="V26" s="38">
+        <v>0</v>
+      </c>
+      <c r="W26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="X26" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31" t="s">
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="31" t="s">
+      <c r="AC26" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" s="31" t="s">
+      <c r="AD26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31" t="s">
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="15" t="s">
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AK26" s="18" t="s">
+      <c r="AK26" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="59"/>
       <c r="B27" s="61"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="12"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="59">
-        <v>0</v>
-      </c>
-      <c r="C28" s="35">
-        <v>0</v>
-      </c>
-      <c r="D28" s="36"/>
+      <c r="B28" s="35">
+        <v>0</v>
+      </c>
+      <c r="C28" s="42">
+        <v>0</v>
+      </c>
+      <c r="D28" s="44"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -3558,34 +3571,34 @@
       <c r="P28" s="2">
         <v>0</v>
       </c>
-      <c r="Q28" s="23">
-        <v>0</v>
-      </c>
-      <c r="R28" s="23">
-        <v>0</v>
-      </c>
-      <c r="S28" s="23">
-        <v>0</v>
-      </c>
-      <c r="T28" s="23">
-        <v>0</v>
-      </c>
-      <c r="U28" s="23">
-        <v>0</v>
-      </c>
-      <c r="V28" s="23">
-        <v>0</v>
-      </c>
-      <c r="W28" s="23" t="s">
+      <c r="Q28" s="22">
+        <v>0</v>
+      </c>
+      <c r="R28" s="22">
+        <v>0</v>
+      </c>
+      <c r="S28" s="22">
+        <v>0</v>
+      </c>
+      <c r="T28" s="22">
+        <v>0</v>
+      </c>
+      <c r="U28" s="22">
+        <v>0</v>
+      </c>
+      <c r="V28" s="22">
+        <v>0</v>
+      </c>
+      <c r="W28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="X28" s="23" t="s">
+      <c r="X28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="7" t="s">
@@ -3597,22 +3610,22 @@
       <c r="AG28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH28" s="29" t="s">
+      <c r="AH28" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AI28" s="12"/>
+      <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="59">
-        <v>0</v>
-      </c>
-      <c r="C29" s="35">
-        <v>0</v>
-      </c>
-      <c r="D29" s="36"/>
+      <c r="B29" s="35">
+        <v>0</v>
+      </c>
+      <c r="C29" s="42">
+        <v>0</v>
+      </c>
+      <c r="D29" s="44"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -3625,7 +3638,7 @@
       <c r="H29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>113</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -3649,34 +3662,34 @@
       <c r="P29" s="2">
         <v>0</v>
       </c>
-      <c r="Q29" s="23">
-        <v>0</v>
-      </c>
-      <c r="R29" s="23">
-        <v>0</v>
-      </c>
-      <c r="S29" s="23">
-        <v>0</v>
-      </c>
-      <c r="T29" s="23">
-        <v>0</v>
-      </c>
-      <c r="U29" s="23">
-        <v>0</v>
-      </c>
-      <c r="V29" s="23">
-        <v>0</v>
-      </c>
-      <c r="W29" s="23" t="s">
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="22">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22">
+        <v>0</v>
+      </c>
+      <c r="T29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="22">
+        <v>0</v>
+      </c>
+      <c r="V29" s="22">
+        <v>0</v>
+      </c>
+      <c r="W29" s="22" t="s">
         <v>20</v>
       </c>
       <c r="X29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="7" t="s">
@@ -3688,22 +3701,22 @@
       <c r="AG29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH29" s="29" t="s">
+      <c r="AH29" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AI29" s="12"/>
+      <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59">
-        <v>0</v>
-      </c>
-      <c r="C30" s="35">
-        <v>0</v>
-      </c>
-      <c r="D30" s="36"/>
+      <c r="B30" s="35">
+        <v>0</v>
+      </c>
+      <c r="C30" s="42">
+        <v>0</v>
+      </c>
+      <c r="D30" s="44"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -3716,7 +3729,7 @@
       <c r="H30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>113</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -3743,19 +3756,19 @@
       <c r="Q30" s="2">
         <v>0</v>
       </c>
-      <c r="R30" s="19">
-        <v>0</v>
-      </c>
-      <c r="S30" s="20">
-        <v>0</v>
-      </c>
-      <c r="T30" s="23">
-        <v>0</v>
-      </c>
-      <c r="U30" s="23">
-        <v>0</v>
-      </c>
-      <c r="V30" s="23">
+      <c r="R30" s="18">
+        <v>0</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="22">
+        <v>0</v>
+      </c>
+      <c r="U30" s="22">
+        <v>0</v>
+      </c>
+      <c r="V30" s="22">
         <v>0</v>
       </c>
       <c r="W30" s="2" t="s">
@@ -3779,22 +3792,22 @@
       <c r="AG30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH30" s="29" t="s">
+      <c r="AH30" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="AI30" s="12"/>
+      <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="59">
-        <v>0</v>
-      </c>
-      <c r="C31" s="35">
-        <v>0</v>
-      </c>
-      <c r="D31" s="36"/>
+      <c r="B31" s="35">
+        <v>0</v>
+      </c>
+      <c r="C31" s="42">
+        <v>0</v>
+      </c>
+      <c r="D31" s="44"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -3807,7 +3820,7 @@
       <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="22" t="s">
         <v>113</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -3834,19 +3847,19 @@
       <c r="Q31" s="2">
         <v>0</v>
       </c>
-      <c r="R31" s="19">
-        <v>0</v>
-      </c>
-      <c r="S31" s="20">
-        <v>0</v>
-      </c>
-      <c r="T31" s="23">
-        <v>0</v>
-      </c>
-      <c r="U31" s="23">
-        <v>0</v>
-      </c>
-      <c r="V31" s="23">
+      <c r="R31" s="18">
+        <v>0</v>
+      </c>
+      <c r="S31" s="19">
+        <v>0</v>
+      </c>
+      <c r="T31" s="22">
+        <v>0</v>
+      </c>
+      <c r="U31" s="22">
+        <v>0</v>
+      </c>
+      <c r="V31" s="22">
         <v>0</v>
       </c>
       <c r="W31" s="2" t="s">
@@ -3870,22 +3883,22 @@
       <c r="AG31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="29" t="s">
+      <c r="AH31" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AI31" s="12"/>
+      <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="59">
-        <v>0</v>
-      </c>
-      <c r="C32" s="35">
-        <v>0</v>
-      </c>
-      <c r="D32" s="36"/>
+      <c r="B32" s="35">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42">
+        <v>0</v>
+      </c>
+      <c r="D32" s="44"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -3898,7 +3911,7 @@
       <c r="H32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="22" t="s">
         <v>113</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -3925,19 +3938,19 @@
       <c r="Q32" s="2">
         <v>1</v>
       </c>
-      <c r="R32" s="19">
-        <v>0</v>
-      </c>
-      <c r="S32" s="20">
-        <v>0</v>
-      </c>
-      <c r="T32" s="23">
-        <v>0</v>
-      </c>
-      <c r="U32" s="23">
-        <v>0</v>
-      </c>
-      <c r="V32" s="23">
+      <c r="R32" s="18">
+        <v>0</v>
+      </c>
+      <c r="S32" s="19">
+        <v>0</v>
+      </c>
+      <c r="T32" s="22">
+        <v>0</v>
+      </c>
+      <c r="U32" s="22">
+        <v>0</v>
+      </c>
+      <c r="V32" s="22">
         <v>1</v>
       </c>
       <c r="W32" s="2" t="s">
@@ -3947,9 +3960,9 @@
         <v>118</v>
       </c>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="7" t="s">
@@ -3961,22 +3974,22 @@
       <c r="AG32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH32" s="29" t="s">
+      <c r="AH32" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AI32" s="12"/>
+      <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="59">
-        <v>0</v>
-      </c>
-      <c r="C33" s="35">
-        <v>0</v>
-      </c>
-      <c r="D33" s="36"/>
+      <c r="B33" s="35">
+        <v>0</v>
+      </c>
+      <c r="C33" s="42">
+        <v>0</v>
+      </c>
+      <c r="D33" s="44"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -4016,19 +4029,19 @@
       <c r="Q33" s="2">
         <v>1</v>
       </c>
-      <c r="R33" s="19">
-        <v>0</v>
-      </c>
-      <c r="S33" s="20">
-        <v>0</v>
-      </c>
-      <c r="T33" s="23">
-        <v>0</v>
-      </c>
-      <c r="U33" s="23">
-        <v>0</v>
-      </c>
-      <c r="V33" s="23">
+      <c r="R33" s="18">
+        <v>0</v>
+      </c>
+      <c r="S33" s="19">
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22">
         <v>1</v>
       </c>
       <c r="W33" s="2" t="s">
@@ -4038,9 +4051,9 @@
         <v>114</v>
       </c>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="7" t="s">
@@ -4052,22 +4065,22 @@
       <c r="AG33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AH33" s="29" t="s">
+      <c r="AH33" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI33" s="12"/>
+      <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="59">
-        <v>0</v>
-      </c>
-      <c r="C34" s="35">
-        <v>0</v>
-      </c>
-      <c r="D34" s="36"/>
+      <c r="B34" s="35">
+        <v>0</v>
+      </c>
+      <c r="C34" s="42">
+        <v>0</v>
+      </c>
+      <c r="D34" s="44"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -4107,31 +4120,31 @@
       <c r="Q34" s="2">
         <v>1</v>
       </c>
-      <c r="R34" s="19">
-        <v>0</v>
-      </c>
-      <c r="S34" s="20">
-        <v>0</v>
-      </c>
-      <c r="T34" s="23">
-        <v>1</v>
-      </c>
-      <c r="U34" s="23">
-        <v>0</v>
-      </c>
-      <c r="V34" s="23">
-        <v>1</v>
-      </c>
-      <c r="W34" s="23" t="s">
+      <c r="R34" s="18">
+        <v>0</v>
+      </c>
+      <c r="S34" s="19">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>1</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="22">
+        <v>1</v>
+      </c>
+      <c r="W34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="23" t="s">
+      <c r="X34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="7" t="s">
@@ -4143,22 +4156,22 @@
       <c r="AG34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AH34" s="29" t="s">
+      <c r="AH34" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="AI34" s="12"/>
+      <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="59">
-        <v>0</v>
-      </c>
-      <c r="C35" s="35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="36"/>
+      <c r="B35" s="35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0</v>
+      </c>
+      <c r="D35" s="44"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -4198,28 +4211,28 @@
       <c r="Q35" s="2">
         <v>1</v>
       </c>
-      <c r="R35" s="19">
-        <v>0</v>
-      </c>
-      <c r="S35" s="20">
-        <v>0</v>
-      </c>
-      <c r="T35" s="23">
-        <v>0</v>
-      </c>
-      <c r="U35" s="23">
-        <v>1</v>
-      </c>
-      <c r="V35" s="23">
-        <v>1</v>
-      </c>
-      <c r="W35" s="23" t="s">
+      <c r="R35" s="18">
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <v>0</v>
+      </c>
+      <c r="T35" s="22">
+        <v>0</v>
+      </c>
+      <c r="U35" s="22">
+        <v>1</v>
+      </c>
+      <c r="V35" s="22">
+        <v>1</v>
+      </c>
+      <c r="W35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="23" t="s">
+      <c r="X35" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="Y35" s="23"/>
+      <c r="Y35" s="22"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
@@ -4234,241 +4247,277 @@
       <c r="AG35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AH35" s="29" t="s">
+      <c r="AH35" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="AI35" s="12"/>
+      <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="AI36" s="12"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI36" s="11"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="AI37" s="12"/>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI37" s="11"/>
     </row>
-    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="s">
+    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="12"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="11"/>
     </row>
-    <row r="40" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="59">
-        <v>1</v>
-      </c>
-      <c r="C40" s="35">
-        <v>0</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="23">
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" s="23">
-        <v>0</v>
-      </c>
-      <c r="H40" s="23">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23">
-        <v>0</v>
-      </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="23">
-        <v>0</v>
-      </c>
-      <c r="L40" s="23">
-        <v>0</v>
-      </c>
-      <c r="M40" s="23">
-        <v>0</v>
-      </c>
-      <c r="N40" s="23">
-        <v>0</v>
-      </c>
-      <c r="O40" s="23">
-        <v>0</v>
-      </c>
-      <c r="P40" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="23">
-        <v>0</v>
-      </c>
-      <c r="R40" s="23">
-        <v>0</v>
-      </c>
-      <c r="S40" s="23">
-        <v>0</v>
-      </c>
-      <c r="T40" s="23">
-        <v>0</v>
-      </c>
-      <c r="U40" s="23">
-        <v>0</v>
-      </c>
-      <c r="V40" s="23">
-        <v>0</v>
-      </c>
-      <c r="W40" s="23">
-        <v>0</v>
-      </c>
-      <c r="X40" s="23">
+      <c r="B40" s="35">
+        <v>1</v>
+      </c>
+      <c r="C40" s="42">
+        <v>0</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+      <c r="I40" s="22">
+        <v>0</v>
+      </c>
+      <c r="J40" s="22">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22">
+        <v>0</v>
+      </c>
+      <c r="L40" s="22">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
+      <c r="N40" s="22">
+        <v>0</v>
+      </c>
+      <c r="O40" s="22">
+        <v>0</v>
+      </c>
+      <c r="P40" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>0</v>
+      </c>
+      <c r="R40" s="22">
+        <v>0</v>
+      </c>
+      <c r="S40" s="22">
+        <v>0</v>
+      </c>
+      <c r="T40" s="22">
+        <v>0</v>
+      </c>
+      <c r="U40" s="22">
+        <v>0</v>
+      </c>
+      <c r="V40" s="22">
+        <v>0</v>
+      </c>
+      <c r="W40" s="22">
+        <v>0</v>
+      </c>
+      <c r="X40" s="22">
         <v>110010</v>
       </c>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="12"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+  <mergeCells count="258">
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="W13:W14"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -4493,143 +4542,103 @@
     <mergeCell ref="W15:W16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Senior-1\Semester 8\Comp Architecture\Project\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8CCED-016C-4AD5-BC90-C3B05CBB0D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728643A3-8E99-4011-9D04-D1F62964340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,57 +862,96 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -922,46 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1280,81 +1280,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.453125" customWidth="1"/>
-    <col min="36" max="36" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="77.6328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.6328125" customWidth="1"/>
-    <col min="39" max="39" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" customWidth="1"/>
+    <col min="31" max="31" width="7" customWidth="1"/>
+    <col min="32" max="32" width="9.21875" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" customWidth="1"/>
+    <col min="36" max="36" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.90625" customWidth="1"/>
-    <col min="44" max="44" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" customWidth="1"/>
-    <col min="53" max="53" width="22.36328125" customWidth="1"/>
-    <col min="54" max="54" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.88671875" customWidth="1"/>
+    <col min="53" max="53" width="22.33203125" customWidth="1"/>
+    <col min="54" max="54" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
@@ -1364,153 +1366,153 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="39" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="45" t="s">
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="28" t="s">
         <v>142</v>
       </c>
       <c r="AH1" s="12"/>
       <c r="AJ1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AM1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="33"/>
-      <c r="AR1" s="31" t="s">
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="32"/>
+      <c r="AR1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="33"/>
-      <c r="AW1" s="31" t="s">
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="32"/>
+      <c r="AW1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="33"/>
-      <c r="BB1" s="31" t="s">
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="32"/>
+      <c r="BB1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="32"/>
+      <c r="BC1" s="31"/>
     </row>
-    <row r="2" spans="1:55" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:55" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AE2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AF2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="36" t="s">
+      <c r="AG2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AH2" s="61" t="s">
         <v>4</v>
       </c>
       <c r="AI2" s="12"/>
@@ -1547,11 +1549,11 @@
       <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="42" t="s">
+      <c r="AX2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="44"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="41"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="9" t="s">
         <v>88</v>
@@ -1560,23 +1562,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -1603,17 +1605,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35">
-        <v>0</v>
-      </c>
-      <c r="C4" s="42">
-        <v>0</v>
-      </c>
-      <c r="D4" s="44"/>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1681,7 +1683,7 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="28" t="s">
+      <c r="AH4" s="35" t="s">
         <v>143</v>
       </c>
       <c r="AI4" s="12"/>
@@ -1692,17 +1694,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35">
-        <v>0</v>
-      </c>
-      <c r="C5" s="42">
-        <v>0</v>
-      </c>
-      <c r="D5" s="44"/>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="28" t="s">
+      <c r="AH5" s="35" t="s">
         <v>144</v>
       </c>
       <c r="AI5" s="12"/>
@@ -1781,17 +1783,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35">
-        <v>0</v>
-      </c>
-      <c r="C6" s="42">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44"/>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1867,7 +1869,7 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="28" t="s">
+      <c r="AH6" s="35" t="s">
         <v>145</v>
       </c>
       <c r="AI6" s="12"/>
@@ -1878,17 +1880,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1</v>
-      </c>
-      <c r="D7" s="44"/>
+      <c r="B7" s="34">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -1964,7 +1966,7 @@
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="28" t="s">
+      <c r="AH7" s="35" t="s">
         <v>146</v>
       </c>
       <c r="AI7" s="12"/>
@@ -1975,17 +1977,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="42">
-        <v>1</v>
-      </c>
-      <c r="D8" s="44"/>
+      <c r="B8" s="34">
+        <v>0</v>
+      </c>
+      <c r="C8" s="40">
+        <v>1</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -2061,7 +2063,7 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="28" t="s">
+      <c r="AH8" s="35" t="s">
         <v>147</v>
       </c>
       <c r="AI8" s="12"/>
@@ -2072,17 +2074,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35">
-        <v>0</v>
-      </c>
-      <c r="C9" s="42">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44"/>
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2158,7 +2160,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="28" t="s">
+      <c r="AH9" s="35" t="s">
         <v>148</v>
       </c>
       <c r="AI9" s="12"/>
@@ -2169,17 +2171,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="35">
-        <v>0</v>
-      </c>
-      <c r="C10" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" s="44"/>
+      <c r="B10" s="34">
+        <v>0</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2255,7 +2257,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="28" t="s">
+      <c r="AH10" s="35" t="s">
         <v>149</v>
       </c>
       <c r="AI10" s="11"/>
@@ -2266,17 +2268,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35">
-        <v>0</v>
-      </c>
-      <c r="C11" s="42">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44"/>
+      <c r="B11" s="34">
+        <v>0</v>
+      </c>
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="41"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="28" t="s">
+      <c r="AH11" s="35" t="s">
         <v>150</v>
       </c>
       <c r="AI11" s="11"/>
@@ -2363,17 +2365,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35">
-        <v>0</v>
-      </c>
-      <c r="C12" s="42">
-        <v>1</v>
-      </c>
-      <c r="D12" s="44"/>
+      <c r="B12" s="34">
+        <v>0</v>
+      </c>
+      <c r="C12" s="40">
+        <v>1</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -2449,7 +2451,7 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="28" t="s">
+      <c r="AH12" s="35" t="s">
         <v>151</v>
       </c>
       <c r="AI12" s="11"/>
@@ -2460,102 +2462,102 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="60">
-        <v>0</v>
-      </c>
-      <c r="C13" s="54">
-        <v>1</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="38">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>0</v>
-      </c>
-      <c r="H13" s="38" t="s">
+      <c r="B13" s="46">
+        <v>0</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="38">
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38">
-        <v>0</v>
-      </c>
-      <c r="N13" s="38">
-        <v>0</v>
-      </c>
-      <c r="O13" s="38">
-        <v>0</v>
-      </c>
-      <c r="P13" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="38">
-        <v>0</v>
-      </c>
-      <c r="R13" s="38">
-        <v>0</v>
-      </c>
-      <c r="S13" s="38">
-        <v>0</v>
-      </c>
-      <c r="T13" s="38">
-        <v>0</v>
-      </c>
-      <c r="U13" s="38">
-        <v>0</v>
-      </c>
-      <c r="V13" s="38">
-        <v>0</v>
-      </c>
-      <c r="W13" s="38" t="s">
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36">
+        <v>0</v>
+      </c>
+      <c r="M13" s="36">
+        <v>0</v>
+      </c>
+      <c r="N13" s="36">
+        <v>0</v>
+      </c>
+      <c r="O13" s="36">
+        <v>0</v>
+      </c>
+      <c r="P13" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>0</v>
+      </c>
+      <c r="R13" s="36">
+        <v>0</v>
+      </c>
+      <c r="S13" s="36">
+        <v>0</v>
+      </c>
+      <c r="T13" s="36">
+        <v>0</v>
+      </c>
+      <c r="U13" s="36">
+        <v>0</v>
+      </c>
+      <c r="V13" s="36">
+        <v>0</v>
+      </c>
+      <c r="W13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="38" t="s">
+      <c r="X13" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Y13" s="38" t="s">
+      <c r="Y13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="38" t="s">
+      <c r="Z13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AA13" s="38" t="s">
+      <c r="AA13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38" t="s">
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36" t="s">
         <v>152</v>
       </c>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -2588,102 +2590,102 @@
       <c r="AH14" s="37"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:55" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="60">
-        <v>0</v>
-      </c>
-      <c r="C15" s="54">
-        <v>1</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="38">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0</v>
-      </c>
-      <c r="G15" s="38">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38" t="s">
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="38">
-        <v>0</v>
-      </c>
-      <c r="L15" s="38">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38">
-        <v>0</v>
-      </c>
-      <c r="N15" s="38">
-        <v>0</v>
-      </c>
-      <c r="O15" s="38">
-        <v>0</v>
-      </c>
-      <c r="P15" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="38">
-        <v>0</v>
-      </c>
-      <c r="R15" s="38">
-        <v>0</v>
-      </c>
-      <c r="S15" s="38">
-        <v>0</v>
-      </c>
-      <c r="T15" s="38">
-        <v>0</v>
-      </c>
-      <c r="U15" s="38">
-        <v>0</v>
-      </c>
-      <c r="V15" s="38">
-        <v>0</v>
-      </c>
-      <c r="W15" s="38" t="s">
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
+        <v>0</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36">
+        <v>0</v>
+      </c>
+      <c r="S15" s="36">
+        <v>0</v>
+      </c>
+      <c r="T15" s="36">
+        <v>0</v>
+      </c>
+      <c r="U15" s="36">
+        <v>0</v>
+      </c>
+      <c r="V15" s="36">
+        <v>0</v>
+      </c>
+      <c r="W15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="X15" s="38" t="s">
+      <c r="X15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="38" t="s">
+      <c r="Y15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Z15" s="38" t="s">
+      <c r="Z15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AA15" s="38" t="s">
+      <c r="AA15" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38" t="s">
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36" t="s">
         <v>153</v>
       </c>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -2719,102 +2721,102 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="27"/>
     </row>
-    <row r="17" spans="1:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="60">
-        <v>0</v>
-      </c>
-      <c r="C17" s="54">
-        <v>1</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0</v>
-      </c>
-      <c r="G17" s="38">
-        <v>0</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="B17" s="46">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42">
+        <v>1</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="38">
-        <v>0</v>
-      </c>
-      <c r="L17" s="38">
-        <v>0</v>
-      </c>
-      <c r="M17" s="38">
-        <v>0</v>
-      </c>
-      <c r="N17" s="38">
-        <v>0</v>
-      </c>
-      <c r="O17" s="38">
-        <v>0</v>
-      </c>
-      <c r="P17" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>0</v>
-      </c>
-      <c r="R17" s="38">
-        <v>0</v>
-      </c>
-      <c r="S17" s="38">
-        <v>0</v>
-      </c>
-      <c r="T17" s="38">
-        <v>0</v>
-      </c>
-      <c r="U17" s="38">
-        <v>0</v>
-      </c>
-      <c r="V17" s="38">
-        <v>0</v>
-      </c>
-      <c r="W17" s="38" t="s">
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
+      <c r="L17" s="36">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <v>0</v>
+      </c>
+      <c r="N17" s="36">
+        <v>0</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0</v>
+      </c>
+      <c r="P17" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>0</v>
+      </c>
+      <c r="R17" s="36">
+        <v>0</v>
+      </c>
+      <c r="S17" s="36">
+        <v>0</v>
+      </c>
+      <c r="T17" s="36">
+        <v>0</v>
+      </c>
+      <c r="U17" s="36">
+        <v>0</v>
+      </c>
+      <c r="V17" s="36">
+        <v>0</v>
+      </c>
+      <c r="W17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="38" t="s">
+      <c r="X17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Y17" s="38" t="s">
+      <c r="Y17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="38" t="s">
+      <c r="Z17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AA17" s="38" t="s">
+      <c r="AA17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38" t="s">
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36" t="s">
         <v>154</v>
       </c>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+    <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="39"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -2847,102 +2849,102 @@
       <c r="AH18" s="37"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="60">
-        <v>0</v>
-      </c>
-      <c r="C19" s="54">
-        <v>1</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="38">
-        <v>0</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0</v>
-      </c>
-      <c r="G19" s="38">
-        <v>1</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="B19" s="46">
+        <v>0</v>
+      </c>
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="38">
-        <v>0</v>
-      </c>
-      <c r="L19" s="38">
-        <v>0</v>
-      </c>
-      <c r="M19" s="38">
-        <v>0</v>
-      </c>
-      <c r="N19" s="38">
-        <v>0</v>
-      </c>
-      <c r="O19" s="38">
-        <v>0</v>
-      </c>
-      <c r="P19" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="38">
-        <v>0</v>
-      </c>
-      <c r="R19" s="38">
-        <v>0</v>
-      </c>
-      <c r="S19" s="38">
-        <v>0</v>
-      </c>
-      <c r="T19" s="38">
-        <v>0</v>
-      </c>
-      <c r="U19" s="38">
-        <v>0</v>
-      </c>
-      <c r="V19" s="38">
-        <v>0</v>
-      </c>
-      <c r="W19" s="38" t="s">
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="36">
+        <v>0</v>
+      </c>
+      <c r="M19" s="36">
+        <v>0</v>
+      </c>
+      <c r="N19" s="36">
+        <v>0</v>
+      </c>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>0</v>
+      </c>
+      <c r="R19" s="36">
+        <v>0</v>
+      </c>
+      <c r="S19" s="36">
+        <v>0</v>
+      </c>
+      <c r="T19" s="36">
+        <v>0</v>
+      </c>
+      <c r="U19" s="36">
+        <v>0</v>
+      </c>
+      <c r="V19" s="36">
+        <v>0</v>
+      </c>
+      <c r="W19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="38" t="s">
+      <c r="X19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38" t="s">
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AC19" s="38" t="s">
+      <c r="AC19" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AD19" s="38" t="s">
+      <c r="AD19" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38" t="s">
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36" t="s">
         <v>155</v>
       </c>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -2975,17 +2977,17 @@
       <c r="AH20" s="37"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="35">
-        <v>0</v>
-      </c>
-      <c r="C21" s="42">
-        <v>0</v>
-      </c>
-      <c r="D21" s="44"/>
+      <c r="B21" s="34">
+        <v>0</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -3057,22 +3059,22 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="28" t="s">
+      <c r="AH21" s="35" t="s">
         <v>156</v>
       </c>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="35">
-        <v>0</v>
-      </c>
-      <c r="C22" s="42">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44"/>
+      <c r="B22" s="34">
+        <v>0</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -3144,7 +3146,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="28" t="s">
+      <c r="AH22" s="35" t="s">
         <v>157</v>
       </c>
       <c r="AI22" s="11"/>
@@ -3155,17 +3157,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35">
-        <v>0</v>
-      </c>
-      <c r="C23" s="42">
-        <v>1</v>
-      </c>
-      <c r="D23" s="44"/>
+      <c r="B23" s="34">
+        <v>0</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1</v>
+      </c>
+      <c r="D23" s="41"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -3239,7 +3241,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
-      <c r="AH23" s="28" t="s">
+      <c r="AH23" s="35" t="s">
         <v>158</v>
       </c>
       <c r="AI23" s="11"/>
@@ -3250,93 +3252,93 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="58" t="s">
+    <row r="24" spans="1:37" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="60">
-        <v>0</v>
-      </c>
-      <c r="C24" s="54">
-        <v>1</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="38">
-        <v>0</v>
-      </c>
-      <c r="F24" s="38">
-        <v>0</v>
-      </c>
-      <c r="G24" s="38">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38" t="s">
+      <c r="B24" s="46">
+        <v>0</v>
+      </c>
+      <c r="C24" s="42">
+        <v>1</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="36">
+        <v>0</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="38">
-        <v>0</v>
-      </c>
-      <c r="L24" s="38">
-        <v>0</v>
-      </c>
-      <c r="M24" s="38">
-        <v>0</v>
-      </c>
-      <c r="N24" s="38">
-        <v>1</v>
-      </c>
-      <c r="O24" s="38">
-        <v>1</v>
-      </c>
-      <c r="P24" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="38">
-        <v>0</v>
-      </c>
-      <c r="R24" s="38">
-        <v>0</v>
-      </c>
-      <c r="S24" s="38">
-        <v>0</v>
-      </c>
-      <c r="T24" s="38">
-        <v>0</v>
-      </c>
-      <c r="U24" s="38">
-        <v>0</v>
-      </c>
-      <c r="V24" s="38">
-        <v>0</v>
-      </c>
-      <c r="W24" s="38" t="s">
+      <c r="K24" s="36">
+        <v>0</v>
+      </c>
+      <c r="L24" s="36">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
+      <c r="N24" s="36">
+        <v>1</v>
+      </c>
+      <c r="O24" s="36">
+        <v>1</v>
+      </c>
+      <c r="P24" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>0</v>
+      </c>
+      <c r="R24" s="36">
+        <v>0</v>
+      </c>
+      <c r="S24" s="36">
+        <v>0</v>
+      </c>
+      <c r="T24" s="36">
+        <v>0</v>
+      </c>
+      <c r="U24" s="36">
+        <v>0</v>
+      </c>
+      <c r="V24" s="36">
+        <v>0</v>
+      </c>
+      <c r="W24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="X24" s="38" t="s">
+      <c r="X24" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38" t="s">
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AC24" s="38" t="s">
+      <c r="AC24" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AD24" s="38" t="s">
+      <c r="AD24" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38" t="s">
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36" t="s">
         <v>160</v>
       </c>
       <c r="AI24" s="11"/>
@@ -3347,11 +3349,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
+    <row r="25" spans="1:37" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -3390,93 +3392,93 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="58" t="s">
+    <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="60">
-        <v>0</v>
-      </c>
-      <c r="C26" s="54">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="38">
-        <v>0</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0</v>
-      </c>
-      <c r="G26" s="38">
-        <v>1</v>
-      </c>
-      <c r="H26" s="38" t="s">
+      <c r="B26" s="46">
+        <v>0</v>
+      </c>
+      <c r="C26" s="42">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="36">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="38">
-        <v>0</v>
-      </c>
-      <c r="L26" s="38">
-        <v>0</v>
-      </c>
-      <c r="M26" s="38">
-        <v>1</v>
-      </c>
-      <c r="N26" s="38">
-        <v>0</v>
-      </c>
-      <c r="O26" s="38" t="s">
+      <c r="K26" s="36">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36">
+        <v>0</v>
+      </c>
+      <c r="M26" s="36">
+        <v>1</v>
+      </c>
+      <c r="N26" s="36">
+        <v>0</v>
+      </c>
+      <c r="O26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="38">
-        <v>0</v>
-      </c>
-      <c r="R26" s="38">
-        <v>0</v>
-      </c>
-      <c r="S26" s="38">
-        <v>0</v>
-      </c>
-      <c r="T26" s="38">
-        <v>0</v>
-      </c>
-      <c r="U26" s="38">
-        <v>0</v>
-      </c>
-      <c r="V26" s="38">
-        <v>0</v>
-      </c>
-      <c r="W26" s="38" t="s">
+      <c r="P26" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>0</v>
+      </c>
+      <c r="R26" s="36">
+        <v>0</v>
+      </c>
+      <c r="S26" s="36">
+        <v>0</v>
+      </c>
+      <c r="T26" s="36">
+        <v>0</v>
+      </c>
+      <c r="U26" s="36">
+        <v>0</v>
+      </c>
+      <c r="V26" s="36">
+        <v>0</v>
+      </c>
+      <c r="W26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="X26" s="38" t="s">
+      <c r="X26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38" t="s">
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="38" t="s">
+      <c r="AC26" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" s="38" t="s">
+      <c r="AD26" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38" t="s">
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36" t="s">
         <v>159</v>
       </c>
       <c r="AI26" s="11"/>
@@ -3487,11 +3489,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="59"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -3524,17 +3526,17 @@
       <c r="AH27" s="37"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="35">
-        <v>0</v>
-      </c>
-      <c r="C28" s="42">
-        <v>0</v>
-      </c>
-      <c r="D28" s="44"/>
+      <c r="B28" s="34">
+        <v>0</v>
+      </c>
+      <c r="C28" s="40">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -3610,22 +3612,22 @@
       <c r="AG28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH28" s="28" t="s">
+      <c r="AH28" s="35" t="s">
         <v>161</v>
       </c>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="35">
-        <v>0</v>
-      </c>
-      <c r="C29" s="42">
-        <v>0</v>
-      </c>
-      <c r="D29" s="44"/>
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="40">
+        <v>0</v>
+      </c>
+      <c r="D29" s="41"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -3701,22 +3703,22 @@
       <c r="AG29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH29" s="28" t="s">
+      <c r="AH29" s="35" t="s">
         <v>162</v>
       </c>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="35">
-        <v>0</v>
-      </c>
-      <c r="C30" s="42">
-        <v>0</v>
-      </c>
-      <c r="D30" s="44"/>
+      <c r="B30" s="34">
+        <v>0</v>
+      </c>
+      <c r="C30" s="40">
+        <v>0</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -3792,22 +3794,22 @@
       <c r="AG30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH30" s="28" t="s">
+      <c r="AH30" s="35" t="s">
         <v>163</v>
       </c>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="35">
-        <v>0</v>
-      </c>
-      <c r="C31" s="42">
-        <v>0</v>
-      </c>
-      <c r="D31" s="44"/>
+      <c r="B31" s="34">
+        <v>0</v>
+      </c>
+      <c r="C31" s="40">
+        <v>0</v>
+      </c>
+      <c r="D31" s="41"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -3883,22 +3885,22 @@
       <c r="AG31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="28" t="s">
+      <c r="AH31" s="35" t="s">
         <v>164</v>
       </c>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:37" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="35">
-        <v>0</v>
-      </c>
-      <c r="C32" s="42">
-        <v>0</v>
-      </c>
-      <c r="D32" s="44"/>
+      <c r="B32" s="34">
+        <v>0</v>
+      </c>
+      <c r="C32" s="40">
+        <v>0</v>
+      </c>
+      <c r="D32" s="41"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -3974,22 +3976,22 @@
       <c r="AG32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH32" s="28" t="s">
+      <c r="AH32" s="35" t="s">
         <v>165</v>
       </c>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="35">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42">
-        <v>0</v>
-      </c>
-      <c r="D33" s="44"/>
+      <c r="B33" s="34">
+        <v>0</v>
+      </c>
+      <c r="C33" s="40">
+        <v>0</v>
+      </c>
+      <c r="D33" s="41"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -4065,22 +4067,22 @@
       <c r="AG33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AH33" s="28" t="s">
+      <c r="AH33" s="35" t="s">
         <v>166</v>
       </c>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="35">
-        <v>0</v>
-      </c>
-      <c r="C34" s="42">
-        <v>0</v>
-      </c>
-      <c r="D34" s="44"/>
+      <c r="B34" s="34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="40">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -4156,22 +4158,22 @@
       <c r="AG34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AH34" s="28" t="s">
+      <c r="AH34" s="35" t="s">
         <v>167</v>
       </c>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="42">
-        <v>0</v>
-      </c>
-      <c r="D35" s="44"/>
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="40">
+        <v>0</v>
+      </c>
+      <c r="D35" s="41"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -4247,25 +4249,25 @@
       <c r="AG35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AH35" s="28" t="s">
+      <c r="AH35" s="35" t="s">
         <v>168</v>
       </c>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AI36" s="11"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AI37" s="11"/>
     </row>
-    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4297,17 +4299,17 @@
       <c r="AG39" s="20"/>
       <c r="AH39" s="11"/>
     </row>
-    <row r="40" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="35">
-        <v>1</v>
-      </c>
-      <c r="C40" s="42">
-        <v>0</v>
-      </c>
-      <c r="D40" s="44"/>
+      <c r="B40" s="34">
+        <v>1</v>
+      </c>
+      <c r="C40" s="40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="41"/>
       <c r="E40" s="22">
         <v>0</v>
       </c>
@@ -4381,62 +4383,184 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="C28:D28"/>
@@ -4461,184 +4585,62 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728643A3-8E99-4011-9D04-D1F62964340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F200C07-6CB5-4337-BB7F-05C7EF264172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,9 +465,6 @@
     <t>16#000010</t>
   </si>
   <si>
-    <t>16#004000</t>
-  </si>
-  <si>
     <t>16#84C000</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>16#200000</t>
   </si>
   <si>
-    <t>16#C00000</t>
-  </si>
-  <si>
     <t>16#800000</t>
   </si>
   <si>
@@ -538,6 +532,12 @@
   </si>
   <si>
     <t>HWINT [24]</t>
+  </si>
+  <si>
+    <t>16#0004000</t>
+  </si>
+  <si>
+    <t>16#0C00000</t>
   </si>
 </sst>
 </file>
@@ -892,76 +892,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:BC40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,25 +1338,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
@@ -1366,21 +1366,21 @@
       <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="48" t="s">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="58" t="s">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="60"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
       <c r="AG1" s="28" t="s">
         <v>142</v>
       </c>
@@ -1419,46 +1419,46 @@
         <v>4</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="48" t="s">
         <v>129</v>
       </c>
       <c r="Q2" s="36" t="s">
@@ -1503,16 +1503,16 @@
       <c r="AD2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="61" t="s">
+      <c r="AE2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AF2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="61" t="s">
+      <c r="AG2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="61" t="s">
+      <c r="AH2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="AI2" s="12"/>
@@ -1549,11 +1549,11 @@
       <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="40" t="s">
+      <c r="AX2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="41"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="40"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="9" t="s">
         <v>88</v>
@@ -1565,20 +1565,20 @@
     <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -1612,10 +1612,10 @@
       <c r="B4" s="34">
         <v>0</v>
       </c>
-      <c r="C4" s="40">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41"/>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1701,10 +1701,10 @@
       <c r="B5" s="34">
         <v>0</v>
       </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41"/>
+      <c r="C5" s="38">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1790,10 +1790,10 @@
       <c r="B6" s="34">
         <v>0</v>
       </c>
-      <c r="C6" s="40">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41"/>
+      <c r="C6" s="38">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="35" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="14" t="s">
@@ -1887,10 +1887,10 @@
       <c r="B7" s="34">
         <v>0</v>
       </c>
-      <c r="C7" s="40">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41"/>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="14" t="s">
@@ -1984,10 +1984,10 @@
       <c r="B8" s="34">
         <v>0</v>
       </c>
-      <c r="C8" s="40">
-        <v>1</v>
-      </c>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="40"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="14" t="s">
@@ -2081,10 +2081,10 @@
       <c r="B9" s="34">
         <v>0</v>
       </c>
-      <c r="C9" s="40">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41"/>
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="14" t="s">
@@ -2178,10 +2178,10 @@
       <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="C10" s="40">
-        <v>1</v>
-      </c>
-      <c r="D10" s="41"/>
+      <c r="C10" s="38">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="35" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="14" t="s">
@@ -2275,10 +2275,10 @@
       <c r="B11" s="34">
         <v>0</v>
       </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41"/>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="14" t="s">
@@ -2372,10 +2372,10 @@
       <c r="B12" s="34">
         <v>0</v>
       </c>
-      <c r="C12" s="40">
-        <v>1</v>
-      </c>
-      <c r="D12" s="41"/>
+      <c r="C12" s="38">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="14" t="s">
@@ -2463,16 +2463,16 @@
       </c>
     </row>
     <row r="13" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="46">
-        <v>0</v>
-      </c>
-      <c r="C13" s="42">
-        <v>1</v>
-      </c>
-      <c r="D13" s="43"/>
+      <c r="B13" s="60">
+        <v>0</v>
+      </c>
+      <c r="C13" s="54">
+        <v>1</v>
+      </c>
+      <c r="D13" s="55"/>
       <c r="E13" s="36">
         <v>0</v>
       </c>
@@ -2549,15 +2549,15 @@
       <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI13" s="11"/>
     </row>
     <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -2591,16 +2591,16 @@
       <c r="AI14" s="11"/>
     </row>
     <row r="15" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="46">
-        <v>0</v>
-      </c>
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="43"/>
+      <c r="B15" s="60">
+        <v>0</v>
+      </c>
+      <c r="C15" s="54">
+        <v>1</v>
+      </c>
+      <c r="D15" s="55"/>
       <c r="E15" s="36">
         <v>0</v>
       </c>
@@ -2677,15 +2677,15 @@
       <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI15" s="11"/>
     </row>
     <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -2722,16 +2722,16 @@
       <c r="AM16" s="27"/>
     </row>
     <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="46">
-        <v>0</v>
-      </c>
-      <c r="C17" s="42">
-        <v>1</v>
-      </c>
-      <c r="D17" s="43"/>
+      <c r="B17" s="60">
+        <v>0</v>
+      </c>
+      <c r="C17" s="54">
+        <v>1</v>
+      </c>
+      <c r="D17" s="55"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
@@ -2808,15 +2808,15 @@
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI17" s="11"/>
     </row>
     <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -2850,16 +2850,16 @@
       <c r="AI18" s="11"/>
     </row>
     <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="46">
-        <v>0</v>
-      </c>
-      <c r="C19" s="42">
-        <v>1</v>
-      </c>
-      <c r="D19" s="43"/>
+      <c r="B19" s="60">
+        <v>0</v>
+      </c>
+      <c r="C19" s="54">
+        <v>1</v>
+      </c>
+      <c r="D19" s="55"/>
       <c r="E19" s="36">
         <v>0</v>
       </c>
@@ -2936,15 +2936,15 @@
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
       <c r="AH19" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AI19" s="11"/>
     </row>
     <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -2984,10 +2984,10 @@
       <c r="B21" s="34">
         <v>0</v>
       </c>
-      <c r="C21" s="40">
-        <v>0</v>
-      </c>
-      <c r="D21" s="41"/>
+      <c r="C21" s="38">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AI21" s="11"/>
     </row>
@@ -3071,10 +3071,10 @@
       <c r="B22" s="34">
         <v>0</v>
       </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="41"/>
+      <c r="C22" s="38">
+        <v>1</v>
+      </c>
+      <c r="D22" s="40"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="13" t="s">
@@ -3164,10 +3164,10 @@
       <c r="B23" s="34">
         <v>0</v>
       </c>
-      <c r="C23" s="40">
-        <v>1</v>
-      </c>
-      <c r="D23" s="41"/>
+      <c r="C23" s="38">
+        <v>1</v>
+      </c>
+      <c r="D23" s="40"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="14" t="s">
@@ -3253,16 +3253,16 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="46">
-        <v>0</v>
-      </c>
-      <c r="C24" s="42">
-        <v>1</v>
-      </c>
-      <c r="D24" s="43"/>
+      <c r="B24" s="60">
+        <v>0</v>
+      </c>
+      <c r="C24" s="54">
+        <v>1</v>
+      </c>
+      <c r="D24" s="55"/>
       <c r="E24" s="36">
         <v>0</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="AF24" s="36"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="14" t="s">
@@ -3350,10 +3350,10 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -3393,16 +3393,16 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="46">
-        <v>0</v>
-      </c>
-      <c r="C26" s="42">
-        <v>0</v>
-      </c>
-      <c r="D26" s="43"/>
+      <c r="B26" s="60">
+        <v>0</v>
+      </c>
+      <c r="C26" s="54">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55"/>
       <c r="E26" s="36">
         <v>0</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="AF26" s="36"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="14" t="s">
@@ -3490,10 +3490,10 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -3533,10 +3533,10 @@
       <c r="B28" s="34">
         <v>0</v>
       </c>
-      <c r="C28" s="40">
-        <v>0</v>
-      </c>
-      <c r="D28" s="41"/>
+      <c r="C28" s="38">
+        <v>0</v>
+      </c>
+      <c r="D28" s="40"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>56</v>
       </c>
       <c r="AH28" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI28" s="11"/>
     </row>
@@ -3624,10 +3624,10 @@
       <c r="B29" s="34">
         <v>0</v>
       </c>
-      <c r="C29" s="40">
-        <v>0</v>
-      </c>
-      <c r="D29" s="41"/>
+      <c r="C29" s="38">
+        <v>0</v>
+      </c>
+      <c r="D29" s="40"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>56</v>
       </c>
       <c r="AH29" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI29" s="11"/>
     </row>
@@ -3715,10 +3715,10 @@
       <c r="B30" s="34">
         <v>0</v>
       </c>
-      <c r="C30" s="40">
-        <v>0</v>
-      </c>
-      <c r="D30" s="41"/>
+      <c r="C30" s="38">
+        <v>0</v>
+      </c>
+      <c r="D30" s="40"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>56</v>
       </c>
       <c r="AH30" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI30" s="11"/>
     </row>
@@ -3806,10 +3806,10 @@
       <c r="B31" s="34">
         <v>0</v>
       </c>
-      <c r="C31" s="40">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41"/>
+      <c r="C31" s="38">
+        <v>0</v>
+      </c>
+      <c r="D31" s="40"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>56</v>
       </c>
       <c r="AH31" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI31" s="11"/>
     </row>
@@ -3897,10 +3897,10 @@
       <c r="B32" s="34">
         <v>0</v>
       </c>
-      <c r="C32" s="40">
-        <v>0</v>
-      </c>
-      <c r="D32" s="41"/>
+      <c r="C32" s="38">
+        <v>0</v>
+      </c>
+      <c r="D32" s="40"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>56</v>
       </c>
       <c r="AH32" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI32" s="11"/>
     </row>
@@ -3988,10 +3988,10 @@
       <c r="B33" s="34">
         <v>0</v>
       </c>
-      <c r="C33" s="40">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41"/>
+      <c r="C33" s="38">
+        <v>0</v>
+      </c>
+      <c r="D33" s="40"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="AH33" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AI33" s="11"/>
     </row>
@@ -4079,10 +4079,10 @@
       <c r="B34" s="34">
         <v>0</v>
       </c>
-      <c r="C34" s="40">
-        <v>0</v>
-      </c>
-      <c r="D34" s="41"/>
+      <c r="C34" s="38">
+        <v>0</v>
+      </c>
+      <c r="D34" s="40"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>116</v>
       </c>
       <c r="AH34" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI34" s="11"/>
     </row>
@@ -4170,10 +4170,10 @@
       <c r="B35" s="34">
         <v>0</v>
       </c>
-      <c r="C35" s="40">
-        <v>0</v>
-      </c>
-      <c r="D35" s="41"/>
+      <c r="C35" s="38">
+        <v>0</v>
+      </c>
+      <c r="D35" s="40"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="AH35" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI35" s="11"/>
     </row>
@@ -4266,8 +4266,8 @@
         <v>28</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4306,10 +4306,10 @@
       <c r="B40" s="34">
         <v>1</v>
       </c>
-      <c r="C40" s="40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="41"/>
+      <c r="C40" s="38">
+        <v>0</v>
+      </c>
+      <c r="D40" s="40"/>
       <c r="E40" s="22">
         <v>0</v>
       </c>
@@ -4383,103 +4383,137 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="W13:W14"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -4504,143 +4538,109 @@
     <mergeCell ref="W15:W16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH15:AH16"/>
     <mergeCell ref="AE26:AE27"/>
     <mergeCell ref="AF26:AF27"/>
     <mergeCell ref="AG26:AG27"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AF17:AF18"/>
     <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCE\Semester 8\Computer Architecture\Project\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F200C07-6CB5-4337-BB7F-05C7EF264172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8892A49-1C73-49E4-A63C-D19A84A07E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -886,70 +886,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,10 +901,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
-  <dimension ref="A1:BC40"/>
+  <dimension ref="A1:BD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,185 +1337,186 @@
     <col min="54" max="54" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="36"/>
+      <c r="W1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="Y1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="45" t="s">
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="41" t="s">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="12"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="AI1" s="12"/>
+      <c r="AK1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AL1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AN1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="31"/>
       <c r="AO1" s="31"/>
-      <c r="AP1" s="32"/>
-      <c r="AR1" s="30" t="s">
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
+      <c r="AS1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="31"/>
       <c r="AT1" s="31"/>
-      <c r="AU1" s="32"/>
-      <c r="AW1" s="30" t="s">
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="32"/>
+      <c r="AX1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AX1" s="31"/>
       <c r="AY1" s="31"/>
-      <c r="AZ1" s="32"/>
-      <c r="BB1" s="30" t="s">
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="32"/>
+      <c r="BC1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
     </row>
-    <row r="2" spans="1:55" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:56" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="V2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AD2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AI2" s="12"/>
@@ -1549,11 +1553,11 @@
       <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="38" t="s">
+      <c r="AX2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="40"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="42"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="9" t="s">
         <v>88</v>
@@ -1562,41 +1566,41 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
+    <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="14" t="s">
         <v>31</v>
@@ -1605,17 +1609,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
       </c>
-      <c r="C4" s="38">
-        <v>0</v>
-      </c>
-      <c r="D4" s="40"/>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1694,17 +1698,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
       </c>
-      <c r="C5" s="38">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40"/>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1783,17 +1787,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="34">
         <v>0</v>
       </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="40"/>
+      <c r="C6" s="41">
+        <v>0</v>
+      </c>
+      <c r="D6" s="42"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1880,17 +1884,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="34">
         <v>0</v>
       </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40"/>
+      <c r="C7" s="41">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -1977,17 +1981,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="34">
         <v>0</v>
       </c>
-      <c r="C8" s="38">
-        <v>1</v>
-      </c>
-      <c r="D8" s="40"/>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -2074,17 +2078,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="34">
         <v>0</v>
       </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="40"/>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2171,17 +2175,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="C10" s="38">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40"/>
+      <c r="C10" s="41">
+        <v>1</v>
+      </c>
+      <c r="D10" s="42"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2268,17 +2272,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="34">
         <v>0</v>
       </c>
-      <c r="C11" s="38">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40"/>
+      <c r="C11" s="41">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -2365,17 +2369,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="34">
         <v>0</v>
       </c>
-      <c r="C12" s="38">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="41">
+        <v>1</v>
+      </c>
+      <c r="D12" s="42"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -2462,519 +2466,519 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:56" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="60">
-        <v>0</v>
-      </c>
-      <c r="C13" s="54">
-        <v>1</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0</v>
-      </c>
-      <c r="G13" s="36">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36" t="s">
+      <c r="B13" s="47">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="36">
-        <v>0</v>
-      </c>
-      <c r="L13" s="36">
-        <v>0</v>
-      </c>
-      <c r="M13" s="36">
-        <v>0</v>
-      </c>
-      <c r="N13" s="36">
-        <v>0</v>
-      </c>
-      <c r="O13" s="36">
-        <v>0</v>
-      </c>
-      <c r="P13" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="36">
-        <v>0</v>
-      </c>
-      <c r="R13" s="36">
-        <v>0</v>
-      </c>
-      <c r="S13" s="36">
-        <v>0</v>
-      </c>
-      <c r="T13" s="36">
-        <v>0</v>
-      </c>
-      <c r="U13" s="36">
-        <v>0</v>
-      </c>
-      <c r="V13" s="36">
-        <v>0</v>
-      </c>
-      <c r="W13" s="36" t="s">
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37">
+        <v>0</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>0</v>
+      </c>
+      <c r="R13" s="37">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37">
+        <v>0</v>
+      </c>
+      <c r="T13" s="37">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
+        <v>0</v>
+      </c>
+      <c r="V13" s="37">
+        <v>0</v>
+      </c>
+      <c r="W13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="36" t="s">
+      <c r="X13" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Y13" s="36" t="s">
+      <c r="Y13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="36" t="s">
+      <c r="Z13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AA13" s="36" t="s">
+      <c r="AA13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36" t="s">
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37" t="s">
         <v>150</v>
       </c>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
+    <row r="14" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:56" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="60">
-        <v>0</v>
-      </c>
-      <c r="C15" s="54">
-        <v>1</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0</v>
-      </c>
-      <c r="G15" s="36">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="36">
-        <v>0</v>
-      </c>
-      <c r="L15" s="36">
-        <v>0</v>
-      </c>
-      <c r="M15" s="36">
-        <v>0</v>
-      </c>
-      <c r="N15" s="36">
-        <v>0</v>
-      </c>
-      <c r="O15" s="36">
-        <v>0</v>
-      </c>
-      <c r="P15" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="36">
-        <v>0</v>
-      </c>
-      <c r="R15" s="36">
-        <v>0</v>
-      </c>
-      <c r="S15" s="36">
-        <v>0</v>
-      </c>
-      <c r="T15" s="36">
-        <v>0</v>
-      </c>
-      <c r="U15" s="36">
-        <v>0</v>
-      </c>
-      <c r="V15" s="36">
-        <v>0</v>
-      </c>
-      <c r="W15" s="36" t="s">
+      <c r="K15" s="37">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37">
+        <v>0</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0</v>
+      </c>
+      <c r="N15" s="37">
+        <v>0</v>
+      </c>
+      <c r="O15" s="37">
+        <v>0</v>
+      </c>
+      <c r="P15" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="37">
+        <v>0</v>
+      </c>
+      <c r="R15" s="37">
+        <v>0</v>
+      </c>
+      <c r="S15" s="37">
+        <v>0</v>
+      </c>
+      <c r="T15" s="37">
+        <v>0</v>
+      </c>
+      <c r="U15" s="37">
+        <v>0</v>
+      </c>
+      <c r="V15" s="37">
+        <v>0</v>
+      </c>
+      <c r="W15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="X15" s="36" t="s">
+      <c r="X15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="36" t="s">
+      <c r="Y15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Z15" s="36" t="s">
+      <c r="Z15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AA15" s="36" t="s">
+      <c r="AA15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36" t="s">
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37" t="s">
         <v>151</v>
       </c>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
+    <row r="16" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
       <c r="AI16" s="11"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="27"/>
     </row>
     <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="60">
-        <v>0</v>
-      </c>
-      <c r="C17" s="54">
-        <v>1</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="36">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0</v>
-      </c>
-      <c r="G17" s="36">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36" t="s">
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="36">
-        <v>0</v>
-      </c>
-      <c r="L17" s="36">
-        <v>0</v>
-      </c>
-      <c r="M17" s="36">
-        <v>0</v>
-      </c>
-      <c r="N17" s="36">
-        <v>0</v>
-      </c>
-      <c r="O17" s="36">
-        <v>0</v>
-      </c>
-      <c r="P17" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="36">
-        <v>0</v>
-      </c>
-      <c r="R17" s="36">
-        <v>0</v>
-      </c>
-      <c r="S17" s="36">
-        <v>0</v>
-      </c>
-      <c r="T17" s="36">
-        <v>0</v>
-      </c>
-      <c r="U17" s="36">
-        <v>0</v>
-      </c>
-      <c r="V17" s="36">
-        <v>0</v>
-      </c>
-      <c r="W17" s="36" t="s">
+      <c r="K17" s="37">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+      <c r="N17" s="37">
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <v>0</v>
+      </c>
+      <c r="P17" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>0</v>
+      </c>
+      <c r="R17" s="37">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37">
+        <v>0</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0</v>
+      </c>
+      <c r="V17" s="37">
+        <v>0</v>
+      </c>
+      <c r="W17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="36" t="s">
+      <c r="X17" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="Y17" s="36" t="s">
+      <c r="Y17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="36" t="s">
+      <c r="Z17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AA17" s="36" t="s">
+      <c r="AA17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36" t="s">
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37" t="s">
         <v>152</v>
       </c>
       <c r="AI17" s="11"/>
     </row>
     <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
       <c r="AI18" s="11"/>
     </row>
     <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="60">
-        <v>0</v>
-      </c>
-      <c r="C19" s="54">
-        <v>1</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="36">
-        <v>0</v>
-      </c>
-      <c r="F19" s="36">
-        <v>0</v>
-      </c>
-      <c r="G19" s="36">
-        <v>1</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="36" t="s">
+      <c r="B19" s="47">
+        <v>0</v>
+      </c>
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="36">
-        <v>0</v>
-      </c>
-      <c r="L19" s="36">
-        <v>0</v>
-      </c>
-      <c r="M19" s="36">
-        <v>0</v>
-      </c>
-      <c r="N19" s="36">
-        <v>0</v>
-      </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="36">
-        <v>0</v>
-      </c>
-      <c r="R19" s="36">
-        <v>0</v>
-      </c>
-      <c r="S19" s="36">
-        <v>0</v>
-      </c>
-      <c r="T19" s="36">
-        <v>0</v>
-      </c>
-      <c r="U19" s="36">
-        <v>0</v>
-      </c>
-      <c r="V19" s="36">
-        <v>0</v>
-      </c>
-      <c r="W19" s="36" t="s">
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+      <c r="N19" s="37">
+        <v>0</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>0</v>
+      </c>
+      <c r="R19" s="37">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37">
+        <v>0</v>
+      </c>
+      <c r="W19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="36" t="s">
+      <c r="X19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36" t="s">
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AC19" s="36" t="s">
+      <c r="AC19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AD19" s="36" t="s">
+      <c r="AD19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36" t="s">
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37" t="s">
         <v>153</v>
       </c>
       <c r="AI19" s="11"/>
     </row>
     <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
       <c r="AI20" s="11"/>
     </row>
     <row r="21" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2984,10 +2988,10 @@
       <c r="B21" s="34">
         <v>0</v>
       </c>
-      <c r="C21" s="38">
-        <v>0</v>
-      </c>
-      <c r="D21" s="40"/>
+      <c r="C21" s="41">
+        <v>0</v>
+      </c>
+      <c r="D21" s="42"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -3071,10 +3075,10 @@
       <c r="B22" s="34">
         <v>0</v>
       </c>
-      <c r="C22" s="38">
-        <v>1</v>
-      </c>
-      <c r="D22" s="40"/>
+      <c r="C22" s="41">
+        <v>1</v>
+      </c>
+      <c r="D22" s="42"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -3164,10 +3168,10 @@
       <c r="B23" s="34">
         <v>0</v>
       </c>
-      <c r="C23" s="38">
-        <v>1</v>
-      </c>
-      <c r="D23" s="40"/>
+      <c r="C23" s="41">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -3253,92 +3257,92 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="60">
-        <v>0</v>
-      </c>
-      <c r="C24" s="54">
-        <v>1</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="36">
-        <v>0</v>
-      </c>
-      <c r="F24" s="36">
-        <v>0</v>
-      </c>
-      <c r="G24" s="36">
-        <v>1</v>
-      </c>
-      <c r="H24" s="36" t="s">
+      <c r="B24" s="47">
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
+        <v>1</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="37">
+        <v>0</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="36">
-        <v>0</v>
-      </c>
-      <c r="L24" s="36">
-        <v>0</v>
-      </c>
-      <c r="M24" s="36">
-        <v>0</v>
-      </c>
-      <c r="N24" s="36">
-        <v>1</v>
-      </c>
-      <c r="O24" s="36">
-        <v>1</v>
-      </c>
-      <c r="P24" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>0</v>
-      </c>
-      <c r="R24" s="36">
-        <v>0</v>
-      </c>
-      <c r="S24" s="36">
-        <v>0</v>
-      </c>
-      <c r="T24" s="36">
-        <v>0</v>
-      </c>
-      <c r="U24" s="36">
-        <v>0</v>
-      </c>
-      <c r="V24" s="36">
-        <v>0</v>
-      </c>
-      <c r="W24" s="36" t="s">
+      <c r="K24" s="37">
+        <v>0</v>
+      </c>
+      <c r="L24" s="37">
+        <v>0</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0</v>
+      </c>
+      <c r="N24" s="37">
+        <v>1</v>
+      </c>
+      <c r="O24" s="37">
+        <v>1</v>
+      </c>
+      <c r="P24" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="37">
+        <v>0</v>
+      </c>
+      <c r="R24" s="37">
+        <v>0</v>
+      </c>
+      <c r="S24" s="37">
+        <v>0</v>
+      </c>
+      <c r="T24" s="37">
+        <v>0</v>
+      </c>
+      <c r="U24" s="37">
+        <v>0</v>
+      </c>
+      <c r="V24" s="37">
+        <v>0</v>
+      </c>
+      <c r="W24" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="X24" s="36" t="s">
+      <c r="X24" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36" t="s">
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AC24" s="36" t="s">
+      <c r="AC24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AD24" s="36" t="s">
+      <c r="AD24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36" t="s">
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37" t="s">
         <v>158</v>
       </c>
       <c r="AI24" s="11"/>
@@ -3350,40 +3354,40 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="14" t="s">
         <v>94</v>
@@ -3393,92 +3397,92 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="60">
-        <v>0</v>
-      </c>
-      <c r="C26" s="54">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="36">
-        <v>0</v>
-      </c>
-      <c r="F26" s="36">
-        <v>0</v>
-      </c>
-      <c r="G26" s="36">
-        <v>1</v>
-      </c>
-      <c r="H26" s="36" t="s">
+      <c r="B26" s="47">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="37">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0</v>
+      </c>
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+      <c r="H26" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="36">
-        <v>0</v>
-      </c>
-      <c r="L26" s="36">
-        <v>0</v>
-      </c>
-      <c r="M26" s="36">
-        <v>1</v>
-      </c>
-      <c r="N26" s="36">
-        <v>0</v>
-      </c>
-      <c r="O26" s="36" t="s">
+      <c r="K26" s="37">
+        <v>0</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
+        <v>1</v>
+      </c>
+      <c r="N26" s="37">
+        <v>0</v>
+      </c>
+      <c r="O26" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="36">
-        <v>0</v>
-      </c>
-      <c r="R26" s="36">
-        <v>0</v>
-      </c>
-      <c r="S26" s="36">
-        <v>0</v>
-      </c>
-      <c r="T26" s="36">
-        <v>0</v>
-      </c>
-      <c r="U26" s="36">
-        <v>0</v>
-      </c>
-      <c r="V26" s="36">
-        <v>0</v>
-      </c>
-      <c r="W26" s="36" t="s">
+      <c r="P26" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>0</v>
+      </c>
+      <c r="R26" s="37">
+        <v>0</v>
+      </c>
+      <c r="S26" s="37">
+        <v>0</v>
+      </c>
+      <c r="T26" s="37">
+        <v>0</v>
+      </c>
+      <c r="U26" s="37">
+        <v>0</v>
+      </c>
+      <c r="V26" s="37">
+        <v>0</v>
+      </c>
+      <c r="W26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="X26" s="36" t="s">
+      <c r="X26" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36" t="s">
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="36" t="s">
+      <c r="AC26" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" s="36" t="s">
+      <c r="AD26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36" t="s">
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37" t="s">
         <v>157</v>
       </c>
       <c r="AI26" s="11"/>
@@ -3490,40 +3494,40 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
       <c r="AI27" s="11"/>
     </row>
     <row r="28" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3533,10 +3537,10 @@
       <c r="B28" s="34">
         <v>0</v>
       </c>
-      <c r="C28" s="38">
-        <v>0</v>
-      </c>
-      <c r="D28" s="40"/>
+      <c r="C28" s="41">
+        <v>0</v>
+      </c>
+      <c r="D28" s="42"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -3624,10 +3628,10 @@
       <c r="B29" s="34">
         <v>0</v>
       </c>
-      <c r="C29" s="38">
-        <v>0</v>
-      </c>
-      <c r="D29" s="40"/>
+      <c r="C29" s="41">
+        <v>0</v>
+      </c>
+      <c r="D29" s="42"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -3715,10 +3719,10 @@
       <c r="B30" s="34">
         <v>0</v>
       </c>
-      <c r="C30" s="38">
-        <v>0</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="41">
+        <v>0</v>
+      </c>
+      <c r="D30" s="42"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -3806,10 +3810,10 @@
       <c r="B31" s="34">
         <v>0</v>
       </c>
-      <c r="C31" s="38">
-        <v>0</v>
-      </c>
-      <c r="D31" s="40"/>
+      <c r="C31" s="41">
+        <v>0</v>
+      </c>
+      <c r="D31" s="42"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -3897,10 +3901,10 @@
       <c r="B32" s="34">
         <v>0</v>
       </c>
-      <c r="C32" s="38">
-        <v>0</v>
-      </c>
-      <c r="D32" s="40"/>
+      <c r="C32" s="41">
+        <v>0</v>
+      </c>
+      <c r="D32" s="42"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -3988,10 +3992,10 @@
       <c r="B33" s="34">
         <v>0</v>
       </c>
-      <c r="C33" s="38">
-        <v>0</v>
-      </c>
-      <c r="D33" s="40"/>
+      <c r="C33" s="41">
+        <v>0</v>
+      </c>
+      <c r="D33" s="42"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -4079,10 +4083,10 @@
       <c r="B34" s="34">
         <v>0</v>
       </c>
-      <c r="C34" s="38">
-        <v>0</v>
-      </c>
-      <c r="D34" s="40"/>
+      <c r="C34" s="41">
+        <v>0</v>
+      </c>
+      <c r="D34" s="42"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -4170,10 +4174,10 @@
       <c r="B35" s="34">
         <v>0</v>
       </c>
-      <c r="C35" s="38">
-        <v>0</v>
-      </c>
-      <c r="D35" s="40"/>
+      <c r="C35" s="41">
+        <v>0</v>
+      </c>
+      <c r="D35" s="42"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -4266,8 +4270,8 @@
         <v>28</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4306,10 +4310,10 @@
       <c r="B40" s="34">
         <v>1</v>
       </c>
-      <c r="C40" s="38">
-        <v>0</v>
-      </c>
-      <c r="D40" s="40"/>
+      <c r="C40" s="41">
+        <v>0</v>
+      </c>
+      <c r="D40" s="42"/>
       <c r="E40" s="22">
         <v>0</v>
       </c>
@@ -4383,52 +4387,171 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="C28:D28"/>
@@ -4453,194 +4576,75 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="C26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="R26:R27"/>
     <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W26:W27"/>
     <mergeCell ref="V26:V27"/>
-    <mergeCell ref="T26:T27"/>
     <mergeCell ref="W24:W25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
     <mergeCell ref="W13:W14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="W15:W16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="AB19:AB20"/>
     <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AG17:AG18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCE\Semester 8\Computer Architecture\Project\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8892A49-1C73-49E4-A63C-D19A84A07E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C940BF-FB32-4E2F-A034-F0A9036E7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -895,77 +895,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:BD40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="O24" sqref="O24:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,25 +1341,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
@@ -1370,21 +1370,21 @@
       <c r="X1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="49" t="s">
+      <c r="Y1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="49" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="59" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44"/>
       <c r="AH1" s="28" t="s">
         <v>142</v>
       </c>
@@ -1425,44 +1425,44 @@
       <c r="B2" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="49" t="s">
         <v>129</v>
       </c>
       <c r="Q2" s="37" t="s">
@@ -1507,16 +1507,16 @@
       <c r="AD2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="62" t="s">
+      <c r="AE2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="AI2" s="12"/>
@@ -1553,11 +1553,11 @@
       <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="41" t="s">
+      <c r="AX2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="42"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="41"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="9" t="s">
         <v>88</v>
@@ -1569,20 +1569,20 @@
     <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
@@ -1616,10 +1616,10 @@
       <c r="B4" s="34">
         <v>0</v>
       </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="42"/>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1705,10 +1705,10 @@
       <c r="B5" s="34">
         <v>0</v>
       </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="42"/>
+      <c r="C5" s="39">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1794,10 +1794,10 @@
       <c r="B6" s="34">
         <v>0</v>
       </c>
-      <c r="C6" s="41">
-        <v>0</v>
-      </c>
-      <c r="D6" s="42"/>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1891,10 +1891,10 @@
       <c r="B7" s="34">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="42"/>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -1988,10 +1988,10 @@
       <c r="B8" s="34">
         <v>0</v>
       </c>
-      <c r="C8" s="41">
-        <v>1</v>
-      </c>
-      <c r="D8" s="42"/>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -2085,10 +2085,10 @@
       <c r="B9" s="34">
         <v>0</v>
       </c>
-      <c r="C9" s="41">
-        <v>0</v>
-      </c>
-      <c r="D9" s="42"/>
+      <c r="C9" s="39">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2182,10 +2182,10 @@
       <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="C10" s="41">
-        <v>1</v>
-      </c>
-      <c r="D10" s="42"/>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2279,10 +2279,10 @@
       <c r="B11" s="34">
         <v>0</v>
       </c>
-      <c r="C11" s="41">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42"/>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="41"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -2376,10 +2376,10 @@
       <c r="B12" s="34">
         <v>0</v>
       </c>
-      <c r="C12" s="41">
-        <v>1</v>
-      </c>
-      <c r="D12" s="42"/>
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -2467,16 +2467,16 @@
       </c>
     </row>
     <row r="13" spans="1:56" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="47">
-        <v>0</v>
-      </c>
-      <c r="C13" s="43">
-        <v>1</v>
-      </c>
-      <c r="D13" s="44"/>
+      <c r="B13" s="59">
+        <v>0</v>
+      </c>
+      <c r="C13" s="55">
+        <v>1</v>
+      </c>
+      <c r="D13" s="56"/>
       <c r="E13" s="37">
         <v>0</v>
       </c>
@@ -2558,10 +2558,10 @@
       <c r="AI13" s="11"/>
     </row>
     <row r="14" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -2595,16 +2595,16 @@
       <c r="AI14" s="11"/>
     </row>
     <row r="15" spans="1:56" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="47">
-        <v>0</v>
-      </c>
-      <c r="C15" s="43">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44"/>
+      <c r="B15" s="59">
+        <v>0</v>
+      </c>
+      <c r="C15" s="55">
+        <v>1</v>
+      </c>
+      <c r="D15" s="56"/>
       <c r="E15" s="37">
         <v>0</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="AI15" s="11"/>
     </row>
     <row r="16" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -2726,16 +2726,16 @@
       <c r="AM16" s="27"/>
     </row>
     <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="47">
-        <v>0</v>
-      </c>
-      <c r="C17" s="43">
-        <v>1</v>
-      </c>
-      <c r="D17" s="44"/>
+      <c r="B17" s="59">
+        <v>0</v>
+      </c>
+      <c r="C17" s="55">
+        <v>1</v>
+      </c>
+      <c r="D17" s="56"/>
       <c r="E17" s="37">
         <v>0</v>
       </c>
@@ -2817,10 +2817,10 @@
       <c r="AI17" s="11"/>
     </row>
     <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2854,16 +2854,16 @@
       <c r="AI18" s="11"/>
     </row>
     <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="47">
-        <v>0</v>
-      </c>
-      <c r="C19" s="43">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44"/>
+      <c r="B19" s="59">
+        <v>0</v>
+      </c>
+      <c r="C19" s="55">
+        <v>1</v>
+      </c>
+      <c r="D19" s="56"/>
       <c r="E19" s="37">
         <v>0</v>
       </c>
@@ -2945,10 +2945,10 @@
       <c r="AI19" s="11"/>
     </row>
     <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -2988,10 +2988,10 @@
       <c r="B21" s="34">
         <v>0</v>
       </c>
-      <c r="C21" s="41">
-        <v>0</v>
-      </c>
-      <c r="D21" s="42"/>
+      <c r="C21" s="39">
+        <v>0</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>59</v>
@@ -3075,10 +3075,10 @@
       <c r="B22" s="34">
         <v>0</v>
       </c>
-      <c r="C22" s="41">
-        <v>1</v>
-      </c>
-      <c r="D22" s="42"/>
+      <c r="C22" s="39">
+        <v>1</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -3168,10 +3168,10 @@
       <c r="B23" s="34">
         <v>0</v>
       </c>
-      <c r="C23" s="41">
-        <v>1</v>
-      </c>
-      <c r="D23" s="42"/>
+      <c r="C23" s="39">
+        <v>1</v>
+      </c>
+      <c r="D23" s="41"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>113</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -3257,16 +3257,16 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="47">
-        <v>0</v>
-      </c>
-      <c r="C24" s="43">
-        <v>1</v>
-      </c>
-      <c r="D24" s="44"/>
+      <c r="B24" s="59">
+        <v>0</v>
+      </c>
+      <c r="C24" s="55">
+        <v>1</v>
+      </c>
+      <c r="D24" s="56"/>
       <c r="E24" s="37">
         <v>0</v>
       </c>
@@ -3354,10 +3354,10 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -3397,16 +3397,16 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="47">
-        <v>0</v>
-      </c>
-      <c r="C26" s="43">
-        <v>0</v>
-      </c>
-      <c r="D26" s="44"/>
+      <c r="B26" s="59">
+        <v>0</v>
+      </c>
+      <c r="C26" s="55">
+        <v>0</v>
+      </c>
+      <c r="D26" s="56"/>
       <c r="E26" s="37">
         <v>0</v>
       </c>
@@ -3494,10 +3494,10 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -3537,10 +3537,10 @@
       <c r="B28" s="34">
         <v>0</v>
       </c>
-      <c r="C28" s="41">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42"/>
+      <c r="C28" s="39">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -3628,10 +3628,10 @@
       <c r="B29" s="34">
         <v>0</v>
       </c>
-      <c r="C29" s="41">
-        <v>0</v>
-      </c>
-      <c r="D29" s="42"/>
+      <c r="C29" s="39">
+        <v>0</v>
+      </c>
+      <c r="D29" s="41"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -3719,10 +3719,10 @@
       <c r="B30" s="34">
         <v>0</v>
       </c>
-      <c r="C30" s="41">
-        <v>0</v>
-      </c>
-      <c r="D30" s="42"/>
+      <c r="C30" s="39">
+        <v>0</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -3810,10 +3810,10 @@
       <c r="B31" s="34">
         <v>0</v>
       </c>
-      <c r="C31" s="41">
-        <v>0</v>
-      </c>
-      <c r="D31" s="42"/>
+      <c r="C31" s="39">
+        <v>0</v>
+      </c>
+      <c r="D31" s="41"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -3901,10 +3901,10 @@
       <c r="B32" s="34">
         <v>0</v>
       </c>
-      <c r="C32" s="41">
-        <v>0</v>
-      </c>
-      <c r="D32" s="42"/>
+      <c r="C32" s="39">
+        <v>0</v>
+      </c>
+      <c r="D32" s="41"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -3992,10 +3992,10 @@
       <c r="B33" s="34">
         <v>0</v>
       </c>
-      <c r="C33" s="41">
-        <v>0</v>
-      </c>
-      <c r="D33" s="42"/>
+      <c r="C33" s="39">
+        <v>0</v>
+      </c>
+      <c r="D33" s="41"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -4083,10 +4083,10 @@
       <c r="B34" s="34">
         <v>0</v>
       </c>
-      <c r="C34" s="41">
-        <v>0</v>
-      </c>
-      <c r="D34" s="42"/>
+      <c r="C34" s="39">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -4174,10 +4174,10 @@
       <c r="B35" s="34">
         <v>0</v>
       </c>
-      <c r="C35" s="41">
-        <v>0</v>
-      </c>
-      <c r="D35" s="42"/>
+      <c r="C35" s="39">
+        <v>0</v>
+      </c>
+      <c r="D35" s="41"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -4270,8 +4270,8 @@
         <v>28</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4310,10 +4310,10 @@
       <c r="B40" s="34">
         <v>1</v>
       </c>
-      <c r="C40" s="41">
-        <v>0</v>
-      </c>
-      <c r="D40" s="42"/>
+      <c r="C40" s="39">
+        <v>0</v>
+      </c>
+      <c r="D40" s="41"/>
       <c r="E40" s="22">
         <v>0</v>
       </c>
@@ -4387,6 +4387,240 @@
     </row>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
     <mergeCell ref="AH17:AH18"/>
     <mergeCell ref="AH19:AH20"/>
     <mergeCell ref="AH24:AH25"/>
@@ -4411,240 +4645,6 @@
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AF17:AF18"/>
     <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCE\Semester 8\Computer Architecture\Project\Architecture-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C940BF-FB32-4E2F-A034-F0A9036E7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A4999B-2CB5-4DD2-97C3-F647E1A10729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E858663-1FD8-418A-96F6-784D0D9CF43C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="170">
   <si>
     <t>Instruction</t>
   </si>
@@ -895,77 +895,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9834DC43-CD6B-4773-9F5D-9D470392FD57}">
   <dimension ref="A1:BD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:O25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,25 +1341,25 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
@@ -1370,21 +1370,21 @@
       <c r="X1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="46" t="s">
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
       <c r="AH1" s="28" t="s">
         <v>142</v>
       </c>
@@ -1425,44 +1425,44 @@
       <c r="B2" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="51" t="s">
         <v>129</v>
       </c>
       <c r="Q2" s="37" t="s">
@@ -1507,16 +1507,16 @@
       <c r="AD2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AI2" s="12"/>
@@ -1553,11 +1553,11 @@
       <c r="AW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="39" t="s">
+      <c r="AX2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="41"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="48"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="9" t="s">
         <v>88</v>
@@ -1569,20 +1569,20 @@
     <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
@@ -1609,17 +1609,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
       </c>
-      <c r="C4" s="39">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41"/>
+      <c r="C4" s="47">
+        <v>0</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -1698,17 +1698,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
       </c>
-      <c r="C5" s="39">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41"/>
+      <c r="C5" s="47">
+        <v>0</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1787,17 +1787,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="34">
         <v>0</v>
       </c>
-      <c r="C6" s="39">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41"/>
+      <c r="C6" s="47">
+        <v>0</v>
+      </c>
+      <c r="D6" s="48"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1884,17 +1884,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="34">
         <v>0</v>
       </c>
-      <c r="C7" s="39">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41"/>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -1981,17 +1981,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="25.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="34">
         <v>0</v>
       </c>
-      <c r="C8" s="39">
-        <v>1</v>
-      </c>
-      <c r="D8" s="41"/>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -2078,17 +2078,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="34">
         <v>0</v>
       </c>
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41"/>
+      <c r="C9" s="47">
+        <v>0</v>
+      </c>
+      <c r="D9" s="48"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2175,17 +2175,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="C10" s="39">
-        <v>1</v>
-      </c>
-      <c r="D10" s="41"/>
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="48"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2272,17 +2272,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="34">
         <v>0</v>
       </c>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41"/>
+      <c r="C11" s="47">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -2369,17 +2369,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="34">
         <v>0</v>
       </c>
-      <c r="C12" s="39">
-        <v>1</v>
-      </c>
-      <c r="D12" s="41"/>
+      <c r="C12" s="47">
+        <v>1</v>
+      </c>
+      <c r="D12" s="48"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -2466,17 +2466,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:56" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="59">
-        <v>0</v>
-      </c>
-      <c r="C13" s="55">
-        <v>1</v>
-      </c>
-      <c r="D13" s="56"/>
+      <c r="B13" s="41">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44"/>
       <c r="E13" s="37">
         <v>0</v>
       </c>
@@ -2557,11 +2557,11 @@
       </c>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+    <row r="14" spans="1:56" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -2594,17 +2594,17 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:56" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:56" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="59">
-        <v>0</v>
-      </c>
-      <c r="C15" s="55">
-        <v>1</v>
-      </c>
-      <c r="D15" s="56"/>
+      <c r="B15" s="41">
+        <v>0</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44"/>
       <c r="E15" s="37">
         <v>0</v>
       </c>
@@ -2685,11 +2685,11 @@
       </c>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+    <row r="16" spans="1:56" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -2725,17 +2725,17 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="27"/>
     </row>
-    <row r="17" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:37" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="59">
-        <v>0</v>
-      </c>
-      <c r="C17" s="55">
-        <v>1</v>
-      </c>
-      <c r="D17" s="56"/>
+      <c r="B17" s="41">
+        <v>0</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="44"/>
       <c r="E17" s="37">
         <v>0</v>
       </c>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+    <row r="18" spans="1:37" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2853,17 +2853,17 @@
       <c r="AH18" s="38"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:37" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="59">
-        <v>0</v>
-      </c>
-      <c r="C19" s="55">
-        <v>1</v>
-      </c>
-      <c r="D19" s="56"/>
+      <c r="B19" s="41">
+        <v>0</v>
+      </c>
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="44"/>
       <c r="E19" s="37">
         <v>0</v>
       </c>
@@ -2944,11 +2944,11 @@
       </c>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+    <row r="20" spans="1:37" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -2988,10 +2988,10 @@
       <c r="B21" s="34">
         <v>0</v>
       </c>
-      <c r="C21" s="39">
-        <v>0</v>
-      </c>
-      <c r="D21" s="41"/>
+      <c r="C21" s="47">
+        <v>0</v>
+      </c>
+      <c r="D21" s="48"/>
       <c r="E21" s="2">
         <v>0</v>
       </c>
@@ -3075,10 +3075,10 @@
       <c r="B22" s="34">
         <v>0</v>
       </c>
-      <c r="C22" s="39">
-        <v>1</v>
-      </c>
-      <c r="D22" s="41"/>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="48"/>
       <c r="E22" s="2">
         <v>0</v>
       </c>
@@ -3168,10 +3168,10 @@
       <c r="B23" s="34">
         <v>0</v>
       </c>
-      <c r="C23" s="39">
-        <v>1</v>
-      </c>
-      <c r="D23" s="41"/>
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+      <c r="D23" s="48"/>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -3257,16 +3257,16 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="59">
-        <v>0</v>
-      </c>
-      <c r="C24" s="55">
-        <v>1</v>
-      </c>
-      <c r="D24" s="56"/>
+      <c r="B24" s="41">
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
+        <v>1</v>
+      </c>
+      <c r="D24" s="44"/>
       <c r="E24" s="37">
         <v>0</v>
       </c>
@@ -3354,10 +3354,10 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="62"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -3396,17 +3396,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="61" t="s">
+    <row r="26" spans="1:37" ht="29.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="59">
-        <v>0</v>
-      </c>
-      <c r="C26" s="55">
-        <v>0</v>
-      </c>
-      <c r="D26" s="56"/>
+      <c r="B26" s="41">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44"/>
       <c r="E26" s="37">
         <v>0</v>
       </c>
@@ -3493,11 +3493,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="62"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+    <row r="27" spans="1:37" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -3530,17 +3530,17 @@
       <c r="AH27" s="38"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="34">
         <v>0</v>
       </c>
-      <c r="C28" s="39">
-        <v>0</v>
-      </c>
-      <c r="D28" s="41"/>
+      <c r="C28" s="47">
+        <v>0</v>
+      </c>
+      <c r="D28" s="48"/>
       <c r="E28" s="2">
         <v>0</v>
       </c>
@@ -3621,17 +3621,17 @@
       </c>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="34">
         <v>0</v>
       </c>
-      <c r="C29" s="39">
-        <v>0</v>
-      </c>
-      <c r="D29" s="41"/>
+      <c r="C29" s="47">
+        <v>0</v>
+      </c>
+      <c r="D29" s="48"/>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -3712,17 +3712,17 @@
       </c>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="34">
         <v>0</v>
       </c>
-      <c r="C30" s="39">
-        <v>0</v>
-      </c>
-      <c r="D30" s="41"/>
+      <c r="C30" s="47">
+        <v>0</v>
+      </c>
+      <c r="D30" s="48"/>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -3803,17 +3803,17 @@
       </c>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="34">
         <v>0</v>
       </c>
-      <c r="C31" s="39">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41"/>
+      <c r="C31" s="47">
+        <v>0</v>
+      </c>
+      <c r="D31" s="48"/>
       <c r="E31" s="2">
         <v>0</v>
       </c>
@@ -3901,10 +3901,10 @@
       <c r="B32" s="34">
         <v>0</v>
       </c>
-      <c r="C32" s="39">
-        <v>0</v>
-      </c>
-      <c r="D32" s="41"/>
+      <c r="C32" s="47">
+        <v>0</v>
+      </c>
+      <c r="D32" s="48"/>
       <c r="E32" s="2">
         <v>0</v>
       </c>
@@ -3992,10 +3992,10 @@
       <c r="B33" s="34">
         <v>0</v>
       </c>
-      <c r="C33" s="39">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41"/>
+      <c r="C33" s="47">
+        <v>0</v>
+      </c>
+      <c r="D33" s="48"/>
       <c r="E33" s="2">
         <v>0</v>
       </c>
@@ -4026,8 +4026,8 @@
       <c r="N33" s="2">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>4</v>
+      <c r="O33" s="2">
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>4</v>
@@ -4083,10 +4083,10 @@
       <c r="B34" s="34">
         <v>0</v>
       </c>
-      <c r="C34" s="39">
-        <v>0</v>
-      </c>
-      <c r="D34" s="41"/>
+      <c r="C34" s="47">
+        <v>0</v>
+      </c>
+      <c r="D34" s="48"/>
       <c r="E34" s="2">
         <v>0</v>
       </c>
@@ -4174,10 +4174,10 @@
       <c r="B35" s="34">
         <v>0</v>
       </c>
-      <c r="C35" s="39">
-        <v>0</v>
-      </c>
-      <c r="D35" s="41"/>
+      <c r="C35" s="47">
+        <v>0</v>
+      </c>
+      <c r="D35" s="48"/>
       <c r="E35" s="2">
         <v>0</v>
       </c>
@@ -4208,8 +4208,8 @@
       <c r="N35" s="2">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>4</v>
+      <c r="O35" s="2">
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>4</v>
@@ -4270,8 +4270,8 @@
         <v>28</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4310,10 +4310,10 @@
       <c r="B40" s="34">
         <v>1</v>
       </c>
-      <c r="C40" s="39">
-        <v>0</v>
-      </c>
-      <c r="D40" s="41"/>
+      <c r="C40" s="47">
+        <v>0</v>
+      </c>
+      <c r="D40" s="48"/>
       <c r="E40" s="22">
         <v>0</v>
       </c>
@@ -4387,240 +4387,6 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
     <mergeCell ref="AH17:AH18"/>
     <mergeCell ref="AH19:AH20"/>
     <mergeCell ref="AH24:AH25"/>
@@ -4645,6 +4411,240 @@
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AF17:AF18"/>
     <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
